--- a/InputData/trans/BNVP/BAU New Vehicle Price.xlsx
+++ b/InputData/trans/BNVP/BAU New Vehicle Price.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-india\InputData\trans\BNVP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\trans\BNVP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,18 +24,20 @@
     <sheet name="Ships" sheetId="25" r:id="rId10"/>
     <sheet name="Rail" sheetId="37" r:id="rId11"/>
     <sheet name="Hydrogen - US data" sheetId="39" r:id="rId12"/>
-    <sheet name="BNVP-LDVs-psgr" sheetId="2" r:id="rId13"/>
-    <sheet name="BNVP-LDVs-frgt" sheetId="8" r:id="rId14"/>
-    <sheet name="BNVP-HDVs-psgr" sheetId="9" r:id="rId15"/>
-    <sheet name="BNVP-HDVs-frgt" sheetId="10" r:id="rId16"/>
-    <sheet name="BNVP-aircraft-psgr" sheetId="11" r:id="rId17"/>
-    <sheet name="BNVP-aircraft-frgt" sheetId="12" r:id="rId18"/>
-    <sheet name="BNVP-rail-psgr" sheetId="13" r:id="rId19"/>
-    <sheet name="BNVP-rail-frgt" sheetId="14" r:id="rId20"/>
-    <sheet name="BNVP-ships-psgr" sheetId="15" r:id="rId21"/>
-    <sheet name="BNVP-ships-frgt" sheetId="16" r:id="rId22"/>
-    <sheet name="BNVP-motorbikes-psgr" sheetId="17" r:id="rId23"/>
-    <sheet name="BNVP-motorbikes-frgt" sheetId="18" r:id="rId24"/>
+    <sheet name="US HDV" sheetId="40" r:id="rId13"/>
+    <sheet name="US frgt LDV" sheetId="41" r:id="rId14"/>
+    <sheet name="BNVP-LDVs-psgr" sheetId="2" r:id="rId15"/>
+    <sheet name="BNVP-LDVs-frgt" sheetId="8" r:id="rId16"/>
+    <sheet name="BNVP-HDVs-psgr" sheetId="9" r:id="rId17"/>
+    <sheet name="BNVP-HDVs-frgt" sheetId="10" r:id="rId18"/>
+    <sheet name="BNVP-aircraft-psgr" sheetId="11" r:id="rId19"/>
+    <sheet name="BNVP-aircraft-frgt" sheetId="12" r:id="rId20"/>
+    <sheet name="BNVP-rail-psgr" sheetId="13" r:id="rId21"/>
+    <sheet name="BNVP-rail-frgt" sheetId="14" r:id="rId22"/>
+    <sheet name="BNVP-ships-psgr" sheetId="15" r:id="rId23"/>
+    <sheet name="BNVP-ships-frgt" sheetId="16" r:id="rId24"/>
+    <sheet name="BNVP-motorbikes-psgr" sheetId="17" r:id="rId25"/>
+    <sheet name="BNVP-motorbikes-frgt" sheetId="18" r:id="rId26"/>
   </sheets>
   <definedNames>
     <definedName name="cpi_2010to2012">About!#REF!</definedName>
@@ -43,7 +45,7 @@
     <definedName name="cpi_2014to2012">About!#REF!</definedName>
     <definedName name="cpi_2016to2012">About!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="306">
   <si>
     <t>battery electric vehicle</t>
   </si>
@@ -942,14 +944,48 @@
   </si>
   <si>
     <t>Data from trans/BNVP - EPS US 2.1</t>
+  </si>
+  <si>
+    <t>Infraprime Logistics</t>
+  </si>
+  <si>
+    <t>Mahindra e Supro</t>
+  </si>
+  <si>
+    <t>Croyance electric truck</t>
+  </si>
+  <si>
+    <t>https://www.drivespark.com/four-wheelers/2019/electric-commercial-vehicles-india-croyance-electro-launch-027624.html</t>
+  </si>
+  <si>
+    <t>https://auto.economictimes.indiatimes.com/news/commercial-vehicle/lcv/mahindra-e-supro-launched-for-rs-8-45-lakh-ex-delhi/54712615#:~:text</t>
+  </si>
+  <si>
+    <t>Mahindra%20e%20Supro%20launched%20for%20Rs%208.45%20lakh%20(ex%20Delhi),-The%20launch%20takes&amp;text</t>
+  </si>
+  <si>
+    <t>NEW%20DELHI%3A%20Homegrown%20auto%20major,lakh%20(passenger)%20in%20Delhi.</t>
+  </si>
+  <si>
+    <t>https://www.financialexpress.com/auto/electric-vehicles/etrio-electric-tata-ace-120-km-range-indias-first-retrofitted-elcv-electric-truck-electric-cv/2058765/#:~:text</t>
+  </si>
+  <si>
+    <t>Etrio's%20e%2DLCV%20based%20on,the%20total%20cost%20of%20ownership.&amp;text</t>
+  </si>
+  <si>
+    <t>Etrio%2C%20an%20electric%20vehicle%20start,light%20commercial%20vehicle%20(eLCV).</t>
+  </si>
+  <si>
+    <t>Etrio Tata Ace</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
@@ -1044,7 +1080,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1072,6 +1108,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,7 +1207,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
@@ -1187,8 +1229,9 @@
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1279,9 +1322,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="12">
     <cellStyle name="Body: normal cell" xfId="4"/>
+    <cellStyle name="Comma" xfId="11" builtinId="3"/>
     <cellStyle name="Currency" xfId="8" builtinId="4"/>
     <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
     <cellStyle name="Footnotes: top row" xfId="2"/>
@@ -1307,6 +1353,49 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>471487</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>623058</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104396</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5572125" y="1238250"/>
+          <a:ext cx="6628571" cy="3028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4144,6 +4233,1652 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1">
+        <v>2019</v>
+      </c>
+      <c r="C1">
+        <v>2020</v>
+      </c>
+      <c r="D1">
+        <v>2021</v>
+      </c>
+      <c r="E1">
+        <v>2022</v>
+      </c>
+      <c r="F1">
+        <v>2023</v>
+      </c>
+      <c r="G1">
+        <v>2024</v>
+      </c>
+      <c r="H1">
+        <v>2025</v>
+      </c>
+      <c r="I1">
+        <v>2026</v>
+      </c>
+      <c r="J1">
+        <v>2027</v>
+      </c>
+      <c r="K1">
+        <v>2028</v>
+      </c>
+      <c r="L1">
+        <v>2029</v>
+      </c>
+      <c r="M1">
+        <v>2030</v>
+      </c>
+      <c r="N1">
+        <v>2031</v>
+      </c>
+      <c r="O1">
+        <v>2032</v>
+      </c>
+      <c r="P1">
+        <v>2033</v>
+      </c>
+      <c r="Q1">
+        <v>2034</v>
+      </c>
+      <c r="R1">
+        <v>2035</v>
+      </c>
+      <c r="S1">
+        <v>2036</v>
+      </c>
+      <c r="T1">
+        <v>2037</v>
+      </c>
+      <c r="U1">
+        <v>2038</v>
+      </c>
+      <c r="V1">
+        <v>2039</v>
+      </c>
+      <c r="W1">
+        <v>2040</v>
+      </c>
+      <c r="X1">
+        <v>2041</v>
+      </c>
+      <c r="Y1">
+        <v>2042</v>
+      </c>
+      <c r="Z1">
+        <v>2043</v>
+      </c>
+      <c r="AA1">
+        <v>2044</v>
+      </c>
+      <c r="AB1">
+        <v>2045</v>
+      </c>
+      <c r="AC1">
+        <v>2046</v>
+      </c>
+      <c r="AD1">
+        <v>2047</v>
+      </c>
+      <c r="AE1">
+        <v>2048</v>
+      </c>
+      <c r="AF1">
+        <v>2049</v>
+      </c>
+      <c r="AG1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>187755.42224934188</v>
+      </c>
+      <c r="C2">
+        <v>156304.16224767113</v>
+      </c>
+      <c r="D2">
+        <v>156304.16224767113</v>
+      </c>
+      <c r="E2">
+        <v>157681.11694924664</v>
+      </c>
+      <c r="F2">
+        <v>156006.92072947579</v>
+      </c>
+      <c r="G2">
+        <v>153763.33439645101</v>
+      </c>
+      <c r="H2">
+        <v>153534.96102828873</v>
+      </c>
+      <c r="I2">
+        <v>152079.17714789219</v>
+      </c>
+      <c r="J2">
+        <v>151062.61180395022</v>
+      </c>
+      <c r="K2">
+        <v>149978.5152973012</v>
+      </c>
+      <c r="L2">
+        <v>149208.20623691671</v>
+      </c>
+      <c r="M2">
+        <v>148754.92667043972</v>
+      </c>
+      <c r="N2">
+        <v>147719.42090506945</v>
+      </c>
+      <c r="O2">
+        <v>147125.95391491949</v>
+      </c>
+      <c r="P2">
+        <v>146681.11503219479</v>
+      </c>
+      <c r="Q2">
+        <v>146116.30829046341</v>
+      </c>
+      <c r="R2">
+        <v>145455.41321138293</v>
+      </c>
+      <c r="S2">
+        <v>144924.94361736815</v>
+      </c>
+      <c r="T2">
+        <v>144297.71489703321</v>
+      </c>
+      <c r="U2">
+        <v>143961.8425061967</v>
+      </c>
+      <c r="V2">
+        <v>143589.11554999105</v>
+      </c>
+      <c r="W2">
+        <v>143141.16704483336</v>
+      </c>
+      <c r="X2">
+        <v>143130.73744366656</v>
+      </c>
+      <c r="Y2">
+        <v>143182.41898906481</v>
+      </c>
+      <c r="Z2">
+        <v>143059.96410523687</v>
+      </c>
+      <c r="AA2">
+        <v>143033.15638175348</v>
+      </c>
+      <c r="AB2">
+        <v>143056.262577791</v>
+      </c>
+      <c r="AC2">
+        <v>142955.60785889241</v>
+      </c>
+      <c r="AD2">
+        <v>143190.08957133608</v>
+      </c>
+      <c r="AE2">
+        <v>143178.32737045424</v>
+      </c>
+      <c r="AF2">
+        <v>143212.63239542203</v>
+      </c>
+      <c r="AG2">
+        <v>143258.50407011685</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>118558.98334961182</v>
+      </c>
+      <c r="C3">
+        <v>119727.00363792252</v>
+      </c>
+      <c r="D3">
+        <v>119727.00363792252</v>
+      </c>
+      <c r="E3">
+        <v>122177.44015501527</v>
+      </c>
+      <c r="F3">
+        <v>123273.55185245136</v>
+      </c>
+      <c r="G3">
+        <v>124332.01118991293</v>
+      </c>
+      <c r="H3">
+        <v>124710.65102203129</v>
+      </c>
+      <c r="I3">
+        <v>124857.3241465608</v>
+      </c>
+      <c r="J3">
+        <v>125003.58986686483</v>
+      </c>
+      <c r="K3">
+        <v>125148.81353721258</v>
+      </c>
+      <c r="L3">
+        <v>125292.84362628977</v>
+      </c>
+      <c r="M3">
+        <v>125437.92698121692</v>
+      </c>
+      <c r="N3">
+        <v>125581.25672539529</v>
+      </c>
+      <c r="O3">
+        <v>125725.82180277559</v>
+      </c>
+      <c r="P3">
+        <v>125869.14289693862</v>
+      </c>
+      <c r="Q3">
+        <v>125897.8391270928</v>
+      </c>
+      <c r="R3">
+        <v>125903.22300350874</v>
+      </c>
+      <c r="S3">
+        <v>125911.54118271639</v>
+      </c>
+      <c r="T3">
+        <v>125918.41049390507</v>
+      </c>
+      <c r="U3">
+        <v>125926.94084793402</v>
+      </c>
+      <c r="V3">
+        <v>125935.33590134398</v>
+      </c>
+      <c r="W3">
+        <v>125944.14248777526</v>
+      </c>
+      <c r="X3">
+        <v>125953.5648972145</v>
+      </c>
+      <c r="Y3">
+        <v>125963.407455223</v>
+      </c>
+      <c r="Z3">
+        <v>125973.7080292735</v>
+      </c>
+      <c r="AA3">
+        <v>125984.29782496131</v>
+      </c>
+      <c r="AB3">
+        <v>125994.58856187268</v>
+      </c>
+      <c r="AC3">
+        <v>126005.92786339053</v>
+      </c>
+      <c r="AD3">
+        <v>126017.53331888311</v>
+      </c>
+      <c r="AE3">
+        <v>126029.13526173636</v>
+      </c>
+      <c r="AF3">
+        <v>126041.45310699902</v>
+      </c>
+      <c r="AG3">
+        <v>126042.93986476603</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>125000</v>
+      </c>
+      <c r="C4">
+        <v>125786.6020620468</v>
+      </c>
+      <c r="D4">
+        <v>125786.6020620468</v>
+      </c>
+      <c r="E4">
+        <v>126646.78664134782</v>
+      </c>
+      <c r="F4">
+        <v>126978.20111917674</v>
+      </c>
+      <c r="G4">
+        <v>127616.77326262885</v>
+      </c>
+      <c r="H4">
+        <v>128477.80633873874</v>
+      </c>
+      <c r="I4">
+        <v>128642.99191598855</v>
+      </c>
+      <c r="J4">
+        <v>128808.01179965548</v>
+      </c>
+      <c r="K4">
+        <v>128974.68315672511</v>
+      </c>
+      <c r="L4">
+        <v>129140.39676846967</v>
+      </c>
+      <c r="M4">
+        <v>129302.26301163666</v>
+      </c>
+      <c r="N4">
+        <v>129468.17144990173</v>
+      </c>
+      <c r="O4">
+        <v>129634.03800956896</v>
+      </c>
+      <c r="P4">
+        <v>129798.1402057001</v>
+      </c>
+      <c r="Q4">
+        <v>129844.24672113887</v>
+      </c>
+      <c r="R4">
+        <v>129868.68197258771</v>
+      </c>
+      <c r="S4">
+        <v>129892.72757099557</v>
+      </c>
+      <c r="T4">
+        <v>129919.20576969674</v>
+      </c>
+      <c r="U4">
+        <v>129944.22550070705</v>
+      </c>
+      <c r="V4">
+        <v>129969.21609877974</v>
+      </c>
+      <c r="W4">
+        <v>129997.34577088359</v>
+      </c>
+      <c r="X4">
+        <v>130024.51769766238</v>
+      </c>
+      <c r="Y4">
+        <v>130050.16196602349</v>
+      </c>
+      <c r="Z4">
+        <v>130078.11319888424</v>
+      </c>
+      <c r="AA4">
+        <v>130106.14636813212</v>
+      </c>
+      <c r="AB4">
+        <v>130133.49855496256</v>
+      </c>
+      <c r="AC4">
+        <v>130190.75934390178</v>
+      </c>
+      <c r="AD4">
+        <v>130290.83644713454</v>
+      </c>
+      <c r="AE4">
+        <v>130391.32869472874</v>
+      </c>
+      <c r="AF4">
+        <v>130491.8628209208</v>
+      </c>
+      <c r="AG4">
+        <v>130581.18622854573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>125000</v>
+      </c>
+      <c r="C5">
+        <v>125786.6020620468</v>
+      </c>
+      <c r="D5">
+        <v>125786.6020620468</v>
+      </c>
+      <c r="E5">
+        <v>126646.78664134782</v>
+      </c>
+      <c r="F5">
+        <v>126978.20111917674</v>
+      </c>
+      <c r="G5">
+        <v>127616.77326262885</v>
+      </c>
+      <c r="H5">
+        <v>128477.80633873874</v>
+      </c>
+      <c r="I5">
+        <v>128642.99191598855</v>
+      </c>
+      <c r="J5">
+        <v>128808.01179965548</v>
+      </c>
+      <c r="K5">
+        <v>128974.68315672511</v>
+      </c>
+      <c r="L5">
+        <v>129140.39676846967</v>
+      </c>
+      <c r="M5">
+        <v>129302.26301163666</v>
+      </c>
+      <c r="N5">
+        <v>129468.17144990173</v>
+      </c>
+      <c r="O5">
+        <v>129634.03800956896</v>
+      </c>
+      <c r="P5">
+        <v>129798.1402057001</v>
+      </c>
+      <c r="Q5">
+        <v>129844.24672113887</v>
+      </c>
+      <c r="R5">
+        <v>129868.68197258771</v>
+      </c>
+      <c r="S5">
+        <v>129892.72757099557</v>
+      </c>
+      <c r="T5">
+        <v>129919.20576969674</v>
+      </c>
+      <c r="U5">
+        <v>129944.22550070705</v>
+      </c>
+      <c r="V5">
+        <v>129969.21609877974</v>
+      </c>
+      <c r="W5">
+        <v>129997.34577088359</v>
+      </c>
+      <c r="X5">
+        <v>130024.51769766238</v>
+      </c>
+      <c r="Y5">
+        <v>130050.16196602349</v>
+      </c>
+      <c r="Z5">
+        <v>130078.11319888424</v>
+      </c>
+      <c r="AA5">
+        <v>130106.14636813212</v>
+      </c>
+      <c r="AB5">
+        <v>130133.49855496256</v>
+      </c>
+      <c r="AC5">
+        <v>130190.75934390178</v>
+      </c>
+      <c r="AD5">
+        <v>130290.83644713454</v>
+      </c>
+      <c r="AE5">
+        <v>130391.32869472874</v>
+      </c>
+      <c r="AF5">
+        <v>130491.8628209208</v>
+      </c>
+      <c r="AG5">
+        <v>130581.18622854573</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>117964.01030757216</v>
+      </c>
+      <c r="C6">
+        <v>97879.079939126124</v>
+      </c>
+      <c r="D6">
+        <v>97879.079939126124</v>
+      </c>
+      <c r="E6">
+        <v>99052.943266900635</v>
+      </c>
+      <c r="F6">
+        <v>98821.207817559203</v>
+      </c>
+      <c r="G6">
+        <v>98210.369390779524</v>
+      </c>
+      <c r="H6">
+        <v>100658.43531011384</v>
+      </c>
+      <c r="I6">
+        <v>100287.32690491484</v>
+      </c>
+      <c r="J6">
+        <v>100136.56383773177</v>
+      </c>
+      <c r="K6">
+        <v>99954.157259007479</v>
+      </c>
+      <c r="L6">
+        <v>99966.109445747759</v>
+      </c>
+      <c r="M6">
+        <v>100162.06755771136</v>
+      </c>
+      <c r="N6">
+        <v>100011.70946369779</v>
+      </c>
+      <c r="O6">
+        <v>100130.06446563403</v>
+      </c>
+      <c r="P6">
+        <v>100330.41521482718</v>
+      </c>
+      <c r="Q6">
+        <v>100418.22181879389</v>
+      </c>
+      <c r="R6">
+        <v>100419.68953585991</v>
+      </c>
+      <c r="S6">
+        <v>100476.18657248834</v>
+      </c>
+      <c r="T6">
+        <v>100439.27808180508</v>
+      </c>
+      <c r="U6">
+        <v>100552.13401210587</v>
+      </c>
+      <c r="V6">
+        <v>100601.03167279792</v>
+      </c>
+      <c r="W6">
+        <v>100565.93006803816</v>
+      </c>
+      <c r="X6">
+        <v>100696.79991166243</v>
+      </c>
+      <c r="Y6">
+        <v>100845.2320859094</v>
+      </c>
+      <c r="Z6">
+        <v>100868.29154317673</v>
+      </c>
+      <c r="AA6">
+        <v>100941.77688301934</v>
+      </c>
+      <c r="AB6">
+        <v>101035.12555360567</v>
+      </c>
+      <c r="AC6">
+        <v>101044.96487340698</v>
+      </c>
+      <c r="AD6">
+        <v>101263.69302326805</v>
+      </c>
+      <c r="AE6">
+        <v>101315.23404898442</v>
+      </c>
+      <c r="AF6">
+        <v>101392.09314111841</v>
+      </c>
+      <c r="AG6">
+        <v>101472.37683032606</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7">
+        <v>142487.28231672163</v>
+      </c>
+      <c r="C7">
+        <v>143180.90393548258</v>
+      </c>
+      <c r="D7">
+        <v>143064.2249480554</v>
+      </c>
+      <c r="E7">
+        <v>144088.21270996373</v>
+      </c>
+      <c r="F7">
+        <v>144441.5354698422</v>
+      </c>
+      <c r="G7">
+        <v>145303.15024894974</v>
+      </c>
+      <c r="H7">
+        <v>146201.61851322567</v>
+      </c>
+      <c r="I7">
+        <v>146344.30652356902</v>
+      </c>
+      <c r="J7">
+        <v>146486.99556729579</v>
+      </c>
+      <c r="K7">
+        <v>146631.75378501543</v>
+      </c>
+      <c r="L7">
+        <v>146775.23915105444</v>
+      </c>
+      <c r="M7">
+        <v>146915.76596506604</v>
+      </c>
+      <c r="N7">
+        <v>147060.57209541675</v>
+      </c>
+      <c r="O7">
+        <v>147206.98173450158</v>
+      </c>
+      <c r="P7">
+        <v>147349.5659119006</v>
+      </c>
+      <c r="Q7">
+        <v>147392.14056650826</v>
+      </c>
+      <c r="R7">
+        <v>147415.27144532834</v>
+      </c>
+      <c r="S7">
+        <v>147438.58677311629</v>
+      </c>
+      <c r="T7">
+        <v>147463.41553755364</v>
+      </c>
+      <c r="U7">
+        <v>147487.7941304431</v>
+      </c>
+      <c r="V7">
+        <v>147512.53701735431</v>
+      </c>
+      <c r="W7">
+        <v>147540.74925635994</v>
+      </c>
+      <c r="X7">
+        <v>147567.76085534622</v>
+      </c>
+      <c r="Y7">
+        <v>147593.12662505216</v>
+      </c>
+      <c r="Z7">
+        <v>147621.30770673251</v>
+      </c>
+      <c r="AA7">
+        <v>147649.78332597433</v>
+      </c>
+      <c r="AB7">
+        <v>147677.68366992599</v>
+      </c>
+      <c r="AC7">
+        <v>147709.21412886903</v>
+      </c>
+      <c r="AD7">
+        <v>147736.47860961428</v>
+      </c>
+      <c r="AE7">
+        <v>147765.71991265772</v>
+      </c>
+      <c r="AF7">
+        <v>147795.62860728992</v>
+      </c>
+      <c r="AG7">
+        <v>147816.39034830141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8">
+        <v>158129.80456144607</v>
+      </c>
+      <c r="C8">
+        <v>156113.757354614</v>
+      </c>
+      <c r="D8">
+        <v>153420.7467532809</v>
+      </c>
+      <c r="E8">
+        <v>152632.41991916631</v>
+      </c>
+      <c r="F8">
+        <v>150138.41897380093</v>
+      </c>
+      <c r="G8">
+        <v>147645.11098498729</v>
+      </c>
+      <c r="H8">
+        <v>145245.45644386916</v>
+      </c>
+      <c r="I8">
+        <v>143212.63430864332</v>
+      </c>
+      <c r="J8">
+        <v>141559.24079072071</v>
+      </c>
+      <c r="K8">
+        <v>139403.73052633685</v>
+      </c>
+      <c r="L8">
+        <v>137363.29217005524</v>
+      </c>
+      <c r="M8">
+        <v>135420.0458494396</v>
+      </c>
+      <c r="N8">
+        <v>133553.59505054803</v>
+      </c>
+      <c r="O8">
+        <v>131793.48769051474</v>
+      </c>
+      <c r="P8">
+        <v>130122.42256177023</v>
+      </c>
+      <c r="Q8">
+        <v>128408.68129960673</v>
+      </c>
+      <c r="R8">
+        <v>126744.85258523132</v>
+      </c>
+      <c r="S8">
+        <v>125161.57660909039</v>
+      </c>
+      <c r="T8">
+        <v>123643.86897011436</v>
+      </c>
+      <c r="U8">
+        <v>122207.40141936949</v>
+      </c>
+      <c r="V8">
+        <v>120833.09679735439</v>
+      </c>
+      <c r="W8">
+        <v>119514.87890396813</v>
+      </c>
+      <c r="X8">
+        <v>118270.44696294035</v>
+      </c>
+      <c r="Y8">
+        <v>117085.53925854525</v>
+      </c>
+      <c r="Z8">
+        <v>115945.15895136519</v>
+      </c>
+      <c r="AA8">
+        <v>114860.83886347059</v>
+      </c>
+      <c r="AB8">
+        <v>113829.37203694813</v>
+      </c>
+      <c r="AC8">
+        <v>112834.82972796899</v>
+      </c>
+      <c r="AD8">
+        <v>111901.22476954409</v>
+      </c>
+      <c r="AE8">
+        <v>110998.24973820576</v>
+      </c>
+      <c r="AF8">
+        <v>110137.87469438287</v>
+      </c>
+      <c r="AG8">
+        <v>109305.76442189357</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AG8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1">
+        <v>2019</v>
+      </c>
+      <c r="C1">
+        <v>2020</v>
+      </c>
+      <c r="D1">
+        <v>2021</v>
+      </c>
+      <c r="E1">
+        <v>2022</v>
+      </c>
+      <c r="F1">
+        <v>2023</v>
+      </c>
+      <c r="G1">
+        <v>2024</v>
+      </c>
+      <c r="H1">
+        <v>2025</v>
+      </c>
+      <c r="I1">
+        <v>2026</v>
+      </c>
+      <c r="J1">
+        <v>2027</v>
+      </c>
+      <c r="K1">
+        <v>2028</v>
+      </c>
+      <c r="L1">
+        <v>2029</v>
+      </c>
+      <c r="M1">
+        <v>2030</v>
+      </c>
+      <c r="N1">
+        <v>2031</v>
+      </c>
+      <c r="O1">
+        <v>2032</v>
+      </c>
+      <c r="P1">
+        <v>2033</v>
+      </c>
+      <c r="Q1">
+        <v>2034</v>
+      </c>
+      <c r="R1">
+        <v>2035</v>
+      </c>
+      <c r="S1">
+        <v>2036</v>
+      </c>
+      <c r="T1">
+        <v>2037</v>
+      </c>
+      <c r="U1">
+        <v>2038</v>
+      </c>
+      <c r="V1">
+        <v>2039</v>
+      </c>
+      <c r="W1">
+        <v>2040</v>
+      </c>
+      <c r="X1">
+        <v>2041</v>
+      </c>
+      <c r="Y1">
+        <v>2042</v>
+      </c>
+      <c r="Z1">
+        <v>2043</v>
+      </c>
+      <c r="AA1">
+        <v>2044</v>
+      </c>
+      <c r="AB1">
+        <v>2045</v>
+      </c>
+      <c r="AC1">
+        <v>2046</v>
+      </c>
+      <c r="AD1">
+        <v>2047</v>
+      </c>
+      <c r="AE1">
+        <v>2048</v>
+      </c>
+      <c r="AF1">
+        <v>2049</v>
+      </c>
+      <c r="AG1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>80979.324599999934</v>
+      </c>
+      <c r="C2">
+        <v>80198.623900000006</v>
+      </c>
+      <c r="D2">
+        <v>74138.041534000004</v>
+      </c>
+      <c r="E2">
+        <v>79504.585000000006</v>
+      </c>
+      <c r="F2">
+        <v>78138.900999999998</v>
+      </c>
+      <c r="G2">
+        <v>76804.451000000001</v>
+      </c>
+      <c r="H2">
+        <v>76147.407999999996</v>
+      </c>
+      <c r="I2">
+        <v>75494.438000000009</v>
+      </c>
+      <c r="J2">
+        <v>74890.40400000001</v>
+      </c>
+      <c r="K2">
+        <v>74339.187999999995</v>
+      </c>
+      <c r="L2">
+        <v>73841.301000000007</v>
+      </c>
+      <c r="M2">
+        <v>73395.16399999999</v>
+      </c>
+      <c r="N2">
+        <v>72997.207999999999</v>
+      </c>
+      <c r="O2">
+        <v>72643.7</v>
+      </c>
+      <c r="P2">
+        <v>72331.153999999995</v>
+      </c>
+      <c r="Q2">
+        <v>71989.020999999993</v>
+      </c>
+      <c r="R2">
+        <v>71669.06</v>
+      </c>
+      <c r="S2">
+        <v>71382.819999999992</v>
+      </c>
+      <c r="T2">
+        <v>71129.210999999996</v>
+      </c>
+      <c r="U2">
+        <v>70907.500999999989</v>
+      </c>
+      <c r="V2">
+        <v>70716.964999999997</v>
+      </c>
+      <c r="W2">
+        <v>70556.670999999988</v>
+      </c>
+      <c r="X2">
+        <v>70538.002000000008</v>
+      </c>
+      <c r="Y2">
+        <v>70520.493000000002</v>
+      </c>
+      <c r="Z2">
+        <v>70504.013000000006</v>
+      </c>
+      <c r="AA2">
+        <v>70488.433999999994</v>
+      </c>
+      <c r="AB2">
+        <v>70473.633000000002</v>
+      </c>
+      <c r="AC2">
+        <v>70459.594999999987</v>
+      </c>
+      <c r="AD2">
+        <v>70446.258999999991</v>
+      </c>
+      <c r="AE2">
+        <v>70433.525000000009</v>
+      </c>
+      <c r="AF2">
+        <v>70421.294999999998</v>
+      </c>
+      <c r="AG2">
+        <v>70403.380999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>59513.619728112782</v>
+      </c>
+      <c r="C3">
+        <v>60099.936456793395</v>
+      </c>
+      <c r="D3">
+        <v>60721.909160482843</v>
+      </c>
+      <c r="E3">
+        <v>61329.993791344728</v>
+      </c>
+      <c r="F3">
+        <v>61880.214220853501</v>
+      </c>
+      <c r="G3">
+        <v>62411.534115201815</v>
+      </c>
+      <c r="H3">
+        <v>62601.601762089093</v>
+      </c>
+      <c r="I3">
+        <v>62675.227971685053</v>
+      </c>
+      <c r="J3">
+        <v>62748.649674634071</v>
+      </c>
+      <c r="K3">
+        <v>62821.548294784268</v>
+      </c>
+      <c r="L3">
+        <v>62893.847767237319</v>
+      </c>
+      <c r="M3">
+        <v>62966.675952584948</v>
+      </c>
+      <c r="N3">
+        <v>63038.62386956063</v>
+      </c>
+      <c r="O3">
+        <v>63111.191892650088</v>
+      </c>
+      <c r="P3">
+        <v>63183.135467536202</v>
+      </c>
+      <c r="Q3">
+        <v>63197.540251389575</v>
+      </c>
+      <c r="R3">
+        <v>63200.242821575557</v>
+      </c>
+      <c r="S3">
+        <v>63204.418337763447</v>
+      </c>
+      <c r="T3">
+        <v>63207.866558744478</v>
+      </c>
+      <c r="U3">
+        <v>63212.148581341862</v>
+      </c>
+      <c r="V3">
+        <v>63216.362686440618</v>
+      </c>
+      <c r="W3">
+        <v>63220.783370737721</v>
+      </c>
+      <c r="X3">
+        <v>63225.513182654511</v>
+      </c>
+      <c r="Y3">
+        <v>63230.45389855744</v>
+      </c>
+      <c r="Z3">
+        <v>63235.624526962834</v>
+      </c>
+      <c r="AA3">
+        <v>63240.940337336338</v>
+      </c>
+      <c r="AB3">
+        <v>63246.106027745991</v>
+      </c>
+      <c r="AC3">
+        <v>63251.798071144542</v>
+      </c>
+      <c r="AD3">
+        <v>63257.623717126342</v>
+      </c>
+      <c r="AE3">
+        <v>63263.447599851788</v>
+      </c>
+      <c r="AF3">
+        <v>63269.630847532557</v>
+      </c>
+      <c r="AG3">
+        <v>63270.377162437377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>57134.435222</v>
+      </c>
+      <c r="C4">
+        <v>57571.282436000001</v>
+      </c>
+      <c r="D4">
+        <v>57868.475934000009</v>
+      </c>
+      <c r="E4">
+        <v>58136.611544000007</v>
+      </c>
+      <c r="F4">
+        <v>58356.000792000006</v>
+      </c>
+      <c r="G4">
+        <v>58835.165291999998</v>
+      </c>
+      <c r="H4">
+        <v>59244.796328000011</v>
+      </c>
+      <c r="I4">
+        <v>59328.921801999997</v>
+      </c>
+      <c r="J4">
+        <v>59412.795925999999</v>
+      </c>
+      <c r="K4">
+        <v>59497.939596000004</v>
+      </c>
+      <c r="L4">
+        <v>59582.281688000003</v>
+      </c>
+      <c r="M4">
+        <v>59664.489590000005</v>
+      </c>
+      <c r="N4">
+        <v>59749.284112000001</v>
+      </c>
+      <c r="O4">
+        <v>59834.637087999996</v>
+      </c>
+      <c r="P4">
+        <v>59917.646568000011</v>
+      </c>
+      <c r="Q4">
+        <v>59942.952486000002</v>
+      </c>
+      <c r="R4">
+        <v>59956.620441999999</v>
+      </c>
+      <c r="S4">
+        <v>59970.685073999994</v>
+      </c>
+      <c r="T4">
+        <v>59986.180116000003</v>
+      </c>
+      <c r="U4">
+        <v>60000.559163999991</v>
+      </c>
+      <c r="V4">
+        <v>60015.007676000008</v>
+      </c>
+      <c r="W4">
+        <v>60031.408492000002</v>
+      </c>
+      <c r="X4">
+        <v>60047.126550000001</v>
+      </c>
+      <c r="Y4">
+        <v>60061.826412000009</v>
+      </c>
+      <c r="Z4">
+        <v>60078.046255999994</v>
+      </c>
+      <c r="AA4">
+        <v>60094.362983999999</v>
+      </c>
+      <c r="AB4">
+        <v>60110.380834000003</v>
+      </c>
+      <c r="AC4">
+        <v>60128.308943999997</v>
+      </c>
+      <c r="AD4">
+        <v>60143.782964000005</v>
+      </c>
+      <c r="AE4">
+        <v>60160.358353999996</v>
+      </c>
+      <c r="AF4">
+        <v>60177.247245999999</v>
+      </c>
+      <c r="AG4">
+        <v>60188.816657999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>62746.847652000004</v>
+      </c>
+      <c r="C5">
+        <v>63141.70205</v>
+      </c>
+      <c r="D5">
+        <v>63398.847723999999</v>
+      </c>
+      <c r="E5">
+        <v>63573.493016000008</v>
+      </c>
+      <c r="F5">
+        <v>63739.85472599999</v>
+      </c>
+      <c r="G5">
+        <v>64060.401838000005</v>
+      </c>
+      <c r="H5">
+        <v>64492.618728000001</v>
+      </c>
+      <c r="I5">
+        <v>64575.537722000008</v>
+      </c>
+      <c r="J5">
+        <v>64658.373542000008</v>
+      </c>
+      <c r="K5">
+        <v>64742.038360000006</v>
+      </c>
+      <c r="L5">
+        <v>64825.222414000003</v>
+      </c>
+      <c r="M5">
+        <v>64906.475186000003</v>
+      </c>
+      <c r="N5">
+        <v>64989.757037999996</v>
+      </c>
+      <c r="O5">
+        <v>65073.01786800001</v>
+      </c>
+      <c r="P5">
+        <v>65155.393032</v>
+      </c>
+      <c r="Q5">
+        <v>65178.537340000017</v>
+      </c>
+      <c r="R5">
+        <v>65190.803220000002</v>
+      </c>
+      <c r="S5">
+        <v>65202.873504000003</v>
+      </c>
+      <c r="T5">
+        <v>65216.164892000008</v>
+      </c>
+      <c r="U5">
+        <v>65228.724166</v>
+      </c>
+      <c r="V5">
+        <v>65241.268815999989</v>
+      </c>
+      <c r="W5">
+        <v>65255.389201999998</v>
+      </c>
+      <c r="X5">
+        <v>65269.028823999994</v>
+      </c>
+      <c r="Y5">
+        <v>65281.901600000012</v>
+      </c>
+      <c r="Z5">
+        <v>65295.932414000003</v>
+      </c>
+      <c r="AA5">
+        <v>65310.004357999998</v>
+      </c>
+      <c r="AB5">
+        <v>65323.734465999994</v>
+      </c>
+      <c r="AC5">
+        <v>65352.477938000004</v>
+      </c>
+      <c r="AD5">
+        <v>65402.714120000004</v>
+      </c>
+      <c r="AE5">
+        <v>65453.158694000012</v>
+      </c>
+      <c r="AF5">
+        <v>65503.62429</v>
+      </c>
+      <c r="AG5">
+        <v>65548.462388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7">
+        <v>71525.022366998761</v>
+      </c>
+      <c r="C7">
+        <v>71873.202927322971</v>
+      </c>
+      <c r="D7">
+        <v>72107.099353553014</v>
+      </c>
+      <c r="E7">
+        <v>72328.649050888518</v>
+      </c>
+      <c r="F7">
+        <v>72506.008165977153</v>
+      </c>
+      <c r="G7">
+        <v>72938.51705621212</v>
+      </c>
+      <c r="H7">
+        <v>73389.525466601553</v>
+      </c>
+      <c r="I7">
+        <v>73461.151249375791</v>
+      </c>
+      <c r="J7">
+        <v>73532.777550882471</v>
+      </c>
+      <c r="K7">
+        <v>73605.442525551494</v>
+      </c>
+      <c r="L7">
+        <v>73677.468560776644</v>
+      </c>
+      <c r="M7">
+        <v>73748.009477495085</v>
+      </c>
+      <c r="N7">
+        <v>73820.698503096617</v>
+      </c>
+      <c r="O7">
+        <v>73894.192449644135</v>
+      </c>
+      <c r="P7">
+        <v>73965.766110898883</v>
+      </c>
+      <c r="Q7">
+        <v>73987.137513830909</v>
+      </c>
+      <c r="R7">
+        <v>73998.748631665949</v>
+      </c>
+      <c r="S7">
+        <v>74010.452338231291</v>
+      </c>
+      <c r="T7">
+        <v>74022.91575182759</v>
+      </c>
+      <c r="U7">
+        <v>74035.153190659636</v>
+      </c>
+      <c r="V7">
+        <v>74047.573495903533</v>
+      </c>
+      <c r="W7">
+        <v>74061.735328406008</v>
+      </c>
+      <c r="X7">
+        <v>74075.294469897432</v>
+      </c>
+      <c r="Y7">
+        <v>74088.027446595952</v>
+      </c>
+      <c r="Z7">
+        <v>74102.173638906868</v>
+      </c>
+      <c r="AA7">
+        <v>74116.46768164578</v>
+      </c>
+      <c r="AB7">
+        <v>74130.472950696771</v>
+      </c>
+      <c r="AC7">
+        <v>74146.300445926332</v>
+      </c>
+      <c r="AD7">
+        <v>74159.986527683403</v>
+      </c>
+      <c r="AE7">
+        <v>74174.664924381097</v>
+      </c>
+      <c r="AF7">
+        <v>74189.678334825556</v>
+      </c>
+      <c r="AG7">
+        <v>74200.100205227456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8">
+        <v>79377.174048460729</v>
+      </c>
+      <c r="C8">
+        <v>78365.169192890084</v>
+      </c>
+      <c r="D8">
+        <v>77326.983968576635</v>
+      </c>
+      <c r="E8">
+        <v>76617.62559539215</v>
+      </c>
+      <c r="F8">
+        <v>75365.700016489864</v>
+      </c>
+      <c r="G8">
+        <v>74114.122284301047</v>
+      </c>
+      <c r="H8">
+        <v>72909.556221029285</v>
+      </c>
+      <c r="I8">
+        <v>71889.130774448233</v>
+      </c>
+      <c r="J8">
+        <v>71059.168925025093</v>
+      </c>
+      <c r="K8">
+        <v>69977.157131652159</v>
+      </c>
+      <c r="L8">
+        <v>68952.908534172981</v>
+      </c>
+      <c r="M8">
+        <v>67977.447887533141</v>
+      </c>
+      <c r="N8">
+        <v>67040.536656109107</v>
+      </c>
+      <c r="O8">
+        <v>66157.007149139725</v>
+      </c>
+      <c r="P8">
+        <v>65318.174596740508</v>
+      </c>
+      <c r="Q8">
+        <v>64457.919701605162</v>
+      </c>
+      <c r="R8">
+        <v>63622.719646725665</v>
+      </c>
+      <c r="S8">
+        <v>62827.95503499778</v>
+      </c>
+      <c r="T8">
+        <v>62066.104074972936</v>
+      </c>
+      <c r="U8">
+        <v>61345.0335904639</v>
+      </c>
+      <c r="V8">
+        <v>60655.167328503718</v>
+      </c>
+      <c r="W8">
+        <v>59993.455189876142</v>
+      </c>
+      <c r="X8">
+        <v>59368.781738540514</v>
+      </c>
+      <c r="Y8">
+        <v>58773.987952865638</v>
+      </c>
+      <c r="Z8">
+        <v>58201.545797665887</v>
+      </c>
+      <c r="AA8">
+        <v>57657.244458776884</v>
+      </c>
+      <c r="AB8">
+        <v>57139.474124201719</v>
+      </c>
+      <c r="AC8">
+        <v>56640.23896624185</v>
+      </c>
+      <c r="AD8">
+        <v>56171.592821494341</v>
+      </c>
+      <c r="AE8">
+        <v>55718.322127694781</v>
+      </c>
+      <c r="AF8">
+        <v>55286.43555330806</v>
+      </c>
+      <c r="AG8">
+        <v>54868.73718132767</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -5257,7 +6992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
@@ -5265,7 +7000,7 @@
   <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:AI8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5385,140 +7120,140 @@
         <v>0</v>
       </c>
       <c r="B2" s="17">
-        <f>'India Frgt LDVs'!B21</f>
-        <v>0</v>
+        <f>'India Frgt LDVs'!B26</f>
+        <v>9649.4444739720566</v>
       </c>
       <c r="C2" s="17">
         <f>$B2</f>
-        <v>0</v>
+        <v>9649.4444739720566</v>
       </c>
       <c r="D2" s="17">
         <f t="shared" ref="D2:AI6" si="0">$B2</f>
-        <v>0</v>
+        <v>9649.4444739720566</v>
       </c>
       <c r="E2" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9649.4444739720566</v>
       </c>
       <c r="F2" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9649.4444739720566</v>
       </c>
       <c r="G2" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9649.4444739720566</v>
       </c>
       <c r="H2" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9649.4444739720566</v>
       </c>
       <c r="I2" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9649.4444739720566</v>
       </c>
       <c r="J2" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9649.4444739720566</v>
       </c>
       <c r="K2" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9649.4444739720566</v>
       </c>
       <c r="L2" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9649.4444739720566</v>
       </c>
       <c r="M2" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9649.4444739720566</v>
       </c>
       <c r="N2" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9649.4444739720566</v>
       </c>
       <c r="O2" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9649.4444739720566</v>
       </c>
       <c r="P2" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9649.4444739720566</v>
       </c>
       <c r="Q2" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9649.4444739720566</v>
       </c>
       <c r="R2" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9649.4444739720566</v>
       </c>
       <c r="S2" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9649.4444739720566</v>
       </c>
       <c r="T2" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9649.4444739720566</v>
       </c>
       <c r="U2" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9649.4444739720566</v>
       </c>
       <c r="V2" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9649.4444739720566</v>
       </c>
       <c r="W2" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9649.4444739720566</v>
       </c>
       <c r="X2" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9649.4444739720566</v>
       </c>
       <c r="Y2" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9649.4444739720566</v>
       </c>
       <c r="Z2" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9649.4444739720566</v>
       </c>
       <c r="AA2" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9649.4444739720566</v>
       </c>
       <c r="AB2" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9649.4444739720566</v>
       </c>
       <c r="AC2" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9649.4444739720566</v>
       </c>
       <c r="AD2" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9649.4444739720566</v>
       </c>
       <c r="AE2" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9649.4444739720566</v>
       </c>
       <c r="AF2" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9649.4444739720566</v>
       </c>
       <c r="AG2" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9649.4444739720566</v>
       </c>
       <c r="AH2" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9649.4444739720566</v>
       </c>
       <c r="AI2" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9649.4444739720566</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.45">
@@ -5526,7 +7261,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="17">
-        <f>'India Frgt LDVs'!B22</f>
+        <f>'India Frgt LDVs'!B27</f>
         <v>8851.1535452084827</v>
       </c>
       <c r="C3" s="17">
@@ -5667,7 +7402,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="17">
-        <f>'India Frgt LDVs'!B23</f>
+        <f>'India Frgt LDVs'!B28</f>
         <v>0</v>
       </c>
       <c r="C4" s="17">
@@ -5808,7 +7543,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="17">
-        <f>'India Frgt LDVs'!B24</f>
+        <f>'India Frgt LDVs'!B29</f>
         <v>6889.8885249923069</v>
       </c>
       <c r="C5" s="17">
@@ -5949,7 +7684,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="17">
-        <f>'India Frgt LDVs'!B25</f>
+        <f>'India Frgt LDVs'!B30</f>
         <v>0</v>
       </c>
       <c r="C6" s="17">
@@ -6338,7 +8073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
@@ -6346,7 +8081,7 @@
   <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:AI8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7417,15 +9152,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AI1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7546,139 +9281,139 @@
       </c>
       <c r="B2" s="4">
         <f>'India Frgt HDVs'!B17</f>
-        <v>0</v>
+        <v>82298.033893151864</v>
       </c>
       <c r="C2" s="4">
         <f>$B2</f>
-        <v>0</v>
+        <v>82298.033893151864</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:AI6" si="0">$B2</f>
-        <v>0</v>
+        <v>82298.033893151864</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82298.033893151864</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82298.033893151864</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82298.033893151864</v>
       </c>
       <c r="H2" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82298.033893151864</v>
       </c>
       <c r="I2" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82298.033893151864</v>
       </c>
       <c r="J2" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82298.033893151864</v>
       </c>
       <c r="K2" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82298.033893151864</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82298.033893151864</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82298.033893151864</v>
       </c>
       <c r="N2" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82298.033893151864</v>
       </c>
       <c r="O2" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82298.033893151864</v>
       </c>
       <c r="P2" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82298.033893151864</v>
       </c>
       <c r="Q2" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82298.033893151864</v>
       </c>
       <c r="R2" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82298.033893151864</v>
       </c>
       <c r="S2" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82298.033893151864</v>
       </c>
       <c r="T2" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82298.033893151864</v>
       </c>
       <c r="U2" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82298.033893151864</v>
       </c>
       <c r="V2" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82298.033893151864</v>
       </c>
       <c r="W2" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82298.033893151864</v>
       </c>
       <c r="X2" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82298.033893151864</v>
       </c>
       <c r="Y2" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82298.033893151864</v>
       </c>
       <c r="Z2" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82298.033893151864</v>
       </c>
       <c r="AA2" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82298.033893151864</v>
       </c>
       <c r="AB2" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82298.033893151864</v>
       </c>
       <c r="AC2" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82298.033893151864</v>
       </c>
       <c r="AD2" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82298.033893151864</v>
       </c>
       <c r="AE2" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82298.033893151864</v>
       </c>
       <c r="AF2" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82298.033893151864</v>
       </c>
       <c r="AG2" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82298.033893151864</v>
       </c>
       <c r="AH2" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82298.033893151864</v>
       </c>
       <c r="AI2" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82298.033893151864</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.45">
@@ -7686,140 +9421,140 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <f>'India Frgt HDVs'!B18</f>
-        <v>0</v>
+        <f>B5*'US HDV'!B3/'US HDV'!B5</f>
+        <v>17398.987737414427</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:R6" si="1">$B3</f>
-        <v>0</v>
+        <v>17398.987737414427</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17398.987737414427</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17398.987737414427</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17398.987737414427</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17398.987737414427</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17398.987737414427</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17398.987737414427</v>
       </c>
       <c r="J3" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17398.987737414427</v>
       </c>
       <c r="K3" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17398.987737414427</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17398.987737414427</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17398.987737414427</v>
       </c>
       <c r="N3" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17398.987737414427</v>
       </c>
       <c r="O3" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17398.987737414427</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17398.987737414427</v>
       </c>
       <c r="Q3" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17398.987737414427</v>
       </c>
       <c r="R3" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17398.987737414427</v>
       </c>
       <c r="S3" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17398.987737414427</v>
       </c>
       <c r="T3" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17398.987737414427</v>
       </c>
       <c r="U3" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17398.987737414427</v>
       </c>
       <c r="V3" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17398.987737414427</v>
       </c>
       <c r="W3" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17398.987737414427</v>
       </c>
       <c r="X3" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17398.987737414427</v>
       </c>
       <c r="Y3" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17398.987737414427</v>
       </c>
       <c r="Z3" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17398.987737414427</v>
       </c>
       <c r="AA3" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17398.987737414427</v>
       </c>
       <c r="AB3" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17398.987737414427</v>
       </c>
       <c r="AC3" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17398.987737414427</v>
       </c>
       <c r="AD3" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17398.987737414427</v>
       </c>
       <c r="AE3" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17398.987737414427</v>
       </c>
       <c r="AF3" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17398.987737414427</v>
       </c>
       <c r="AG3" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17398.987737414427</v>
       </c>
       <c r="AH3" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17398.987737414427</v>
       </c>
       <c r="AI3" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17398.987737414427</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.45">
@@ -7827,140 +9562,140 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <f>'India Frgt HDVs'!B19</f>
-        <v>0</v>
+        <f>B5*'US HDV'!B4/'US HDV'!B5</f>
+        <v>18344.231754783552</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18344.231754783552</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18344.231754783552</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18344.231754783552</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18344.231754783552</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18344.231754783552</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18344.231754783552</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18344.231754783552</v>
       </c>
       <c r="J4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18344.231754783552</v>
       </c>
       <c r="K4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18344.231754783552</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18344.231754783552</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18344.231754783552</v>
       </c>
       <c r="N4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18344.231754783552</v>
       </c>
       <c r="O4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18344.231754783552</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18344.231754783552</v>
       </c>
       <c r="Q4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18344.231754783552</v>
       </c>
       <c r="R4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18344.231754783552</v>
       </c>
       <c r="S4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18344.231754783552</v>
       </c>
       <c r="T4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18344.231754783552</v>
       </c>
       <c r="U4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18344.231754783552</v>
       </c>
       <c r="V4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18344.231754783552</v>
       </c>
       <c r="W4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18344.231754783552</v>
       </c>
       <c r="X4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18344.231754783552</v>
       </c>
       <c r="Y4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18344.231754783552</v>
       </c>
       <c r="Z4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18344.231754783552</v>
       </c>
       <c r="AA4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18344.231754783552</v>
       </c>
       <c r="AB4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18344.231754783552</v>
       </c>
       <c r="AC4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18344.231754783552</v>
       </c>
       <c r="AD4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18344.231754783552</v>
       </c>
       <c r="AE4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18344.231754783552</v>
       </c>
       <c r="AF4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18344.231754783552</v>
       </c>
       <c r="AG4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18344.231754783552</v>
       </c>
       <c r="AH4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18344.231754783552</v>
       </c>
       <c r="AI4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18344.231754783552</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.45">
@@ -8498,7 +10233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
@@ -9506,2034 +11241,6 @@
       <c r="AI8" s="17">
         <f>'Hydrogen - US data'!AI6</f>
         <v>79268161.644685864</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:AI8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="35" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1">
-        <v>2017</v>
-      </c>
-      <c r="C1">
-        <v>2018</v>
-      </c>
-      <c r="D1">
-        <v>2019</v>
-      </c>
-      <c r="E1">
-        <v>2020</v>
-      </c>
-      <c r="F1">
-        <v>2021</v>
-      </c>
-      <c r="G1">
-        <v>2022</v>
-      </c>
-      <c r="H1">
-        <v>2023</v>
-      </c>
-      <c r="I1">
-        <v>2024</v>
-      </c>
-      <c r="J1">
-        <v>2025</v>
-      </c>
-      <c r="K1">
-        <v>2026</v>
-      </c>
-      <c r="L1">
-        <v>2027</v>
-      </c>
-      <c r="M1">
-        <v>2028</v>
-      </c>
-      <c r="N1">
-        <v>2029</v>
-      </c>
-      <c r="O1">
-        <v>2030</v>
-      </c>
-      <c r="P1">
-        <v>2031</v>
-      </c>
-      <c r="Q1">
-        <v>2032</v>
-      </c>
-      <c r="R1">
-        <v>2033</v>
-      </c>
-      <c r="S1">
-        <v>2034</v>
-      </c>
-      <c r="T1">
-        <v>2035</v>
-      </c>
-      <c r="U1">
-        <v>2036</v>
-      </c>
-      <c r="V1">
-        <v>2037</v>
-      </c>
-      <c r="W1">
-        <v>2038</v>
-      </c>
-      <c r="X1">
-        <v>2039</v>
-      </c>
-      <c r="Y1">
-        <v>2040</v>
-      </c>
-      <c r="Z1">
-        <v>2041</v>
-      </c>
-      <c r="AA1">
-        <v>2042</v>
-      </c>
-      <c r="AB1">
-        <v>2043</v>
-      </c>
-      <c r="AC1">
-        <v>2044</v>
-      </c>
-      <c r="AD1">
-        <v>2045</v>
-      </c>
-      <c r="AE1">
-        <v>2046</v>
-      </c>
-      <c r="AF1">
-        <v>2047</v>
-      </c>
-      <c r="AG1">
-        <v>2048</v>
-      </c>
-      <c r="AH1">
-        <v>2049</v>
-      </c>
-      <c r="AI1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
-        <f>B$5*('BNVP-HDVs-psgr'!B$2/'BNVP-HDVs-psgr'!B$5)</f>
-        <v>903463016.72015822</v>
-      </c>
-      <c r="C2" s="4">
-        <f>B2</f>
-        <v>903463016.72015822</v>
-      </c>
-      <c r="D2" s="4">
-        <f t="shared" ref="D2:AI2" si="0">C2</f>
-        <v>903463016.72015822</v>
-      </c>
-      <c r="E2" s="4">
-        <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
-      </c>
-      <c r="F2" s="4">
-        <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
-      </c>
-      <c r="G2" s="4">
-        <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
-      </c>
-      <c r="H2" s="4">
-        <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
-      </c>
-      <c r="I2" s="4">
-        <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
-      </c>
-      <c r="J2" s="4">
-        <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
-      </c>
-      <c r="K2" s="4">
-        <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
-      </c>
-      <c r="L2" s="4">
-        <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
-      </c>
-      <c r="M2" s="4">
-        <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
-      </c>
-      <c r="N2" s="4">
-        <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
-      </c>
-      <c r="O2" s="4">
-        <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
-      </c>
-      <c r="P2" s="4">
-        <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
-      </c>
-      <c r="Q2" s="4">
-        <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
-      </c>
-      <c r="R2" s="4">
-        <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
-      </c>
-      <c r="S2" s="4">
-        <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
-      </c>
-      <c r="T2" s="4">
-        <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
-      </c>
-      <c r="U2" s="4">
-        <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
-      </c>
-      <c r="V2" s="4">
-        <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
-      </c>
-      <c r="W2" s="4">
-        <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
-      </c>
-      <c r="X2" s="4">
-        <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
-      </c>
-      <c r="Y2" s="4">
-        <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
-      </c>
-      <c r="Z2" s="4">
-        <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
-      </c>
-      <c r="AA2" s="4">
-        <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
-      </c>
-      <c r="AB2" s="4">
-        <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
-      </c>
-      <c r="AC2" s="4">
-        <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
-      </c>
-      <c r="AD2" s="4">
-        <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
-      </c>
-      <c r="AE2" s="4">
-        <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
-      </c>
-      <c r="AF2" s="4">
-        <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
-      </c>
-      <c r="AG2" s="4">
-        <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
-      </c>
-      <c r="AH2" s="4">
-        <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
-      </c>
-      <c r="AI2" s="4">
-        <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4">
-        <f>'Freight Aircraft'!D4</f>
-        <v>87319700.566003278</v>
-      </c>
-      <c r="C5">
-        <f>B5</f>
-        <v>87319700.566003278</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ref="D5:AI5" si="1">C5</f>
-        <v>87319700.566003278</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>87319700.566003278</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>87319700.566003278</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>87319700.566003278</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
-        <v>87319700.566003278</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="1"/>
-        <v>87319700.566003278</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="1"/>
-        <v>87319700.566003278</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
-        <v>87319700.566003278</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="1"/>
-        <v>87319700.566003278</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="1"/>
-        <v>87319700.566003278</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="1"/>
-        <v>87319700.566003278</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="1"/>
-        <v>87319700.566003278</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="1"/>
-        <v>87319700.566003278</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="1"/>
-        <v>87319700.566003278</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="1"/>
-        <v>87319700.566003278</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="1"/>
-        <v>87319700.566003278</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="1"/>
-        <v>87319700.566003278</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="1"/>
-        <v>87319700.566003278</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="1"/>
-        <v>87319700.566003278</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="1"/>
-        <v>87319700.566003278</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="1"/>
-        <v>87319700.566003278</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" si="1"/>
-        <v>87319700.566003278</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" si="1"/>
-        <v>87319700.566003278</v>
-      </c>
-      <c r="AA5">
-        <f t="shared" si="1"/>
-        <v>87319700.566003278</v>
-      </c>
-      <c r="AB5">
-        <f t="shared" si="1"/>
-        <v>87319700.566003278</v>
-      </c>
-      <c r="AC5">
-        <f t="shared" si="1"/>
-        <v>87319700.566003278</v>
-      </c>
-      <c r="AD5">
-        <f t="shared" si="1"/>
-        <v>87319700.566003278</v>
-      </c>
-      <c r="AE5">
-        <f t="shared" si="1"/>
-        <v>87319700.566003278</v>
-      </c>
-      <c r="AF5">
-        <f t="shared" si="1"/>
-        <v>87319700.566003278</v>
-      </c>
-      <c r="AG5">
-        <f t="shared" si="1"/>
-        <v>87319700.566003278</v>
-      </c>
-      <c r="AH5">
-        <f t="shared" si="1"/>
-        <v>87319700.566003278</v>
-      </c>
-      <c r="AI5">
-        <f t="shared" si="1"/>
-        <v>87319700.566003278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <f>$B7</f>
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ref="D7:AI7" si="2">$B7</f>
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A8" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B8" s="17">
-        <f>'Hydrogen - US data'!B7</f>
-        <v>150462425.18688756</v>
-      </c>
-      <c r="C8" s="17">
-        <f>'Hydrogen - US data'!C7</f>
-        <v>135228029.11874872</v>
-      </c>
-      <c r="D8" s="17">
-        <f>'Hydrogen - US data'!D7</f>
-        <v>129958667.67105278</v>
-      </c>
-      <c r="E8" s="17">
-        <f>'Hydrogen - US data'!E7</f>
-        <v>125427482.56264034</v>
-      </c>
-      <c r="F8" s="17">
-        <f>'Hydrogen - US data'!F7</f>
-        <v>120062997.41638653</v>
-      </c>
-      <c r="G8" s="17">
-        <f>'Hydrogen - US data'!G7</f>
-        <v>115573103.36274673</v>
-      </c>
-      <c r="H8" s="17">
-        <f>'Hydrogen - US data'!H7</f>
-        <v>111673841.01660238</v>
-      </c>
-      <c r="I8" s="17">
-        <f>'Hydrogen - US data'!I7</f>
-        <v>108638722.22785349</v>
-      </c>
-      <c r="J8" s="17">
-        <f>'Hydrogen - US data'!J7</f>
-        <v>104999216.27354777</v>
-      </c>
-      <c r="K8" s="17">
-        <f>'Hydrogen - US data'!K7</f>
-        <v>103344995.14930935</v>
-      </c>
-      <c r="L8" s="17">
-        <f>'Hydrogen - US data'!L7</f>
-        <v>102027075.49484189</v>
-      </c>
-      <c r="M8" s="17">
-        <f>'Hydrogen - US data'!M7</f>
-        <v>100528127.62760434</v>
-      </c>
-      <c r="N8" s="17">
-        <f>'Hydrogen - US data'!N7</f>
-        <v>99375908.388556987</v>
-      </c>
-      <c r="O8" s="17">
-        <f>'Hydrogen - US data'!O7</f>
-        <v>97940563.567372248</v>
-      </c>
-      <c r="P8" s="17">
-        <f>'Hydrogen - US data'!P7</f>
-        <v>96713326.10947755</v>
-      </c>
-      <c r="Q8" s="17">
-        <f>'Hydrogen - US data'!Q7</f>
-        <v>95429123.0693748</v>
-      </c>
-      <c r="R8" s="17">
-        <f>'Hydrogen - US data'!R7</f>
-        <v>94068533.007766634</v>
-      </c>
-      <c r="S8" s="17">
-        <f>'Hydrogen - US data'!S7</f>
-        <v>93011824.389215469</v>
-      </c>
-      <c r="T8" s="17">
-        <f>'Hydrogen - US data'!T7</f>
-        <v>91917650.391817585</v>
-      </c>
-      <c r="U8" s="17">
-        <f>'Hydrogen - US data'!U7</f>
-        <v>90887411.200310409</v>
-      </c>
-      <c r="V8" s="17">
-        <f>'Hydrogen - US data'!V7</f>
-        <v>89806647.081336781</v>
-      </c>
-      <c r="W8" s="17">
-        <f>'Hydrogen - US data'!W7</f>
-        <v>88818675.965245739</v>
-      </c>
-      <c r="X8" s="17">
-        <f>'Hydrogen - US data'!X7</f>
-        <v>87873804.908892468</v>
-      </c>
-      <c r="Y8" s="17">
-        <f>'Hydrogen - US data'!Y7</f>
-        <v>86946207.167313114</v>
-      </c>
-      <c r="Z8" s="17">
-        <f>'Hydrogen - US data'!Z7</f>
-        <v>85954222.414805442</v>
-      </c>
-      <c r="AA8" s="17">
-        <f>'Hydrogen - US data'!AA7</f>
-        <v>85155893.865570709</v>
-      </c>
-      <c r="AB8" s="17">
-        <f>'Hydrogen - US data'!AB7</f>
-        <v>84297798.888749421</v>
-      </c>
-      <c r="AC8" s="17">
-        <f>'Hydrogen - US data'!AC7</f>
-        <v>83492422.572656289</v>
-      </c>
-      <c r="AD8" s="17">
-        <f>'Hydrogen - US data'!AD7</f>
-        <v>82736392.339708284</v>
-      </c>
-      <c r="AE8" s="17">
-        <f>'Hydrogen - US data'!AE7</f>
-        <v>81966340.840133831</v>
-      </c>
-      <c r="AF8" s="17">
-        <f>'Hydrogen - US data'!AF7</f>
-        <v>81237530.489710793</v>
-      </c>
-      <c r="AG8" s="17">
-        <f>'Hydrogen - US data'!AG7</f>
-        <v>80582632.29094471</v>
-      </c>
-      <c r="AH8" s="17">
-        <f>'Hydrogen - US data'!AH7</f>
-        <v>79901272.602432385</v>
-      </c>
-      <c r="AI8" s="17">
-        <f>'Hydrogen - US data'!AI7</f>
-        <v>79268161.644685864</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:AI8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:AI8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1">
-        <v>2017</v>
-      </c>
-      <c r="C1">
-        <v>2018</v>
-      </c>
-      <c r="D1">
-        <v>2019</v>
-      </c>
-      <c r="E1">
-        <v>2020</v>
-      </c>
-      <c r="F1">
-        <v>2021</v>
-      </c>
-      <c r="G1">
-        <v>2022</v>
-      </c>
-      <c r="H1">
-        <v>2023</v>
-      </c>
-      <c r="I1">
-        <v>2024</v>
-      </c>
-      <c r="J1">
-        <v>2025</v>
-      </c>
-      <c r="K1">
-        <v>2026</v>
-      </c>
-      <c r="L1">
-        <v>2027</v>
-      </c>
-      <c r="M1">
-        <v>2028</v>
-      </c>
-      <c r="N1">
-        <v>2029</v>
-      </c>
-      <c r="O1">
-        <v>2030</v>
-      </c>
-      <c r="P1">
-        <v>2031</v>
-      </c>
-      <c r="Q1">
-        <v>2032</v>
-      </c>
-      <c r="R1">
-        <v>2033</v>
-      </c>
-      <c r="S1">
-        <v>2034</v>
-      </c>
-      <c r="T1">
-        <v>2035</v>
-      </c>
-      <c r="U1">
-        <v>2036</v>
-      </c>
-      <c r="V1">
-        <v>2037</v>
-      </c>
-      <c r="W1">
-        <v>2038</v>
-      </c>
-      <c r="X1">
-        <v>2039</v>
-      </c>
-      <c r="Y1">
-        <v>2040</v>
-      </c>
-      <c r="Z1">
-        <v>2041</v>
-      </c>
-      <c r="AA1">
-        <v>2042</v>
-      </c>
-      <c r="AB1">
-        <v>2043</v>
-      </c>
-      <c r="AC1">
-        <v>2044</v>
-      </c>
-      <c r="AD1">
-        <v>2045</v>
-      </c>
-      <c r="AE1">
-        <v>2046</v>
-      </c>
-      <c r="AF1">
-        <v>2047</v>
-      </c>
-      <c r="AG1">
-        <v>2048</v>
-      </c>
-      <c r="AH1">
-        <v>2049</v>
-      </c>
-      <c r="AI1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
-        <f>Rail!D7</f>
-        <v>9830199.0140587911</v>
-      </c>
-      <c r="C2" s="4">
-        <f>B2</f>
-        <v>9830199.0140587911</v>
-      </c>
-      <c r="D2" s="4">
-        <f t="shared" ref="D2:AI2" si="0">C2</f>
-        <v>9830199.0140587911</v>
-      </c>
-      <c r="E2" s="4">
-        <f t="shared" si="0"/>
-        <v>9830199.0140587911</v>
-      </c>
-      <c r="F2" s="4">
-        <f t="shared" si="0"/>
-        <v>9830199.0140587911</v>
-      </c>
-      <c r="G2" s="4">
-        <f t="shared" si="0"/>
-        <v>9830199.0140587911</v>
-      </c>
-      <c r="H2" s="4">
-        <f t="shared" si="0"/>
-        <v>9830199.0140587911</v>
-      </c>
-      <c r="I2" s="4">
-        <f t="shared" si="0"/>
-        <v>9830199.0140587911</v>
-      </c>
-      <c r="J2" s="4">
-        <f t="shared" si="0"/>
-        <v>9830199.0140587911</v>
-      </c>
-      <c r="K2" s="4">
-        <f t="shared" si="0"/>
-        <v>9830199.0140587911</v>
-      </c>
-      <c r="L2" s="4">
-        <f t="shared" si="0"/>
-        <v>9830199.0140587911</v>
-      </c>
-      <c r="M2" s="4">
-        <f t="shared" si="0"/>
-        <v>9830199.0140587911</v>
-      </c>
-      <c r="N2" s="4">
-        <f t="shared" si="0"/>
-        <v>9830199.0140587911</v>
-      </c>
-      <c r="O2" s="4">
-        <f t="shared" si="0"/>
-        <v>9830199.0140587911</v>
-      </c>
-      <c r="P2" s="4">
-        <f t="shared" si="0"/>
-        <v>9830199.0140587911</v>
-      </c>
-      <c r="Q2" s="4">
-        <f t="shared" si="0"/>
-        <v>9830199.0140587911</v>
-      </c>
-      <c r="R2" s="4">
-        <f t="shared" si="0"/>
-        <v>9830199.0140587911</v>
-      </c>
-      <c r="S2" s="4">
-        <f t="shared" si="0"/>
-        <v>9830199.0140587911</v>
-      </c>
-      <c r="T2" s="4">
-        <f t="shared" si="0"/>
-        <v>9830199.0140587911</v>
-      </c>
-      <c r="U2" s="4">
-        <f t="shared" si="0"/>
-        <v>9830199.0140587911</v>
-      </c>
-      <c r="V2" s="4">
-        <f t="shared" si="0"/>
-        <v>9830199.0140587911</v>
-      </c>
-      <c r="W2" s="4">
-        <f t="shared" si="0"/>
-        <v>9830199.0140587911</v>
-      </c>
-      <c r="X2" s="4">
-        <f t="shared" si="0"/>
-        <v>9830199.0140587911</v>
-      </c>
-      <c r="Y2" s="4">
-        <f t="shared" si="0"/>
-        <v>9830199.0140587911</v>
-      </c>
-      <c r="Z2" s="4">
-        <f t="shared" si="0"/>
-        <v>9830199.0140587911</v>
-      </c>
-      <c r="AA2" s="4">
-        <f t="shared" si="0"/>
-        <v>9830199.0140587911</v>
-      </c>
-      <c r="AB2" s="4">
-        <f t="shared" si="0"/>
-        <v>9830199.0140587911</v>
-      </c>
-      <c r="AC2" s="4">
-        <f t="shared" si="0"/>
-        <v>9830199.0140587911</v>
-      </c>
-      <c r="AD2" s="4">
-        <f t="shared" si="0"/>
-        <v>9830199.0140587911</v>
-      </c>
-      <c r="AE2" s="4">
-        <f t="shared" si="0"/>
-        <v>9830199.0140587911</v>
-      </c>
-      <c r="AF2" s="4">
-        <f t="shared" si="0"/>
-        <v>9830199.0140587911</v>
-      </c>
-      <c r="AG2" s="4">
-        <f t="shared" si="0"/>
-        <v>9830199.0140587911</v>
-      </c>
-      <c r="AH2" s="4">
-        <f t="shared" si="0"/>
-        <v>9830199.0140587911</v>
-      </c>
-      <c r="AI2" s="4">
-        <f t="shared" si="0"/>
-        <v>9830199.0140587911</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4">
-        <f>Rail!D6</f>
-        <v>9282453.8981194086</v>
-      </c>
-      <c r="C5" s="4">
-        <f>B5</f>
-        <v>9282453.8981194086</v>
-      </c>
-      <c r="D5" s="4">
-        <f t="shared" ref="D5:AI5" si="1">C5</f>
-        <v>9282453.8981194086</v>
-      </c>
-      <c r="E5" s="4">
-        <f t="shared" si="1"/>
-        <v>9282453.8981194086</v>
-      </c>
-      <c r="F5" s="4">
-        <f t="shared" si="1"/>
-        <v>9282453.8981194086</v>
-      </c>
-      <c r="G5" s="4">
-        <f t="shared" si="1"/>
-        <v>9282453.8981194086</v>
-      </c>
-      <c r="H5" s="4">
-        <f t="shared" si="1"/>
-        <v>9282453.8981194086</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="1"/>
-        <v>9282453.8981194086</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="1"/>
-        <v>9282453.8981194086</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="1"/>
-        <v>9282453.8981194086</v>
-      </c>
-      <c r="L5" s="4">
-        <f t="shared" si="1"/>
-        <v>9282453.8981194086</v>
-      </c>
-      <c r="M5" s="4">
-        <f t="shared" si="1"/>
-        <v>9282453.8981194086</v>
-      </c>
-      <c r="N5" s="4">
-        <f t="shared" si="1"/>
-        <v>9282453.8981194086</v>
-      </c>
-      <c r="O5" s="4">
-        <f t="shared" si="1"/>
-        <v>9282453.8981194086</v>
-      </c>
-      <c r="P5" s="4">
-        <f t="shared" si="1"/>
-        <v>9282453.8981194086</v>
-      </c>
-      <c r="Q5" s="4">
-        <f t="shared" si="1"/>
-        <v>9282453.8981194086</v>
-      </c>
-      <c r="R5" s="4">
-        <f t="shared" si="1"/>
-        <v>9282453.8981194086</v>
-      </c>
-      <c r="S5" s="4">
-        <f t="shared" si="1"/>
-        <v>9282453.8981194086</v>
-      </c>
-      <c r="T5" s="4">
-        <f t="shared" si="1"/>
-        <v>9282453.8981194086</v>
-      </c>
-      <c r="U5" s="4">
-        <f t="shared" si="1"/>
-        <v>9282453.8981194086</v>
-      </c>
-      <c r="V5" s="4">
-        <f t="shared" si="1"/>
-        <v>9282453.8981194086</v>
-      </c>
-      <c r="W5" s="4">
-        <f t="shared" si="1"/>
-        <v>9282453.8981194086</v>
-      </c>
-      <c r="X5" s="4">
-        <f t="shared" si="1"/>
-        <v>9282453.8981194086</v>
-      </c>
-      <c r="Y5" s="4">
-        <f t="shared" si="1"/>
-        <v>9282453.8981194086</v>
-      </c>
-      <c r="Z5" s="4">
-        <f t="shared" si="1"/>
-        <v>9282453.8981194086</v>
-      </c>
-      <c r="AA5" s="4">
-        <f t="shared" si="1"/>
-        <v>9282453.8981194086</v>
-      </c>
-      <c r="AB5" s="4">
-        <f t="shared" si="1"/>
-        <v>9282453.8981194086</v>
-      </c>
-      <c r="AC5" s="4">
-        <f t="shared" si="1"/>
-        <v>9282453.8981194086</v>
-      </c>
-      <c r="AD5" s="4">
-        <f t="shared" si="1"/>
-        <v>9282453.8981194086</v>
-      </c>
-      <c r="AE5" s="4">
-        <f t="shared" si="1"/>
-        <v>9282453.8981194086</v>
-      </c>
-      <c r="AF5" s="4">
-        <f t="shared" si="1"/>
-        <v>9282453.8981194086</v>
-      </c>
-      <c r="AG5" s="4">
-        <f t="shared" si="1"/>
-        <v>9282453.8981194086</v>
-      </c>
-      <c r="AH5" s="4">
-        <f t="shared" si="1"/>
-        <v>9282453.8981194086</v>
-      </c>
-      <c r="AI5" s="4">
-        <f t="shared" si="1"/>
-        <v>9282453.8981194086</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <f>$B7</f>
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ref="D7:AI7" si="2">$B7</f>
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A8" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B8" s="17">
-        <f>'Hydrogen - US data'!B8</f>
-        <v>5801893.0020650728</v>
-      </c>
-      <c r="C8" s="17">
-        <f>'Hydrogen - US data'!C8</f>
-        <v>5214448.4236021359</v>
-      </c>
-      <c r="D8" s="17">
-        <f>'Hydrogen - US data'!D8</f>
-        <v>5011259.6788323689</v>
-      </c>
-      <c r="E8" s="17">
-        <f>'Hydrogen - US data'!E8</f>
-        <v>4836535.3173254626</v>
-      </c>
-      <c r="F8" s="17">
-        <f>'Hydrogen - US data'!F8</f>
-        <v>4629678.5636138767</v>
-      </c>
-      <c r="G8" s="17">
-        <f>'Hydrogen - US data'!G8</f>
-        <v>4456546.4021624699</v>
-      </c>
-      <c r="H8" s="17">
-        <f>'Hydrogen - US data'!H8</f>
-        <v>4306189.2422854388</v>
-      </c>
-      <c r="I8" s="17">
-        <f>'Hydrogen - US data'!I8</f>
-        <v>4189153.8134133737</v>
-      </c>
-      <c r="J8" s="17">
-        <f>'Hydrogen - US data'!J8</f>
-        <v>4048812.9668463147</v>
-      </c>
-      <c r="K8" s="17">
-        <f>'Hydrogen - US data'!K8</f>
-        <v>3985025.5198962474</v>
-      </c>
-      <c r="L8" s="17">
-        <f>'Hydrogen - US data'!L8</f>
-        <v>3934205.9959450597</v>
-      </c>
-      <c r="M8" s="17">
-        <f>'Hydrogen - US data'!M8</f>
-        <v>3876405.9496505526</v>
-      </c>
-      <c r="N8" s="17">
-        <f>'Hydrogen - US data'!N8</f>
-        <v>3831975.9018723769</v>
-      </c>
-      <c r="O8" s="17">
-        <f>'Hydrogen - US data'!O8</f>
-        <v>3776628.4151943023</v>
-      </c>
-      <c r="P8" s="17">
-        <f>'Hydrogen - US data'!P8</f>
-        <v>3729305.6340415506</v>
-      </c>
-      <c r="Q8" s="17">
-        <f>'Hydrogen - US data'!Q8</f>
-        <v>3679786.2366082827</v>
-      </c>
-      <c r="R8" s="17">
-        <f>'Hydrogen - US data'!R8</f>
-        <v>3627321.3242069394</v>
-      </c>
-      <c r="S8" s="17">
-        <f>'Hydrogen - US data'!S8</f>
-        <v>3586574.2052396708</v>
-      </c>
-      <c r="T8" s="17">
-        <f>'Hydrogen - US data'!T8</f>
-        <v>3544382.4058541483</v>
-      </c>
-      <c r="U8" s="17">
-        <f>'Hydrogen - US data'!U8</f>
-        <v>3504655.9588808641</v>
-      </c>
-      <c r="V8" s="17">
-        <f>'Hydrogen - US data'!V8</f>
-        <v>3462981.2499230122</v>
-      </c>
-      <c r="W8" s="17">
-        <f>'Hydrogen - US data'!W8</f>
-        <v>3424884.6773231002</v>
-      </c>
-      <c r="X8" s="17">
-        <f>'Hydrogen - US data'!X8</f>
-        <v>3388450.0607542084</v>
-      </c>
-      <c r="Y8" s="17">
-        <f>'Hydrogen - US data'!Y8</f>
-        <v>3352681.5103077036</v>
-      </c>
-      <c r="Z8" s="17">
-        <f>'Hydrogen - US data'!Z8</f>
-        <v>3314430.1702367137</v>
-      </c>
-      <c r="AA8" s="17">
-        <f>'Hydrogen - US data'!AA8</f>
-        <v>3283646.2930168654</v>
-      </c>
-      <c r="AB8" s="17">
-        <f>'Hydrogen - US data'!AB8</f>
-        <v>3250557.7977666873</v>
-      </c>
-      <c r="AC8" s="17">
-        <f>'Hydrogen - US data'!AC8</f>
-        <v>3219502.1557579543</v>
-      </c>
-      <c r="AD8" s="17">
-        <f>'Hydrogen - US data'!AD8</f>
-        <v>3190349.3190118875</v>
-      </c>
-      <c r="AE8" s="17">
-        <f>'Hydrogen - US data'!AE8</f>
-        <v>3160655.8164576027</v>
-      </c>
-      <c r="AF8" s="17">
-        <f>'Hydrogen - US data'!AF8</f>
-        <v>3132552.589577537</v>
-      </c>
-      <c r="AG8" s="17">
-        <f>'Hydrogen - US data'!AG8</f>
-        <v>3107299.4456662484</v>
-      </c>
-      <c r="AH8" s="17">
-        <f>'Hydrogen - US data'!AH8</f>
-        <v>3081025.9358264413</v>
-      </c>
-      <c r="AI8" s="17">
-        <f>'Hydrogen - US data'!AI8</f>
-        <v>3056612.9168902002</v>
       </c>
     </row>
   </sheetData>
@@ -12160,6 +11867,2034 @@
   </sheetPr>
   <dimension ref="A1:AI8"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="35" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1">
+        <v>2017</v>
+      </c>
+      <c r="C1">
+        <v>2018</v>
+      </c>
+      <c r="D1">
+        <v>2019</v>
+      </c>
+      <c r="E1">
+        <v>2020</v>
+      </c>
+      <c r="F1">
+        <v>2021</v>
+      </c>
+      <c r="G1">
+        <v>2022</v>
+      </c>
+      <c r="H1">
+        <v>2023</v>
+      </c>
+      <c r="I1">
+        <v>2024</v>
+      </c>
+      <c r="J1">
+        <v>2025</v>
+      </c>
+      <c r="K1">
+        <v>2026</v>
+      </c>
+      <c r="L1">
+        <v>2027</v>
+      </c>
+      <c r="M1">
+        <v>2028</v>
+      </c>
+      <c r="N1">
+        <v>2029</v>
+      </c>
+      <c r="O1">
+        <v>2030</v>
+      </c>
+      <c r="P1">
+        <v>2031</v>
+      </c>
+      <c r="Q1">
+        <v>2032</v>
+      </c>
+      <c r="R1">
+        <v>2033</v>
+      </c>
+      <c r="S1">
+        <v>2034</v>
+      </c>
+      <c r="T1">
+        <v>2035</v>
+      </c>
+      <c r="U1">
+        <v>2036</v>
+      </c>
+      <c r="V1">
+        <v>2037</v>
+      </c>
+      <c r="W1">
+        <v>2038</v>
+      </c>
+      <c r="X1">
+        <v>2039</v>
+      </c>
+      <c r="Y1">
+        <v>2040</v>
+      </c>
+      <c r="Z1">
+        <v>2041</v>
+      </c>
+      <c r="AA1">
+        <v>2042</v>
+      </c>
+      <c r="AB1">
+        <v>2043</v>
+      </c>
+      <c r="AC1">
+        <v>2044</v>
+      </c>
+      <c r="AD1">
+        <v>2045</v>
+      </c>
+      <c r="AE1">
+        <v>2046</v>
+      </c>
+      <c r="AF1">
+        <v>2047</v>
+      </c>
+      <c r="AG1">
+        <v>2048</v>
+      </c>
+      <c r="AH1">
+        <v>2049</v>
+      </c>
+      <c r="AI1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <f>B$5*('BNVP-HDVs-psgr'!B$2/'BNVP-HDVs-psgr'!B$5)</f>
+        <v>903463016.72015822</v>
+      </c>
+      <c r="C2" s="4">
+        <f>B2</f>
+        <v>903463016.72015822</v>
+      </c>
+      <c r="D2" s="4">
+        <f t="shared" ref="D2:AI2" si="0">C2</f>
+        <v>903463016.72015822</v>
+      </c>
+      <c r="E2" s="4">
+        <f t="shared" si="0"/>
+        <v>903463016.72015822</v>
+      </c>
+      <c r="F2" s="4">
+        <f t="shared" si="0"/>
+        <v>903463016.72015822</v>
+      </c>
+      <c r="G2" s="4">
+        <f t="shared" si="0"/>
+        <v>903463016.72015822</v>
+      </c>
+      <c r="H2" s="4">
+        <f t="shared" si="0"/>
+        <v>903463016.72015822</v>
+      </c>
+      <c r="I2" s="4">
+        <f t="shared" si="0"/>
+        <v>903463016.72015822</v>
+      </c>
+      <c r="J2" s="4">
+        <f t="shared" si="0"/>
+        <v>903463016.72015822</v>
+      </c>
+      <c r="K2" s="4">
+        <f t="shared" si="0"/>
+        <v>903463016.72015822</v>
+      </c>
+      <c r="L2" s="4">
+        <f t="shared" si="0"/>
+        <v>903463016.72015822</v>
+      </c>
+      <c r="M2" s="4">
+        <f t="shared" si="0"/>
+        <v>903463016.72015822</v>
+      </c>
+      <c r="N2" s="4">
+        <f t="shared" si="0"/>
+        <v>903463016.72015822</v>
+      </c>
+      <c r="O2" s="4">
+        <f t="shared" si="0"/>
+        <v>903463016.72015822</v>
+      </c>
+      <c r="P2" s="4">
+        <f t="shared" si="0"/>
+        <v>903463016.72015822</v>
+      </c>
+      <c r="Q2" s="4">
+        <f t="shared" si="0"/>
+        <v>903463016.72015822</v>
+      </c>
+      <c r="R2" s="4">
+        <f t="shared" si="0"/>
+        <v>903463016.72015822</v>
+      </c>
+      <c r="S2" s="4">
+        <f t="shared" si="0"/>
+        <v>903463016.72015822</v>
+      </c>
+      <c r="T2" s="4">
+        <f t="shared" si="0"/>
+        <v>903463016.72015822</v>
+      </c>
+      <c r="U2" s="4">
+        <f t="shared" si="0"/>
+        <v>903463016.72015822</v>
+      </c>
+      <c r="V2" s="4">
+        <f t="shared" si="0"/>
+        <v>903463016.72015822</v>
+      </c>
+      <c r="W2" s="4">
+        <f t="shared" si="0"/>
+        <v>903463016.72015822</v>
+      </c>
+      <c r="X2" s="4">
+        <f t="shared" si="0"/>
+        <v>903463016.72015822</v>
+      </c>
+      <c r="Y2" s="4">
+        <f t="shared" si="0"/>
+        <v>903463016.72015822</v>
+      </c>
+      <c r="Z2" s="4">
+        <f t="shared" si="0"/>
+        <v>903463016.72015822</v>
+      </c>
+      <c r="AA2" s="4">
+        <f t="shared" si="0"/>
+        <v>903463016.72015822</v>
+      </c>
+      <c r="AB2" s="4">
+        <f t="shared" si="0"/>
+        <v>903463016.72015822</v>
+      </c>
+      <c r="AC2" s="4">
+        <f t="shared" si="0"/>
+        <v>903463016.72015822</v>
+      </c>
+      <c r="AD2" s="4">
+        <f t="shared" si="0"/>
+        <v>903463016.72015822</v>
+      </c>
+      <c r="AE2" s="4">
+        <f t="shared" si="0"/>
+        <v>903463016.72015822</v>
+      </c>
+      <c r="AF2" s="4">
+        <f t="shared" si="0"/>
+        <v>903463016.72015822</v>
+      </c>
+      <c r="AG2" s="4">
+        <f t="shared" si="0"/>
+        <v>903463016.72015822</v>
+      </c>
+      <c r="AH2" s="4">
+        <f t="shared" si="0"/>
+        <v>903463016.72015822</v>
+      </c>
+      <c r="AI2" s="4">
+        <f t="shared" si="0"/>
+        <v>903463016.72015822</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <f>'Freight Aircraft'!D4</f>
+        <v>87319700.566003278</v>
+      </c>
+      <c r="C5">
+        <f>B5</f>
+        <v>87319700.566003278</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:AI5" si="1">C5</f>
+        <v>87319700.566003278</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>87319700.566003278</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>87319700.566003278</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>87319700.566003278</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>87319700.566003278</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>87319700.566003278</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>87319700.566003278</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>87319700.566003278</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>87319700.566003278</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>87319700.566003278</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>87319700.566003278</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>87319700.566003278</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="1"/>
+        <v>87319700.566003278</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>87319700.566003278</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="1"/>
+        <v>87319700.566003278</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="1"/>
+        <v>87319700.566003278</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="1"/>
+        <v>87319700.566003278</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="1"/>
+        <v>87319700.566003278</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="1"/>
+        <v>87319700.566003278</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="1"/>
+        <v>87319700.566003278</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="1"/>
+        <v>87319700.566003278</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="1"/>
+        <v>87319700.566003278</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="1"/>
+        <v>87319700.566003278</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="1"/>
+        <v>87319700.566003278</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="1"/>
+        <v>87319700.566003278</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="1"/>
+        <v>87319700.566003278</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="1"/>
+        <v>87319700.566003278</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="1"/>
+        <v>87319700.566003278</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="1"/>
+        <v>87319700.566003278</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="1"/>
+        <v>87319700.566003278</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="1"/>
+        <v>87319700.566003278</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="1"/>
+        <v>87319700.566003278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f>$B7</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:AI7" si="2">$B7</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="17">
+        <f>'Hydrogen - US data'!B7</f>
+        <v>150462425.18688756</v>
+      </c>
+      <c r="C8" s="17">
+        <f>'Hydrogen - US data'!C7</f>
+        <v>135228029.11874872</v>
+      </c>
+      <c r="D8" s="17">
+        <f>'Hydrogen - US data'!D7</f>
+        <v>129958667.67105278</v>
+      </c>
+      <c r="E8" s="17">
+        <f>'Hydrogen - US data'!E7</f>
+        <v>125427482.56264034</v>
+      </c>
+      <c r="F8" s="17">
+        <f>'Hydrogen - US data'!F7</f>
+        <v>120062997.41638653</v>
+      </c>
+      <c r="G8" s="17">
+        <f>'Hydrogen - US data'!G7</f>
+        <v>115573103.36274673</v>
+      </c>
+      <c r="H8" s="17">
+        <f>'Hydrogen - US data'!H7</f>
+        <v>111673841.01660238</v>
+      </c>
+      <c r="I8" s="17">
+        <f>'Hydrogen - US data'!I7</f>
+        <v>108638722.22785349</v>
+      </c>
+      <c r="J8" s="17">
+        <f>'Hydrogen - US data'!J7</f>
+        <v>104999216.27354777</v>
+      </c>
+      <c r="K8" s="17">
+        <f>'Hydrogen - US data'!K7</f>
+        <v>103344995.14930935</v>
+      </c>
+      <c r="L8" s="17">
+        <f>'Hydrogen - US data'!L7</f>
+        <v>102027075.49484189</v>
+      </c>
+      <c r="M8" s="17">
+        <f>'Hydrogen - US data'!M7</f>
+        <v>100528127.62760434</v>
+      </c>
+      <c r="N8" s="17">
+        <f>'Hydrogen - US data'!N7</f>
+        <v>99375908.388556987</v>
+      </c>
+      <c r="O8" s="17">
+        <f>'Hydrogen - US data'!O7</f>
+        <v>97940563.567372248</v>
+      </c>
+      <c r="P8" s="17">
+        <f>'Hydrogen - US data'!P7</f>
+        <v>96713326.10947755</v>
+      </c>
+      <c r="Q8" s="17">
+        <f>'Hydrogen - US data'!Q7</f>
+        <v>95429123.0693748</v>
+      </c>
+      <c r="R8" s="17">
+        <f>'Hydrogen - US data'!R7</f>
+        <v>94068533.007766634</v>
+      </c>
+      <c r="S8" s="17">
+        <f>'Hydrogen - US data'!S7</f>
+        <v>93011824.389215469</v>
+      </c>
+      <c r="T8" s="17">
+        <f>'Hydrogen - US data'!T7</f>
+        <v>91917650.391817585</v>
+      </c>
+      <c r="U8" s="17">
+        <f>'Hydrogen - US data'!U7</f>
+        <v>90887411.200310409</v>
+      </c>
+      <c r="V8" s="17">
+        <f>'Hydrogen - US data'!V7</f>
+        <v>89806647.081336781</v>
+      </c>
+      <c r="W8" s="17">
+        <f>'Hydrogen - US data'!W7</f>
+        <v>88818675.965245739</v>
+      </c>
+      <c r="X8" s="17">
+        <f>'Hydrogen - US data'!X7</f>
+        <v>87873804.908892468</v>
+      </c>
+      <c r="Y8" s="17">
+        <f>'Hydrogen - US data'!Y7</f>
+        <v>86946207.167313114</v>
+      </c>
+      <c r="Z8" s="17">
+        <f>'Hydrogen - US data'!Z7</f>
+        <v>85954222.414805442</v>
+      </c>
+      <c r="AA8" s="17">
+        <f>'Hydrogen - US data'!AA7</f>
+        <v>85155893.865570709</v>
+      </c>
+      <c r="AB8" s="17">
+        <f>'Hydrogen - US data'!AB7</f>
+        <v>84297798.888749421</v>
+      </c>
+      <c r="AC8" s="17">
+        <f>'Hydrogen - US data'!AC7</f>
+        <v>83492422.572656289</v>
+      </c>
+      <c r="AD8" s="17">
+        <f>'Hydrogen - US data'!AD7</f>
+        <v>82736392.339708284</v>
+      </c>
+      <c r="AE8" s="17">
+        <f>'Hydrogen - US data'!AE7</f>
+        <v>81966340.840133831</v>
+      </c>
+      <c r="AF8" s="17">
+        <f>'Hydrogen - US data'!AF7</f>
+        <v>81237530.489710793</v>
+      </c>
+      <c r="AG8" s="17">
+        <f>'Hydrogen - US data'!AG7</f>
+        <v>80582632.29094471</v>
+      </c>
+      <c r="AH8" s="17">
+        <f>'Hydrogen - US data'!AH7</f>
+        <v>79901272.602432385</v>
+      </c>
+      <c r="AI8" s="17">
+        <f>'Hydrogen - US data'!AI7</f>
+        <v>79268161.644685864</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AI8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:AI8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1">
+        <v>2017</v>
+      </c>
+      <c r="C1">
+        <v>2018</v>
+      </c>
+      <c r="D1">
+        <v>2019</v>
+      </c>
+      <c r="E1">
+        <v>2020</v>
+      </c>
+      <c r="F1">
+        <v>2021</v>
+      </c>
+      <c r="G1">
+        <v>2022</v>
+      </c>
+      <c r="H1">
+        <v>2023</v>
+      </c>
+      <c r="I1">
+        <v>2024</v>
+      </c>
+      <c r="J1">
+        <v>2025</v>
+      </c>
+      <c r="K1">
+        <v>2026</v>
+      </c>
+      <c r="L1">
+        <v>2027</v>
+      </c>
+      <c r="M1">
+        <v>2028</v>
+      </c>
+      <c r="N1">
+        <v>2029</v>
+      </c>
+      <c r="O1">
+        <v>2030</v>
+      </c>
+      <c r="P1">
+        <v>2031</v>
+      </c>
+      <c r="Q1">
+        <v>2032</v>
+      </c>
+      <c r="R1">
+        <v>2033</v>
+      </c>
+      <c r="S1">
+        <v>2034</v>
+      </c>
+      <c r="T1">
+        <v>2035</v>
+      </c>
+      <c r="U1">
+        <v>2036</v>
+      </c>
+      <c r="V1">
+        <v>2037</v>
+      </c>
+      <c r="W1">
+        <v>2038</v>
+      </c>
+      <c r="X1">
+        <v>2039</v>
+      </c>
+      <c r="Y1">
+        <v>2040</v>
+      </c>
+      <c r="Z1">
+        <v>2041</v>
+      </c>
+      <c r="AA1">
+        <v>2042</v>
+      </c>
+      <c r="AB1">
+        <v>2043</v>
+      </c>
+      <c r="AC1">
+        <v>2044</v>
+      </c>
+      <c r="AD1">
+        <v>2045</v>
+      </c>
+      <c r="AE1">
+        <v>2046</v>
+      </c>
+      <c r="AF1">
+        <v>2047</v>
+      </c>
+      <c r="AG1">
+        <v>2048</v>
+      </c>
+      <c r="AH1">
+        <v>2049</v>
+      </c>
+      <c r="AI1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <f>Rail!D7</f>
+        <v>9830199.0140587911</v>
+      </c>
+      <c r="C2" s="4">
+        <f>B2</f>
+        <v>9830199.0140587911</v>
+      </c>
+      <c r="D2" s="4">
+        <f t="shared" ref="D2:AI2" si="0">C2</f>
+        <v>9830199.0140587911</v>
+      </c>
+      <c r="E2" s="4">
+        <f t="shared" si="0"/>
+        <v>9830199.0140587911</v>
+      </c>
+      <c r="F2" s="4">
+        <f t="shared" si="0"/>
+        <v>9830199.0140587911</v>
+      </c>
+      <c r="G2" s="4">
+        <f t="shared" si="0"/>
+        <v>9830199.0140587911</v>
+      </c>
+      <c r="H2" s="4">
+        <f t="shared" si="0"/>
+        <v>9830199.0140587911</v>
+      </c>
+      <c r="I2" s="4">
+        <f t="shared" si="0"/>
+        <v>9830199.0140587911</v>
+      </c>
+      <c r="J2" s="4">
+        <f t="shared" si="0"/>
+        <v>9830199.0140587911</v>
+      </c>
+      <c r="K2" s="4">
+        <f t="shared" si="0"/>
+        <v>9830199.0140587911</v>
+      </c>
+      <c r="L2" s="4">
+        <f t="shared" si="0"/>
+        <v>9830199.0140587911</v>
+      </c>
+      <c r="M2" s="4">
+        <f t="shared" si="0"/>
+        <v>9830199.0140587911</v>
+      </c>
+      <c r="N2" s="4">
+        <f t="shared" si="0"/>
+        <v>9830199.0140587911</v>
+      </c>
+      <c r="O2" s="4">
+        <f t="shared" si="0"/>
+        <v>9830199.0140587911</v>
+      </c>
+      <c r="P2" s="4">
+        <f t="shared" si="0"/>
+        <v>9830199.0140587911</v>
+      </c>
+      <c r="Q2" s="4">
+        <f t="shared" si="0"/>
+        <v>9830199.0140587911</v>
+      </c>
+      <c r="R2" s="4">
+        <f t="shared" si="0"/>
+        <v>9830199.0140587911</v>
+      </c>
+      <c r="S2" s="4">
+        <f t="shared" si="0"/>
+        <v>9830199.0140587911</v>
+      </c>
+      <c r="T2" s="4">
+        <f t="shared" si="0"/>
+        <v>9830199.0140587911</v>
+      </c>
+      <c r="U2" s="4">
+        <f t="shared" si="0"/>
+        <v>9830199.0140587911</v>
+      </c>
+      <c r="V2" s="4">
+        <f t="shared" si="0"/>
+        <v>9830199.0140587911</v>
+      </c>
+      <c r="W2" s="4">
+        <f t="shared" si="0"/>
+        <v>9830199.0140587911</v>
+      </c>
+      <c r="X2" s="4">
+        <f t="shared" si="0"/>
+        <v>9830199.0140587911</v>
+      </c>
+      <c r="Y2" s="4">
+        <f t="shared" si="0"/>
+        <v>9830199.0140587911</v>
+      </c>
+      <c r="Z2" s="4">
+        <f t="shared" si="0"/>
+        <v>9830199.0140587911</v>
+      </c>
+      <c r="AA2" s="4">
+        <f t="shared" si="0"/>
+        <v>9830199.0140587911</v>
+      </c>
+      <c r="AB2" s="4">
+        <f t="shared" si="0"/>
+        <v>9830199.0140587911</v>
+      </c>
+      <c r="AC2" s="4">
+        <f t="shared" si="0"/>
+        <v>9830199.0140587911</v>
+      </c>
+      <c r="AD2" s="4">
+        <f t="shared" si="0"/>
+        <v>9830199.0140587911</v>
+      </c>
+      <c r="AE2" s="4">
+        <f t="shared" si="0"/>
+        <v>9830199.0140587911</v>
+      </c>
+      <c r="AF2" s="4">
+        <f t="shared" si="0"/>
+        <v>9830199.0140587911</v>
+      </c>
+      <c r="AG2" s="4">
+        <f t="shared" si="0"/>
+        <v>9830199.0140587911</v>
+      </c>
+      <c r="AH2" s="4">
+        <f t="shared" si="0"/>
+        <v>9830199.0140587911</v>
+      </c>
+      <c r="AI2" s="4">
+        <f t="shared" si="0"/>
+        <v>9830199.0140587911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <f>Rail!D6</f>
+        <v>9282453.8981194086</v>
+      </c>
+      <c r="C5" s="4">
+        <f>B5</f>
+        <v>9282453.8981194086</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" ref="D5:AI5" si="1">C5</f>
+        <v>9282453.8981194086</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="1"/>
+        <v>9282453.8981194086</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="1"/>
+        <v>9282453.8981194086</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="1"/>
+        <v>9282453.8981194086</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="1"/>
+        <v>9282453.8981194086</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="1"/>
+        <v>9282453.8981194086</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="1"/>
+        <v>9282453.8981194086</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>9282453.8981194086</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="1"/>
+        <v>9282453.8981194086</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="1"/>
+        <v>9282453.8981194086</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" si="1"/>
+        <v>9282453.8981194086</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" si="1"/>
+        <v>9282453.8981194086</v>
+      </c>
+      <c r="P5" s="4">
+        <f t="shared" si="1"/>
+        <v>9282453.8981194086</v>
+      </c>
+      <c r="Q5" s="4">
+        <f t="shared" si="1"/>
+        <v>9282453.8981194086</v>
+      </c>
+      <c r="R5" s="4">
+        <f t="shared" si="1"/>
+        <v>9282453.8981194086</v>
+      </c>
+      <c r="S5" s="4">
+        <f t="shared" si="1"/>
+        <v>9282453.8981194086</v>
+      </c>
+      <c r="T5" s="4">
+        <f t="shared" si="1"/>
+        <v>9282453.8981194086</v>
+      </c>
+      <c r="U5" s="4">
+        <f t="shared" si="1"/>
+        <v>9282453.8981194086</v>
+      </c>
+      <c r="V5" s="4">
+        <f t="shared" si="1"/>
+        <v>9282453.8981194086</v>
+      </c>
+      <c r="W5" s="4">
+        <f t="shared" si="1"/>
+        <v>9282453.8981194086</v>
+      </c>
+      <c r="X5" s="4">
+        <f t="shared" si="1"/>
+        <v>9282453.8981194086</v>
+      </c>
+      <c r="Y5" s="4">
+        <f t="shared" si="1"/>
+        <v>9282453.8981194086</v>
+      </c>
+      <c r="Z5" s="4">
+        <f t="shared" si="1"/>
+        <v>9282453.8981194086</v>
+      </c>
+      <c r="AA5" s="4">
+        <f t="shared" si="1"/>
+        <v>9282453.8981194086</v>
+      </c>
+      <c r="AB5" s="4">
+        <f t="shared" si="1"/>
+        <v>9282453.8981194086</v>
+      </c>
+      <c r="AC5" s="4">
+        <f t="shared" si="1"/>
+        <v>9282453.8981194086</v>
+      </c>
+      <c r="AD5" s="4">
+        <f t="shared" si="1"/>
+        <v>9282453.8981194086</v>
+      </c>
+      <c r="AE5" s="4">
+        <f t="shared" si="1"/>
+        <v>9282453.8981194086</v>
+      </c>
+      <c r="AF5" s="4">
+        <f t="shared" si="1"/>
+        <v>9282453.8981194086</v>
+      </c>
+      <c r="AG5" s="4">
+        <f t="shared" si="1"/>
+        <v>9282453.8981194086</v>
+      </c>
+      <c r="AH5" s="4">
+        <f t="shared" si="1"/>
+        <v>9282453.8981194086</v>
+      </c>
+      <c r="AI5" s="4">
+        <f t="shared" si="1"/>
+        <v>9282453.8981194086</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f>$B7</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:AI7" si="2">$B7</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="17">
+        <f>'Hydrogen - US data'!B8</f>
+        <v>5801893.0020650728</v>
+      </c>
+      <c r="C8" s="17">
+        <f>'Hydrogen - US data'!C8</f>
+        <v>5214448.4236021359</v>
+      </c>
+      <c r="D8" s="17">
+        <f>'Hydrogen - US data'!D8</f>
+        <v>5011259.6788323689</v>
+      </c>
+      <c r="E8" s="17">
+        <f>'Hydrogen - US data'!E8</f>
+        <v>4836535.3173254626</v>
+      </c>
+      <c r="F8" s="17">
+        <f>'Hydrogen - US data'!F8</f>
+        <v>4629678.5636138767</v>
+      </c>
+      <c r="G8" s="17">
+        <f>'Hydrogen - US data'!G8</f>
+        <v>4456546.4021624699</v>
+      </c>
+      <c r="H8" s="17">
+        <f>'Hydrogen - US data'!H8</f>
+        <v>4306189.2422854388</v>
+      </c>
+      <c r="I8" s="17">
+        <f>'Hydrogen - US data'!I8</f>
+        <v>4189153.8134133737</v>
+      </c>
+      <c r="J8" s="17">
+        <f>'Hydrogen - US data'!J8</f>
+        <v>4048812.9668463147</v>
+      </c>
+      <c r="K8" s="17">
+        <f>'Hydrogen - US data'!K8</f>
+        <v>3985025.5198962474</v>
+      </c>
+      <c r="L8" s="17">
+        <f>'Hydrogen - US data'!L8</f>
+        <v>3934205.9959450597</v>
+      </c>
+      <c r="M8" s="17">
+        <f>'Hydrogen - US data'!M8</f>
+        <v>3876405.9496505526</v>
+      </c>
+      <c r="N8" s="17">
+        <f>'Hydrogen - US data'!N8</f>
+        <v>3831975.9018723769</v>
+      </c>
+      <c r="O8" s="17">
+        <f>'Hydrogen - US data'!O8</f>
+        <v>3776628.4151943023</v>
+      </c>
+      <c r="P8" s="17">
+        <f>'Hydrogen - US data'!P8</f>
+        <v>3729305.6340415506</v>
+      </c>
+      <c r="Q8" s="17">
+        <f>'Hydrogen - US data'!Q8</f>
+        <v>3679786.2366082827</v>
+      </c>
+      <c r="R8" s="17">
+        <f>'Hydrogen - US data'!R8</f>
+        <v>3627321.3242069394</v>
+      </c>
+      <c r="S8" s="17">
+        <f>'Hydrogen - US data'!S8</f>
+        <v>3586574.2052396708</v>
+      </c>
+      <c r="T8" s="17">
+        <f>'Hydrogen - US data'!T8</f>
+        <v>3544382.4058541483</v>
+      </c>
+      <c r="U8" s="17">
+        <f>'Hydrogen - US data'!U8</f>
+        <v>3504655.9588808641</v>
+      </c>
+      <c r="V8" s="17">
+        <f>'Hydrogen - US data'!V8</f>
+        <v>3462981.2499230122</v>
+      </c>
+      <c r="W8" s="17">
+        <f>'Hydrogen - US data'!W8</f>
+        <v>3424884.6773231002</v>
+      </c>
+      <c r="X8" s="17">
+        <f>'Hydrogen - US data'!X8</f>
+        <v>3388450.0607542084</v>
+      </c>
+      <c r="Y8" s="17">
+        <f>'Hydrogen - US data'!Y8</f>
+        <v>3352681.5103077036</v>
+      </c>
+      <c r="Z8" s="17">
+        <f>'Hydrogen - US data'!Z8</f>
+        <v>3314430.1702367137</v>
+      </c>
+      <c r="AA8" s="17">
+        <f>'Hydrogen - US data'!AA8</f>
+        <v>3283646.2930168654</v>
+      </c>
+      <c r="AB8" s="17">
+        <f>'Hydrogen - US data'!AB8</f>
+        <v>3250557.7977666873</v>
+      </c>
+      <c r="AC8" s="17">
+        <f>'Hydrogen - US data'!AC8</f>
+        <v>3219502.1557579543</v>
+      </c>
+      <c r="AD8" s="17">
+        <f>'Hydrogen - US data'!AD8</f>
+        <v>3190349.3190118875</v>
+      </c>
+      <c r="AE8" s="17">
+        <f>'Hydrogen - US data'!AE8</f>
+        <v>3160655.8164576027</v>
+      </c>
+      <c r="AF8" s="17">
+        <f>'Hydrogen - US data'!AF8</f>
+        <v>3132552.589577537</v>
+      </c>
+      <c r="AG8" s="17">
+        <f>'Hydrogen - US data'!AG8</f>
+        <v>3107299.4456662484</v>
+      </c>
+      <c r="AH8" s="17">
+        <f>'Hydrogen - US data'!AH8</f>
+        <v>3081025.9358264413</v>
+      </c>
+      <c r="AI8" s="17">
+        <f>'Hydrogen - US data'!AI8</f>
+        <v>3056612.9168902002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AI8"/>
+  <sheetViews>
     <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:AI1"/>
     </sheetView>
@@ -13166,7 +14901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
@@ -14145,7 +15880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
@@ -15123,7 +16858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
@@ -16068,7 +17803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
@@ -16197,139 +17932,139 @@
       </c>
       <c r="B2" s="4">
         <f>'India Frgt Mtrbk'!B25</f>
-        <v>1370.2622643209786</v>
+        <v>2468.9410167945562</v>
       </c>
       <c r="C2" s="4">
         <f>$B2</f>
-        <v>1370.2622643209786</v>
+        <v>2468.9410167945562</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:AI6" si="0">$B2</f>
-        <v>1370.2622643209786</v>
+        <v>2468.9410167945562</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>1370.2622643209786</v>
+        <v>2468.9410167945562</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" si="0"/>
-        <v>1370.2622643209786</v>
+        <v>2468.9410167945562</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
-        <v>1370.2622643209786</v>
+        <v>2468.9410167945562</v>
       </c>
       <c r="H2" s="4">
         <f t="shared" si="0"/>
-        <v>1370.2622643209786</v>
+        <v>2468.9410167945562</v>
       </c>
       <c r="I2" s="4">
         <f t="shared" si="0"/>
-        <v>1370.2622643209786</v>
+        <v>2468.9410167945562</v>
       </c>
       <c r="J2" s="4">
         <f t="shared" si="0"/>
-        <v>1370.2622643209786</v>
+        <v>2468.9410167945562</v>
       </c>
       <c r="K2" s="4">
         <f t="shared" si="0"/>
-        <v>1370.2622643209786</v>
+        <v>2468.9410167945562</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>1370.2622643209786</v>
+        <v>2468.9410167945562</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
-        <v>1370.2622643209786</v>
+        <v>2468.9410167945562</v>
       </c>
       <c r="N2" s="4">
         <f t="shared" si="0"/>
-        <v>1370.2622643209786</v>
+        <v>2468.9410167945562</v>
       </c>
       <c r="O2" s="4">
         <f t="shared" si="0"/>
-        <v>1370.2622643209786</v>
+        <v>2468.9410167945562</v>
       </c>
       <c r="P2" s="4">
         <f t="shared" si="0"/>
-        <v>1370.2622643209786</v>
+        <v>2468.9410167945562</v>
       </c>
       <c r="Q2" s="4">
         <f t="shared" si="0"/>
-        <v>1370.2622643209786</v>
+        <v>2468.9410167945562</v>
       </c>
       <c r="R2" s="4">
         <f t="shared" si="0"/>
-        <v>1370.2622643209786</v>
+        <v>2468.9410167945562</v>
       </c>
       <c r="S2" s="4">
         <f t="shared" si="0"/>
-        <v>1370.2622643209786</v>
+        <v>2468.9410167945562</v>
       </c>
       <c r="T2" s="4">
         <f t="shared" si="0"/>
-        <v>1370.2622643209786</v>
+        <v>2468.9410167945562</v>
       </c>
       <c r="U2" s="4">
         <f t="shared" si="0"/>
-        <v>1370.2622643209786</v>
+        <v>2468.9410167945562</v>
       </c>
       <c r="V2" s="4">
         <f t="shared" si="0"/>
-        <v>1370.2622643209786</v>
+        <v>2468.9410167945562</v>
       </c>
       <c r="W2" s="4">
         <f t="shared" si="0"/>
-        <v>1370.2622643209786</v>
+        <v>2468.9410167945562</v>
       </c>
       <c r="X2" s="4">
         <f t="shared" si="0"/>
-        <v>1370.2622643209786</v>
+        <v>2468.9410167945562</v>
       </c>
       <c r="Y2" s="4">
         <f t="shared" si="0"/>
-        <v>1370.2622643209786</v>
+        <v>2468.9410167945562</v>
       </c>
       <c r="Z2" s="4">
         <f t="shared" si="0"/>
-        <v>1370.2622643209786</v>
+        <v>2468.9410167945562</v>
       </c>
       <c r="AA2" s="4">
         <f t="shared" si="0"/>
-        <v>1370.2622643209786</v>
+        <v>2468.9410167945562</v>
       </c>
       <c r="AB2" s="4">
         <f t="shared" si="0"/>
-        <v>1370.2622643209786</v>
+        <v>2468.9410167945562</v>
       </c>
       <c r="AC2" s="4">
         <f t="shared" si="0"/>
-        <v>1370.2622643209786</v>
+        <v>2468.9410167945562</v>
       </c>
       <c r="AD2" s="4">
         <f t="shared" si="0"/>
-        <v>1370.2622643209786</v>
+        <v>2468.9410167945562</v>
       </c>
       <c r="AE2" s="4">
         <f t="shared" si="0"/>
-        <v>1370.2622643209786</v>
+        <v>2468.9410167945562</v>
       </c>
       <c r="AF2" s="4">
         <f t="shared" si="0"/>
-        <v>1370.2622643209786</v>
+        <v>2468.9410167945562</v>
       </c>
       <c r="AG2" s="4">
         <f t="shared" si="0"/>
-        <v>1370.2622643209786</v>
+        <v>2468.9410167945562</v>
       </c>
       <c r="AH2" s="4">
         <f t="shared" si="0"/>
-        <v>1370.2622643209786</v>
+        <v>2468.9410167945562</v>
       </c>
       <c r="AI2" s="4">
         <f t="shared" si="0"/>
-        <v>1370.2622643209786</v>
+        <v>2468.9410167945562</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.45">
@@ -17154,10 +18889,10 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17166,7 +18901,7 @@
     <col min="3" max="3" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>149</v>
       </c>
@@ -17177,7 +18912,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -17194,7 +18929,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -17211,7 +18946,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>147</v>
       </c>
@@ -17228,7 +18963,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>148</v>
       </c>
@@ -17245,7 +18980,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>200</v>
       </c>
@@ -17262,7 +18997,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>158</v>
       </c>
@@ -17279,7 +19014,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>201</v>
       </c>
@@ -17296,7 +19031,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>159</v>
       </c>
@@ -17313,127 +19048,191 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="D12">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="F12" t="s">
+        <v>299</v>
+      </c>
+      <c r="G12" t="s">
+        <v>300</v>
+      </c>
+      <c r="H12" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>297</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>7.5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14">
+        <v>7.75</v>
+      </c>
+      <c r="D14">
+        <v>7.75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>302</v>
+      </c>
+      <c r="G14" t="s">
+        <v>303</v>
+      </c>
+      <c r="H14" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="16">
+        <f>AVERAGE(C12:D14)</f>
+        <v>7.8166666666666664</v>
+      </c>
+      <c r="C19" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B20" s="16">
         <f>AVERAGE(C7:D10)</f>
         <v>7.17</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C20" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B22" s="16">
         <f>AVERAGE(C2:D5)</f>
         <v>5.5812499999999998</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C22" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="4">
-        <f>B14/About!$C$129*About!A$116/About!A$110</f>
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="4">
-        <f>B15/About!$C$129*About!A$116/About!A$110</f>
-        <v>8851.1535452084827</v>
-      </c>
-      <c r="C22" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="4">
+        <f>B19/About!$C$129*About!A$116/About!A$110</f>
+        <v>9649.4444739720566</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="4">
+        <f>B20/About!$C$129*About!A$116/About!A$110</f>
+        <v>8851.1535452084827</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="4">
-        <f>B16/About!$C$129*About!A$116/About!A$110</f>
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B28" s="4">
+        <f>B21/About!$C$129*About!A$116/About!A$110</f>
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="4">
-        <f>B17/About!$C$129*About!A$116/About!A$110</f>
+      <c r="B29" s="4">
+        <f>B22/About!$C$129*About!A$116/About!A$110</f>
         <v>6889.8885249923069</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C29" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="4">
-        <f>B18/About!$C$129*About!A$116/About!A$110</f>
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B30" s="4">
+        <f>B23/About!$C$129*About!A$116/About!A$110</f>
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
         <v>76</v>
       </c>
     </row>
@@ -17449,7 +19248,7 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -17709,24 +19508,25 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="31.1328125" customWidth="1"/>
     <col min="3" max="3" width="10.73046875" customWidth="1"/>
+    <col min="8" max="8" width="13.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>226</v>
       </c>
@@ -17743,7 +19543,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>227</v>
       </c>
@@ -17760,7 +19560,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>151</v>
       </c>
@@ -17777,7 +19577,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>152</v>
       </c>
@@ -17793,8 +19593,9 @@
       <c r="E5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="H5" s="48"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>153</v>
       </c>
@@ -17811,25 +19612,45 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7">
+        <f>2*(1/3)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D7">
+        <f>C7</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <f>C7*100</f>
+        <v>66.666666666666657</v>
       </c>
       <c r="C10" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -17840,7 +19661,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -17851,7 +19672,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -17863,7 +19684,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -17880,7 +19701,7 @@
       </c>
       <c r="B17" s="4">
         <f>B10/About!$C$129*About!A$116/About!A$110</f>
-        <v>0</v>
+        <v>82298.033893151864</v>
       </c>
       <c r="C17" t="s">
         <v>76</v>
@@ -18253,8 +20074,8 @@
   </sheetPr>
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18450,9 +20271,9 @@
       <c r="A18" t="s">
         <v>0</v>
       </c>
-      <c r="B18">
-        <f>AVERAGE(C8,C14)</f>
-        <v>1.1100000000000001</v>
+      <c r="B18" s="49">
+        <f>AVERAGE(1.25,2.75)</f>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
         <v>176</v>
@@ -18523,7 +20344,7 @@
       </c>
       <c r="B25" s="4">
         <f>B18/About!$C$129*About!A$116/About!A$110</f>
-        <v>1370.2622643209786</v>
+        <v>2468.9410167945562</v>
       </c>
       <c r="C25" t="s">
         <v>76</v>
@@ -18591,6 +20412,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/InputData/trans/BNVP/BAU New Vehicle Price.xlsx
+++ b/InputData/trans/BNVP/BAU New Vehicle Price.xlsx
@@ -690,9 +690,6 @@
     <t>Range of manufacturers</t>
   </si>
   <si>
-    <t>Source: BMTC</t>
-  </si>
-  <si>
     <t>2019 crore</t>
   </si>
   <si>
@@ -703,15 +700,6 @@
   </si>
   <si>
     <t>https://buses.cardekho.com/popular-buses.html</t>
-  </si>
-  <si>
-    <t>BMTC working on plan to buy 300 electric buses</t>
-  </si>
-  <si>
-    <t>https://economictimes.indiatimes.com/industry/transportation/roadways/bmtc-working-on-plan-to-buy-300-electric-buses/articleshow/69672312.cms?from=mdr</t>
-  </si>
-  <si>
-    <t>Economic Times/quoting BMTC</t>
   </si>
   <si>
     <t>Popular Diesel Buses in India</t>
@@ -977,6 +965,18 @@
   </si>
   <si>
     <t>Etrio Tata Ace</t>
+  </si>
+  <si>
+    <t>Source: https://india.mongabay.com/2019/03/electric-buses-in-india-to-be-or-not-to-be/#:~:text=It%20now%20plans%20to%20make,with%20diesel%20buses%20in%20India</t>
+  </si>
+  <si>
+    <t>Mongabay</t>
+  </si>
+  <si>
+    <t>https://india.mongabay.com/2019/03/electric-buses-in-india-to-be-or-not-to-be/#:~:text=It%20now%20plans%20to%20make,with%20diesel%20buses%20in%20India</t>
+  </si>
+  <si>
+    <t>Electric buses in India: To be or not to be?</t>
   </si>
 </sst>
 </file>
@@ -1739,7 +1739,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1824,7 +1826,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B12" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>186</v>
@@ -1848,7 +1850,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B15" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>187</v>
@@ -1863,15 +1865,15 @@
         <v>109</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="14" t="s">
-        <v>217</v>
+        <v>303</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.45">
@@ -1882,13 +1884,13 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20" s="14" t="s">
-        <v>215</v>
+        <v>305</v>
       </c>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21" s="27" t="s">
-        <v>216</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.45">
@@ -1901,7 +1903,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24" s="14" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.45">
@@ -1911,12 +1913,12 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B26" s="14" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B27" s="27" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.45">
@@ -1957,10 +1959,10 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B36" s="13" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.45">
@@ -1968,7 +1970,7 @@
         <v>27</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.45">
@@ -1984,7 +1986,7 @@
         <v>28</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
@@ -1992,23 +1994,23 @@
         <v>29</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B41" s="12"/>
       <c r="E41" s="12" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B42" s="13" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B43" s="12" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.45">
@@ -2018,17 +2020,17 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B45" s="12" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B46" s="12" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B47" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.45">
@@ -2036,10 +2038,10 @@
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B49" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.45">
@@ -2047,7 +2049,7 @@
         <v>70</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.45">
@@ -2060,7 +2062,7 @@
         <v>119</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.45">
@@ -2068,7 +2070,7 @@
         <v>120</v>
       </c>
       <c r="E53" s="30" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.45">
@@ -2155,7 +2157,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
@@ -2175,7 +2177,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.45">
@@ -2210,47 +2212,47 @@
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.45">
@@ -2260,27 +2262,27 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.45">
@@ -2301,7 +2303,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.45">
@@ -2760,7 +2762,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B42" s="15"/>
       <c r="E42" s="20"/>
@@ -2770,7 +2772,7 @@
     </row>
     <row r="44" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A44" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B44" s="28" t="s">
         <v>86</v>
@@ -2788,20 +2790,20 @@
         <v>200</v>
       </c>
       <c r="D45" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E45" s="20"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B46" s="29">
         <f>AVERAGE(B45:C45)</f>
         <v>130</v>
       </c>
       <c r="C46" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E46" s="5"/>
     </row>
@@ -2857,7 +2859,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B1" s="15"/>
     </row>
@@ -2866,58 +2868,58 @@
         <v>7.1</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="35" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="37" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D4">
         <v>508400000</v>
       </c>
       <c r="E4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="37"/>
       <c r="B5" s="38"/>
       <c r="C5" s="39" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D5">
         <v>538400000</v>
       </c>
       <c r="E5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C6" s="39" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D6" s="26">
         <f>D4/About!$A$110</f>
@@ -2929,7 +2931,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C7" s="39" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D7" s="26">
         <f>D5/About!$A$110</f>
@@ -2941,7 +2943,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B9" s="15"/>
     </row>
@@ -2950,56 +2952,56 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="42" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="40" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B12" s="41"/>
       <c r="C12" s="41" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D12">
         <v>285000000</v>
       </c>
       <c r="E12" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="40"/>
       <c r="B13" s="41"/>
       <c r="C13" s="41" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D13">
         <v>312000000</v>
       </c>
       <c r="E13" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C14" s="41" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D14" s="26">
         <f>D12/About!$A$110</f>
@@ -3011,7 +3013,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C15" s="41" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D15" s="26">
         <f>D13/About!$A$110</f>
@@ -3023,7 +3025,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -3152,7 +3154,7 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B2" s="4">
         <v>71671.802858802301</v>
@@ -3259,7 +3261,7 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B3" s="4">
         <v>82293.84992932812</v>
@@ -3366,7 +3368,7 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B4" s="4">
         <v>1115442.7441684157</v>
@@ -3473,7 +3475,7 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B5" s="4">
         <v>170845.9414873973</v>
@@ -3580,7 +3582,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="29" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B6" s="4">
         <v>150462425.18688756</v>
@@ -3687,7 +3689,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B7" s="4">
         <v>150462425.18688756</v>
@@ -3794,7 +3796,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B8" s="4">
         <v>5801893.0020650728</v>
@@ -3901,7 +3903,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B9" s="4">
         <v>5801893.0020650728</v>
@@ -4008,7 +4010,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B10" s="4">
         <v>69622.716024780879</v>
@@ -4115,7 +4117,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B11" s="4">
         <v>23207572.008260291</v>
@@ -4222,7 +4224,7 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -8202,139 +8204,139 @@
       </c>
       <c r="B2" s="4">
         <f>'India Psgr HDVs'!B22</f>
-        <v>370341.15251918341</v>
+        <v>216032.33896952364</v>
       </c>
       <c r="C2" s="4">
         <f t="shared" ref="C2:R5" si="0">$B2</f>
-        <v>370341.15251918341</v>
+        <v>216032.33896952364</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" si="0"/>
-        <v>370341.15251918341</v>
+        <v>216032.33896952364</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>370341.15251918341</v>
+        <v>216032.33896952364</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" si="0"/>
-        <v>370341.15251918341</v>
+        <v>216032.33896952364</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
-        <v>370341.15251918341</v>
+        <v>216032.33896952364</v>
       </c>
       <c r="H2" s="4">
         <f t="shared" si="0"/>
-        <v>370341.15251918341</v>
+        <v>216032.33896952364</v>
       </c>
       <c r="I2" s="4">
         <f t="shared" si="0"/>
-        <v>370341.15251918341</v>
+        <v>216032.33896952364</v>
       </c>
       <c r="J2" s="4">
         <f t="shared" si="0"/>
-        <v>370341.15251918341</v>
+        <v>216032.33896952364</v>
       </c>
       <c r="K2" s="4">
         <f t="shared" si="0"/>
-        <v>370341.15251918341</v>
+        <v>216032.33896952364</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>370341.15251918341</v>
+        <v>216032.33896952364</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
-        <v>370341.15251918341</v>
+        <v>216032.33896952364</v>
       </c>
       <c r="N2" s="4">
         <f t="shared" si="0"/>
-        <v>370341.15251918341</v>
+        <v>216032.33896952364</v>
       </c>
       <c r="O2" s="4">
         <f t="shared" si="0"/>
-        <v>370341.15251918341</v>
+        <v>216032.33896952364</v>
       </c>
       <c r="P2" s="4">
         <f t="shared" si="0"/>
-        <v>370341.15251918341</v>
+        <v>216032.33896952364</v>
       </c>
       <c r="Q2" s="4">
         <f t="shared" si="0"/>
-        <v>370341.15251918341</v>
+        <v>216032.33896952364</v>
       </c>
       <c r="R2" s="4">
         <f t="shared" si="0"/>
-        <v>370341.15251918341</v>
+        <v>216032.33896952364</v>
       </c>
       <c r="S2" s="4">
         <f t="shared" ref="D2:AI6" si="1">$B2</f>
-        <v>370341.15251918341</v>
+        <v>216032.33896952364</v>
       </c>
       <c r="T2" s="4">
         <f t="shared" si="1"/>
-        <v>370341.15251918341</v>
+        <v>216032.33896952364</v>
       </c>
       <c r="U2" s="4">
         <f t="shared" si="1"/>
-        <v>370341.15251918341</v>
+        <v>216032.33896952364</v>
       </c>
       <c r="V2" s="4">
         <f t="shared" si="1"/>
-        <v>370341.15251918341</v>
+        <v>216032.33896952364</v>
       </c>
       <c r="W2" s="4">
         <f t="shared" si="1"/>
-        <v>370341.15251918341</v>
+        <v>216032.33896952364</v>
       </c>
       <c r="X2" s="4">
         <f t="shared" si="1"/>
-        <v>370341.15251918341</v>
+        <v>216032.33896952364</v>
       </c>
       <c r="Y2" s="4">
         <f t="shared" si="1"/>
-        <v>370341.15251918341</v>
+        <v>216032.33896952364</v>
       </c>
       <c r="Z2" s="4">
         <f t="shared" si="1"/>
-        <v>370341.15251918341</v>
+        <v>216032.33896952364</v>
       </c>
       <c r="AA2" s="4">
         <f t="shared" si="1"/>
-        <v>370341.15251918341</v>
+        <v>216032.33896952364</v>
       </c>
       <c r="AB2" s="4">
         <f t="shared" si="1"/>
-        <v>370341.15251918341</v>
+        <v>216032.33896952364</v>
       </c>
       <c r="AC2" s="4">
         <f t="shared" si="1"/>
-        <v>370341.15251918341</v>
+        <v>216032.33896952364</v>
       </c>
       <c r="AD2" s="4">
         <f t="shared" si="1"/>
-        <v>370341.15251918341</v>
+        <v>216032.33896952364</v>
       </c>
       <c r="AE2" s="4">
         <f t="shared" si="1"/>
-        <v>370341.15251918341</v>
+        <v>216032.33896952364</v>
       </c>
       <c r="AF2" s="4">
         <f t="shared" si="1"/>
-        <v>370341.15251918341</v>
+        <v>216032.33896952364</v>
       </c>
       <c r="AG2" s="4">
         <f t="shared" si="1"/>
-        <v>370341.15251918341</v>
+        <v>216032.33896952364</v>
       </c>
       <c r="AH2" s="4">
         <f t="shared" si="1"/>
-        <v>370341.15251918341</v>
+        <v>216032.33896952364</v>
       </c>
       <c r="AI2" s="4">
         <f t="shared" si="1"/>
-        <v>370341.15251918341</v>
+        <v>216032.33896952364</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.45">
@@ -10365,139 +10367,139 @@
       </c>
       <c r="B2" s="4">
         <f>B$5*('BNVP-HDVs-psgr'!B$2/'BNVP-HDVs-psgr'!B$5)</f>
-        <v>670805311.2605623</v>
+        <v>391303098.23532796</v>
       </c>
       <c r="C2" s="4">
         <f>B2</f>
-        <v>670805311.2605623</v>
+        <v>391303098.23532796</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:AI2" si="0">C2</f>
-        <v>670805311.2605623</v>
+        <v>391303098.23532796</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>670805311.2605623</v>
+        <v>391303098.23532796</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" si="0"/>
-        <v>670805311.2605623</v>
+        <v>391303098.23532796</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
-        <v>670805311.2605623</v>
+        <v>391303098.23532796</v>
       </c>
       <c r="H2" s="4">
         <f t="shared" si="0"/>
-        <v>670805311.2605623</v>
+        <v>391303098.23532796</v>
       </c>
       <c r="I2" s="4">
         <f t="shared" si="0"/>
-        <v>670805311.2605623</v>
+        <v>391303098.23532796</v>
       </c>
       <c r="J2" s="4">
         <f t="shared" si="0"/>
-        <v>670805311.2605623</v>
+        <v>391303098.23532796</v>
       </c>
       <c r="K2" s="4">
         <f t="shared" si="0"/>
-        <v>670805311.2605623</v>
+        <v>391303098.23532796</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>670805311.2605623</v>
+        <v>391303098.23532796</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
-        <v>670805311.2605623</v>
+        <v>391303098.23532796</v>
       </c>
       <c r="N2" s="4">
         <f t="shared" si="0"/>
-        <v>670805311.2605623</v>
+        <v>391303098.23532796</v>
       </c>
       <c r="O2" s="4">
         <f t="shared" si="0"/>
-        <v>670805311.2605623</v>
+        <v>391303098.23532796</v>
       </c>
       <c r="P2" s="4">
         <f t="shared" si="0"/>
-        <v>670805311.2605623</v>
+        <v>391303098.23532796</v>
       </c>
       <c r="Q2" s="4">
         <f t="shared" si="0"/>
-        <v>670805311.2605623</v>
+        <v>391303098.23532796</v>
       </c>
       <c r="R2" s="4">
         <f t="shared" si="0"/>
-        <v>670805311.2605623</v>
+        <v>391303098.23532796</v>
       </c>
       <c r="S2" s="4">
         <f t="shared" si="0"/>
-        <v>670805311.2605623</v>
+        <v>391303098.23532796</v>
       </c>
       <c r="T2" s="4">
         <f t="shared" si="0"/>
-        <v>670805311.2605623</v>
+        <v>391303098.23532796</v>
       </c>
       <c r="U2" s="4">
         <f t="shared" si="0"/>
-        <v>670805311.2605623</v>
+        <v>391303098.23532796</v>
       </c>
       <c r="V2" s="4">
         <f t="shared" si="0"/>
-        <v>670805311.2605623</v>
+        <v>391303098.23532796</v>
       </c>
       <c r="W2" s="4">
         <f t="shared" si="0"/>
-        <v>670805311.2605623</v>
+        <v>391303098.23532796</v>
       </c>
       <c r="X2" s="4">
         <f t="shared" si="0"/>
-        <v>670805311.2605623</v>
+        <v>391303098.23532796</v>
       </c>
       <c r="Y2" s="4">
         <f t="shared" si="0"/>
-        <v>670805311.2605623</v>
+        <v>391303098.23532796</v>
       </c>
       <c r="Z2" s="4">
         <f t="shared" si="0"/>
-        <v>670805311.2605623</v>
+        <v>391303098.23532796</v>
       </c>
       <c r="AA2" s="4">
         <f t="shared" si="0"/>
-        <v>670805311.2605623</v>
+        <v>391303098.23532796</v>
       </c>
       <c r="AB2" s="4">
         <f t="shared" si="0"/>
-        <v>670805311.2605623</v>
+        <v>391303098.23532796</v>
       </c>
       <c r="AC2" s="4">
         <f t="shared" si="0"/>
-        <v>670805311.2605623</v>
+        <v>391303098.23532796</v>
       </c>
       <c r="AD2" s="4">
         <f t="shared" si="0"/>
-        <v>670805311.2605623</v>
+        <v>391303098.23532796</v>
       </c>
       <c r="AE2" s="4">
         <f t="shared" si="0"/>
-        <v>670805311.2605623</v>
+        <v>391303098.23532796</v>
       </c>
       <c r="AF2" s="4">
         <f t="shared" si="0"/>
-        <v>670805311.2605623</v>
+        <v>391303098.23532796</v>
       </c>
       <c r="AG2" s="4">
         <f t="shared" si="0"/>
-        <v>670805311.2605623</v>
+        <v>391303098.23532796</v>
       </c>
       <c r="AH2" s="4">
         <f t="shared" si="0"/>
-        <v>670805311.2605623</v>
+        <v>391303098.23532796</v>
       </c>
       <c r="AI2" s="4">
         <f t="shared" si="0"/>
-        <v>670805311.2605623</v>
+        <v>391303098.23532796</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.45">
@@ -11992,139 +11994,139 @@
       </c>
       <c r="B2" s="4">
         <f>B$5*('BNVP-HDVs-psgr'!B$2/'BNVP-HDVs-psgr'!B$5)</f>
-        <v>903463016.72015822</v>
+        <v>527020093.08675891</v>
       </c>
       <c r="C2" s="4">
         <f>B2</f>
-        <v>903463016.72015822</v>
+        <v>527020093.08675891</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:AI2" si="0">C2</f>
-        <v>903463016.72015822</v>
+        <v>527020093.08675891</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
+        <v>527020093.08675891</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
+        <v>527020093.08675891</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
+        <v>527020093.08675891</v>
       </c>
       <c r="H2" s="4">
         <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
+        <v>527020093.08675891</v>
       </c>
       <c r="I2" s="4">
         <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
+        <v>527020093.08675891</v>
       </c>
       <c r="J2" s="4">
         <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
+        <v>527020093.08675891</v>
       </c>
       <c r="K2" s="4">
         <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
+        <v>527020093.08675891</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
+        <v>527020093.08675891</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
+        <v>527020093.08675891</v>
       </c>
       <c r="N2" s="4">
         <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
+        <v>527020093.08675891</v>
       </c>
       <c r="O2" s="4">
         <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
+        <v>527020093.08675891</v>
       </c>
       <c r="P2" s="4">
         <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
+        <v>527020093.08675891</v>
       </c>
       <c r="Q2" s="4">
         <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
+        <v>527020093.08675891</v>
       </c>
       <c r="R2" s="4">
         <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
+        <v>527020093.08675891</v>
       </c>
       <c r="S2" s="4">
         <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
+        <v>527020093.08675891</v>
       </c>
       <c r="T2" s="4">
         <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
+        <v>527020093.08675891</v>
       </c>
       <c r="U2" s="4">
         <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
+        <v>527020093.08675891</v>
       </c>
       <c r="V2" s="4">
         <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
+        <v>527020093.08675891</v>
       </c>
       <c r="W2" s="4">
         <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
+        <v>527020093.08675891</v>
       </c>
       <c r="X2" s="4">
         <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
+        <v>527020093.08675891</v>
       </c>
       <c r="Y2" s="4">
         <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
+        <v>527020093.08675891</v>
       </c>
       <c r="Z2" s="4">
         <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
+        <v>527020093.08675891</v>
       </c>
       <c r="AA2" s="4">
         <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
+        <v>527020093.08675891</v>
       </c>
       <c r="AB2" s="4">
         <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
+        <v>527020093.08675891</v>
       </c>
       <c r="AC2" s="4">
         <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
+        <v>527020093.08675891</v>
       </c>
       <c r="AD2" s="4">
         <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
+        <v>527020093.08675891</v>
       </c>
       <c r="AE2" s="4">
         <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
+        <v>527020093.08675891</v>
       </c>
       <c r="AF2" s="4">
         <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
+        <v>527020093.08675891</v>
       </c>
       <c r="AG2" s="4">
         <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
+        <v>527020093.08675891</v>
       </c>
       <c r="AH2" s="4">
         <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
+        <v>527020093.08675891</v>
       </c>
       <c r="AI2" s="4">
         <f t="shared" si="0"/>
-        <v>903463016.72015822</v>
+        <v>527020093.08675891</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.45">
@@ -19050,7 +19052,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B12" t="s">
         <v>109</v>
@@ -19062,18 +19064,18 @@
         <v>8.4499999999999993</v>
       </c>
       <c r="F12" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="G12" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H12" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B13" t="s">
         <v>109</v>
@@ -19085,12 +19087,12 @@
         <v>7.5</v>
       </c>
       <c r="F13" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B14" t="s">
         <v>109</v>
@@ -19102,13 +19104,13 @@
         <v>7.75</v>
       </c>
       <c r="F14" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G14" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="H14" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -19248,8 +19250,8 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19264,7 +19266,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B1" s="1"/>
       <c r="D1" s="28" t="s">
@@ -19279,7 +19281,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D2" s="29">
         <v>11.19</v>
@@ -19360,18 +19362,18 @@
         <v>209</v>
       </c>
       <c r="D8" s="29">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="E8" s="29">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
-        <v>210</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -19379,7 +19381,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>202</v>
@@ -19393,7 +19395,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D12" s="29">
         <v>32</v>
@@ -19407,7 +19409,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -19432,7 +19434,7 @@
         <v>0.28994999999999999</v>
       </c>
       <c r="C17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -19441,10 +19443,10 @@
       </c>
       <c r="B18" s="16">
         <f>AVERAGE(D8:E8)</f>
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="C18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
@@ -19456,7 +19458,7 @@
         <v>0.35499999999999998</v>
       </c>
       <c r="C19" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
@@ -19480,7 +19482,7 @@
       </c>
       <c r="B22" s="4">
         <f>B18/About!$C$129*About!A$113/About!A$110</f>
-        <v>370341.15251918341</v>
+        <v>216032.33896952364</v>
       </c>
       <c r="C22" t="s">
         <v>76</v>
@@ -19528,7 +19530,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
         <v>74</v>
@@ -19545,7 +19547,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
@@ -19614,7 +19616,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B7" t="s">
         <v>109</v>
@@ -19628,7 +19630,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="E7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
@@ -19801,7 +19803,7 @@
         <v>34999</v>
       </c>
       <c r="D2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -19816,7 +19818,7 @@
         <v>51750</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -19831,7 +19833,7 @@
         <v>39024</v>
       </c>
       <c r="D4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -19846,7 +19848,7 @@
         <v>47632</v>
       </c>
       <c r="D5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -19860,7 +19862,7 @@
         <v>79290</v>
       </c>
       <c r="D6" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -19885,7 +19887,7 @@
         <v>59816</v>
       </c>
       <c r="D9" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -19899,7 +19901,7 @@
         <v>70950</v>
       </c>
       <c r="D10" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -19914,7 +19916,7 @@
         <v>108000</v>
       </c>
       <c r="D11" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -19928,12 +19930,12 @@
         <v>90377</v>
       </c>
       <c r="D12" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B13">
         <v>146000</v>
@@ -19942,7 +19944,7 @@
         <v>160000</v>
       </c>
       <c r="D13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -19954,7 +19956,7 @@
         <v>47089</v>
       </c>
       <c r="C16" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -19965,7 +19967,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -19977,7 +19979,7 @@
         <v>95206.2</v>
       </c>
       <c r="C18" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
@@ -19988,7 +19990,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
@@ -19999,7 +20001,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -20157,7 +20159,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B6" t="s">
         <v>131</v>
@@ -20559,20 +20561,20 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="42" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D2" s="46">
         <v>2012</v>
@@ -20580,17 +20582,17 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="44" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B3" s="45"/>
       <c r="C3" s="45" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D3">
         <v>4782500000</v>
       </c>
       <c r="E3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -20604,7 +20606,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">

--- a/InputData/trans/BNVP/BAU New Vehicle Price.xlsx
+++ b/InputData/trans/BNVP/BAU New Vehicle Price.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\trans\BNVP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chrome Downloads\Internship\eps-india-3.1.3.4\InputData - Low GDP\trans\BNVP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645E29B3-AEF6-4552-8C71-51CACC6B9536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -45,12 +46,15 @@
     <definedName name="cpi_2014to2012">About!#REF!</definedName>
     <definedName name="cpi_2016to2012">About!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -982,14 +986,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0_);\(#,##0.0\);&quot;-&quot;;@"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0_);\(#,##0.0\);&quot;-&quot;;@"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1226,10 +1230,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1244,7 +1248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1260,7 +1264,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1271,7 +1275,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="9" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1322,22 +1326,22 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="Body: normal cell" xfId="4"/>
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Comma" xfId="11" builtinId="3"/>
     <cellStyle name="Currency" xfId="8" builtinId="4"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
-    <cellStyle name="Footnotes: top row" xfId="2"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="ofwhich" xfId="10"/>
-    <cellStyle name="Parent row" xfId="3"/>
-    <cellStyle name="Table title" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="ofwhich" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1369,7 +1373,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1526,6 +1536,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1561,6 +1588,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1736,25 +1780,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="56.265625" customWidth="1"/>
-    <col min="5" max="5" width="64.1328125" customWidth="1"/>
+    <col min="2" max="2" width="56.21875" customWidth="1"/>
+    <col min="5" max="5" width="64.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1765,7 +1809,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>77</v>
       </c>
@@ -1773,7 +1817,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="7">
         <v>2018</v>
       </c>
@@ -1781,7 +1825,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>104</v>
       </c>
@@ -1789,7 +1833,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
         <v>105</v>
       </c>
@@ -1797,7 +1841,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>106</v>
       </c>
@@ -1805,10 +1849,10 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
         <v>78</v>
       </c>
@@ -1816,7 +1860,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="20" t="s">
         <v>74</v>
       </c>
@@ -1824,7 +1868,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>212</v>
       </c>
@@ -1832,7 +1876,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="14">
         <v>2019</v>
       </c>
@@ -1840,7 +1884,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="18" t="s">
         <v>204</v>
       </c>
@@ -1848,7 +1892,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="27" t="s">
         <v>213</v>
       </c>
@@ -1856,11 +1900,11 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="31" t="s">
         <v>109</v>
       </c>
@@ -1868,7 +1912,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>303</v>
       </c>
@@ -1876,88 +1920,88 @@
         <v>287</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="19">
         <v>2019</v>
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>305</v>
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="27" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="27"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="31" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="19">
         <v>2018</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="27" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="27"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="19">
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="11" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="12"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
         <v>237</v>
       </c>
@@ -1965,7 +2009,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>27</v>
       </c>
@@ -1973,7 +2017,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="14">
         <v>2012</v>
       </c>
@@ -1981,7 +2025,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="12" t="s">
         <v>28</v>
       </c>
@@ -1989,7 +2033,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B40" s="30" t="s">
         <v>29</v>
       </c>
@@ -1997,46 +2041,46 @@
         <v>243</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="12"/>
       <c r="E41" s="12" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="13" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="14">
         <v>2015</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="12" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="12"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="2" t="s">
         <v>232</v>
       </c>
@@ -2044,7 +2088,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="6" t="s">
         <v>70</v>
       </c>
@@ -2052,12 +2096,12 @@
         <v>235</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="E51" s="14">
         <v>2016</v>
       </c>
     </row>
-    <row r="52" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B52" s="13" t="s">
         <v>119</v>
       </c>
@@ -2065,7 +2109,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
         <v>120</v>
       </c>
@@ -2073,245 +2117,245 @@
         <v>234</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="14">
         <v>2018</v>
       </c>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="12" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" s="30" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="5"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="2" t="s">
         <v>138</v>
       </c>
       <c r="E59" s="20"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="5" t="s">
         <v>139</v>
       </c>
       <c r="E60" s="32"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="7">
         <v>2018</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="25" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="5"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B65" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B66" s="7">
         <v>2017</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B67" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B68" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B69" s="5"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>163</v>
       </c>
       <c r="B105" s="15"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>54.77</v>
       </c>
@@ -2319,33 +2363,33 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>10000000</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>100000</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C118" s="11"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="21" t="s">
         <v>169</v>
       </c>
@@ -2356,7 +2400,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2010</v>
       </c>
@@ -2368,7 +2412,7 @@
         <v>0.84470208721577789</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2011</v>
       </c>
@@ -2380,7 +2424,7 @@
         <v>0.8995232526760818</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2012</v>
       </c>
@@ -2391,7 +2435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2013</v>
       </c>
@@ -2403,7 +2447,7 @@
         <v>1.0912999999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2014</v>
       </c>
@@ -2415,7 +2459,7 @@
         <v>1.1552501799999999</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2015</v>
       </c>
@@ -2427,7 +2471,7 @@
         <v>1.2282619913759998</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>2016</v>
       </c>
@@ -2439,7 +2483,7 @@
         <v>1.2556522337836846</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>2017</v>
       </c>
@@ -2451,7 +2495,7 @@
         <v>1.3058783231350322</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>2018</v>
       </c>
@@ -2463,7 +2507,7 @@
         <v>1.3743063472673078</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>2019</v>
       </c>
@@ -2477,11 +2521,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B33" r:id="rId2"/>
-    <hyperlink ref="B56" r:id="rId3"/>
-    <hyperlink ref="B40" r:id="rId4"/>
-    <hyperlink ref="B63" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B33" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B56" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B40" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B63" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -2489,23 +2533,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.3984375" customWidth="1"/>
-    <col min="2" max="2" width="52.265625" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="22.73046875" customWidth="1"/>
-    <col min="5" max="5" width="47.73046875" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="52.21875" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="5" max="5" width="47.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -2513,7 +2557,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -2521,7 +2565,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -2529,7 +2573,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -2537,42 +2581,42 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2580,7 +2624,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -2588,17 +2632,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E16" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -2606,12 +2650,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -2619,7 +2663,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -2627,22 +2671,22 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25" s="13" t="s">
         <v>48</v>
       </c>
@@ -2656,7 +2700,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>49</v>
       </c>
@@ -2670,7 +2714,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>51</v>
       </c>
@@ -2684,7 +2728,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>54</v>
       </c>
@@ -2698,7 +2742,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>61</v>
       </c>
@@ -2712,7 +2756,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>58</v>
       </c>
@@ -2726,7 +2770,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>59</v>
       </c>
@@ -2740,37 +2784,37 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>10000000</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>230</v>
       </c>
       <c r="B42" s="15"/>
       <c r="E42" s="20"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="31" t="s">
         <v>231</v>
       </c>
@@ -2782,7 +2826,7 @@
       </c>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45" s="29">
         <v>60</v>
       </c>
@@ -2794,7 +2838,7 @@
       </c>
       <c r="E45" s="20"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>228</v>
       </c>
@@ -2807,7 +2851,7 @@
       </c>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" s="26">
         <f>B46/About!$C$126*About!A$116/About!A$110</f>
         <v>189030.21913307568</v>
@@ -2817,23 +2861,23 @@
       </c>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E53" s="5"/>
     </row>
   </sheetData>
@@ -2843,27 +2887,27 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.3984375" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B1" s="15"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="47">
         <v>7.1</v>
       </c>
@@ -2873,7 +2917,7 @@
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>246</v>
       </c>
@@ -2887,7 +2931,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
         <v>250</v>
       </c>
@@ -2904,7 +2948,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="37"/>
       <c r="B5" s="38"/>
       <c r="C5" s="39" t="s">
@@ -2917,7 +2961,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C6" s="39" t="s">
         <v>251</v>
       </c>
@@ -2929,7 +2973,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C7" s="39" t="s">
         <v>252</v>
       </c>
@@ -2941,13 +2985,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>267</v>
       </c>
       <c r="B9" s="15"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="47">
         <v>5.0999999999999996</v>
       </c>
@@ -2957,7 +3001,7 @@
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="42" t="s">
         <v>246</v>
       </c>
@@ -2971,7 +3015,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
         <v>250</v>
       </c>
@@ -2986,7 +3030,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="41"/>
       <c r="C13" s="41" t="s">
@@ -2999,7 +3043,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C14" s="41" t="s">
         <v>251</v>
       </c>
@@ -3011,7 +3055,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C15" s="41" t="s">
         <v>252</v>
       </c>
@@ -3023,7 +3067,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>256</v>
       </c>
@@ -3034,21 +3078,21 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AI14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="35" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="35" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>2017</v>
       </c>
@@ -3152,7 +3196,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>276</v>
       </c>
@@ -3259,7 +3303,7 @@
         <v>44402.082836625734</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>277</v>
       </c>
@@ -3366,7 +3410,7 @@
         <v>54145.76341539924</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>278</v>
       </c>
@@ -3473,7 +3517,7 @@
         <v>619974.02208665863</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>279</v>
       </c>
@@ -3580,7 +3624,7 @@
         <v>112409.17682429397</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>280</v>
       </c>
@@ -3687,7 +3731,7 @@
         <v>79268161.644685864</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>281</v>
       </c>
@@ -3794,7 +3838,7 @@
         <v>79268161.644685864</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>282</v>
       </c>
@@ -3901,7 +3945,7 @@
         <v>3056612.9168902002</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>283</v>
       </c>
@@ -4008,7 +4052,7 @@
         <v>3056612.9168902002</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>284</v>
       </c>
@@ -4115,7 +4159,7 @@
         <v>36679.355002682401</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>285</v>
       </c>
@@ -4222,7 +4266,7 @@
         <v>12226451.667560801</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>290</v>
       </c>
@@ -4234,16 +4278,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AG8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>172</v>
       </c>
@@ -4344,7 +4388,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4445,7 +4489,7 @@
         <v>143258.50407011685</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4546,7 +4590,7 @@
         <v>126042.93986476603</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4647,7 +4691,7 @@
         <v>130581.18622854573</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4748,7 +4792,7 @@
         <v>130581.18622854573</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4849,7 +4893,7 @@
         <v>101472.37683032606</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>173</v>
       </c>
@@ -4950,7 +4994,7 @@
         <v>147816.39034830141</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>174</v>
       </c>
@@ -5057,16 +5101,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:AG8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>172</v>
       </c>
@@ -5167,7 +5211,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5268,7 +5312,7 @@
         <v>70403.380999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5369,7 +5413,7 @@
         <v>63270.377162437377</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5470,7 +5514,7 @@
         <v>60188.816657999996</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5571,7 +5615,7 @@
         <v>65548.462388</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5672,7 +5716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>173</v>
       </c>
@@ -5773,7 +5817,7 @@
         <v>74200.100205227456</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>174</v>
       </c>
@@ -5880,7 +5924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -5890,12 +5934,12 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -6002,7 +6046,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6143,7 +6187,7 @@
         <v>12097.810982293322</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6284,7 +6328,7 @@
         <v>7677.1720917226739</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -6425,7 +6469,7 @@
         <v>8414.1509852358431</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -6566,7 +6610,7 @@
         <v>11170.723630486968</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -6707,7 +6751,7 @@
         <v>85108.100260433552</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>173</v>
       </c>
@@ -6848,7 +6892,7 @@
         <v>4888.5032132532206</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>174</v>
       </c>
@@ -6995,7 +7039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -7005,12 +7049,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -7117,7 +7161,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7258,7 +7302,7 @@
         <v>9649.4444739720566</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7399,7 +7443,7 @@
         <v>8851.1535452084827</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -7540,7 +7584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -7681,7 +7725,7 @@
         <v>6889.8885249923069</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -7822,7 +7866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>173</v>
       </c>
@@ -7929,7 +7973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>174</v>
       </c>
@@ -8076,7 +8120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -8086,12 +8130,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -8198,7 +8242,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8339,7 +8383,7 @@
         <v>216032.33896952364</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8480,7 +8524,7 @@
         <v>47163.069220368845</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -8620,7 +8664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -8761,7 +8805,7 @@
         <v>35793.47239097907</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -8901,7 +8945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>173</v>
       </c>
@@ -9008,7 +9052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>174</v>
       </c>
@@ -9155,7 +9199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -9165,12 +9209,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -9277,7 +9321,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -9418,7 +9462,7 @@
         <v>82298.033893151864</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -9559,7 +9603,7 @@
         <v>17398.987737414427</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -9700,7 +9744,7 @@
         <v>18344.231754783552</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -9841,7 +9885,7 @@
         <v>18344.231754783552</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -9982,7 +10026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>173</v>
       </c>
@@ -10089,7 +10133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>174</v>
       </c>
@@ -10236,7 +10280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -10246,15 +10290,15 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="35" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -10361,7 +10405,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -10502,7 +10546,7 @@
         <v>391303098.23532796</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -10609,7 +10653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -10716,7 +10760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -10857,7 +10901,7 @@
         <v>64833333.333333336</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -10964,7 +11008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>173</v>
       </c>
@@ -11104,7 +11148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>174</v>
       </c>
@@ -11251,23 +11295,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="3" max="3" width="11.1328125" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
@@ -11278,7 +11322,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -11292,7 +11336,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -11306,7 +11350,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -11320,7 +11364,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -11334,7 +11378,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -11348,11 +11392,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -11363,7 +11407,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -11377,7 +11421,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -11391,7 +11435,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -11405,7 +11449,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>90</v>
       </c>
@@ -11419,7 +11463,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -11433,18 +11477,18 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -11458,7 +11502,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>93</v>
       </c>
@@ -11472,7 +11516,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>91</v>
       </c>
@@ -11486,7 +11530,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>90</v>
       </c>
@@ -11500,7 +11544,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>175</v>
       </c>
@@ -11514,11 +11558,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>83</v>
       </c>
@@ -11529,7 +11573,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -11543,7 +11587,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>85</v>
       </c>
@@ -11557,11 +11601,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>94</v>
       </c>
@@ -11572,7 +11616,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>95</v>
       </c>
@@ -11586,7 +11630,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>96</v>
       </c>
@@ -11600,7 +11644,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -11614,7 +11658,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>98</v>
       </c>
@@ -11628,7 +11672,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>99</v>
       </c>
@@ -11642,7 +11686,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>177</v>
       </c>
@@ -11656,7 +11700,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>178</v>
       </c>
@@ -11673,7 +11717,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>192</v>
       </c>
@@ -11690,7 +11734,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" s="21">
         <v>4.1500000000000004</v>
       </c>
@@ -11704,13 +11748,13 @@
         <v>189</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B38" s="15"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -11722,7 +11766,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -11734,7 +11778,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -11746,7 +11790,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -11758,7 +11802,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -11770,7 +11814,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>173</v>
       </c>
@@ -11782,7 +11826,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -11794,7 +11838,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -11806,7 +11850,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -11818,7 +11862,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -11830,7 +11874,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -11842,7 +11886,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>173</v>
       </c>
@@ -11856,14 +11900,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E34" r:id="rId1"/>
+    <hyperlink ref="E34" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -11873,15 +11917,15 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="35" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -11988,7 +12032,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -12129,7 +12173,7 @@
         <v>527020093.08675891</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -12236,7 +12280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -12343,7 +12387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -12484,7 +12528,7 @@
         <v>87319700.566003278</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -12591,7 +12635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>173</v>
       </c>
@@ -12731,7 +12775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>174</v>
       </c>
@@ -12878,7 +12922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -12888,13 +12932,13 @@
       <selection activeCell="B8" sqref="B8:AI8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -13001,7 +13045,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -13142,7 +13186,7 @@
         <v>9830199.0140587911</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -13249,7 +13293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -13356,7 +13400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -13497,7 +13541,7 @@
         <v>9282453.8981194086</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -13604,7 +13648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>173</v>
       </c>
@@ -13744,7 +13788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>174</v>
       </c>
@@ -13891,7 +13935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -13901,13 +13945,13 @@
       <selection activeCell="B1" sqref="B1:AI1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -14014,7 +14058,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -14155,7 +14199,7 @@
         <v>5696549.2057695817</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -14262,7 +14306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -14369,7 +14413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -14510,7 +14554,7 @@
         <v>5203578.6014241371</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -14617,7 +14661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>173</v>
       </c>
@@ -14757,7 +14801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>174</v>
       </c>
@@ -14904,7 +14948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -14914,13 +14958,13 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
-    <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -15027,7 +15071,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -15134,7 +15178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -15241,7 +15285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -15348,7 +15392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -15489,7 +15533,7 @@
         <v>189030.21913307568</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -15596,7 +15640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>173</v>
       </c>
@@ -15736,7 +15780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>174</v>
       </c>
@@ -15883,7 +15927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -15893,12 +15937,12 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -16005,7 +16049,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -16112,7 +16156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -16219,7 +16263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -16326,7 +16370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -16467,7 +16511,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -16574,7 +16618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>173</v>
       </c>
@@ -16714,7 +16758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>174</v>
       </c>
@@ -16861,7 +16905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -16871,12 +16915,12 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -16983,7 +17027,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -17124,7 +17168,7 @@
         <v>581.29981769919425</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -17231,7 +17275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -17372,7 +17416,7 @@
         <v>1175.292461165729</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -17479,7 +17523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -17586,7 +17630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>173</v>
       </c>
@@ -17693,7 +17737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>174</v>
       </c>
@@ -17806,7 +17850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -17816,12 +17860,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -17928,7 +17972,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -18069,7 +18113,7 @@
         <v>2468.9410167945562</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -18210,7 +18254,7 @@
         <v>2592.3880676342837</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -18351,7 +18395,7 @@
         <v>2376.3557286647601</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -18492,7 +18536,7 @@
         <v>2043.0486913974946</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -18633,7 +18677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>173</v>
       </c>
@@ -18774,7 +18818,7 @@
         <v>2623.2498303442158</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>174</v>
       </c>
@@ -18887,7 +18931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
@@ -18897,13 +18941,13 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.59765625" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>149</v>
       </c>
@@ -18914,7 +18958,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -18931,7 +18975,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -18948,7 +18992,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>147</v>
       </c>
@@ -18965,7 +19009,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>148</v>
       </c>
@@ -18982,7 +19026,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>200</v>
       </c>
@@ -18999,7 +19043,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>158</v>
       </c>
@@ -19016,7 +19060,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>201</v>
       </c>
@@ -19033,7 +19077,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>159</v>
       </c>
@@ -19050,7 +19094,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>292</v>
       </c>
@@ -19073,7 +19117,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>293</v>
       </c>
@@ -19090,7 +19134,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>301</v>
       </c>
@@ -19113,14 +19157,14 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -19132,7 +19176,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -19144,7 +19188,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -19155,7 +19199,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -19167,7 +19211,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -19178,7 +19222,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -19190,7 +19234,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -19202,7 +19246,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -19214,7 +19258,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -19226,7 +19270,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -19244,7 +19288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
@@ -19254,17 +19298,17 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.73046875" customWidth="1"/>
-    <col min="2" max="2" width="11.73046875" customWidth="1"/>
-    <col min="3" max="3" width="10.73046875" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="12.265625" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>214</v>
       </c>
@@ -19279,7 +19323,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>269</v>
       </c>
@@ -19294,7 +19338,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>205</v>
       </c>
@@ -19308,7 +19352,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>207</v>
       </c>
@@ -19322,7 +19366,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>206</v>
       </c>
@@ -19337,11 +19381,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>208</v>
       </c>
@@ -19357,7 +19401,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>209</v>
       </c>
@@ -19371,15 +19415,15 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>215</v>
       </c>
@@ -19393,7 +19437,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>216</v>
       </c>
@@ -19407,25 +19451,25 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -19437,7 +19481,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>109</v>
       </c>
@@ -19449,7 +19493,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>128</v>
       </c>
@@ -19461,10 +19505,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B20" s="16"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -19476,7 +19520,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>109</v>
       </c>
@@ -19488,7 +19532,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>128</v>
       </c>
@@ -19506,7 +19550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
@@ -19516,19 +19560,19 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
-    <col min="3" max="3" width="10.73046875" customWidth="1"/>
-    <col min="8" max="8" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>222</v>
       </c>
@@ -19545,7 +19589,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>223</v>
       </c>
@@ -19562,7 +19606,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>151</v>
       </c>
@@ -19579,7 +19623,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>152</v>
       </c>
@@ -19597,7 +19641,7 @@
       </c>
       <c r="H5" s="48"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>153</v>
       </c>
@@ -19614,7 +19658,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>291</v>
       </c>
@@ -19633,14 +19677,14 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -19652,7 +19696,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -19663,7 +19707,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -19674,7 +19718,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -19686,7 +19730,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -19697,7 +19741,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -19709,7 +19753,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -19721,7 +19765,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -19733,7 +19777,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -19745,7 +19789,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -19763,7 +19807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
@@ -19773,14 +19817,14 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.3984375" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="13.86328125" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
@@ -19791,7 +19835,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -19806,7 +19850,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -19821,7 +19865,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -19836,7 +19880,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -19851,7 +19895,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>114</v>
       </c>
@@ -19865,7 +19909,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -19876,7 +19920,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>117</v>
       </c>
@@ -19890,7 +19934,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>118</v>
       </c>
@@ -19904,7 +19948,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>115</v>
       </c>
@@ -19919,7 +19963,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -19933,7 +19977,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>226</v>
       </c>
@@ -19947,7 +19991,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -19959,7 +20003,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -19970,7 +20014,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -19982,7 +20026,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -19993,7 +20037,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -20004,7 +20048,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -20016,7 +20060,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -20028,7 +20072,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -20040,7 +20084,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -20052,7 +20096,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -20070,7 +20114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
@@ -20080,14 +20124,14 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.73046875" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" customWidth="1"/>
+    <col min="1" max="1" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -20101,7 +20145,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>124</v>
       </c>
@@ -20115,7 +20159,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -20129,7 +20173,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -20143,7 +20187,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -20157,7 +20201,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>227</v>
       </c>
@@ -20171,7 +20215,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>132</v>
       </c>
@@ -20185,7 +20229,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>133</v>
       </c>
@@ -20199,7 +20243,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -20213,7 +20257,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -20227,7 +20271,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>137</v>
       </c>
@@ -20241,7 +20285,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>142</v>
       </c>
@@ -20255,7 +20299,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>143</v>
       </c>
@@ -20269,7 +20313,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -20281,7 +20325,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -20293,7 +20337,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -20305,7 +20349,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -20317,7 +20361,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -20328,7 +20372,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>173</v>
       </c>
@@ -20340,7 +20384,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -20352,7 +20396,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -20364,7 +20408,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -20376,7 +20420,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -20388,7 +20432,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -20400,7 +20444,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>173</v>
       </c>
@@ -20419,31 +20463,31 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
-    <col min="2" max="2" width="20.59765625" customWidth="1"/>
-    <col min="3" max="3" width="21.59765625" customWidth="1"/>
+    <col min="1" max="1" width="31.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -20454,7 +20498,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -20465,7 +20509,7 @@
         <v>41000000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -20476,7 +20520,7 @@
         <v>45000000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -20487,7 +20531,7 @@
         <v>149000000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -20498,7 +20542,7 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -20509,7 +20553,7 @@
         <v>40000000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -20520,17 +20564,17 @@
         <v>84000000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -20541,22 +20585,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="17.86328125" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>5.0999999999999996</v>
       </c>
@@ -20566,7 +20610,7 @@
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>246</v>
       </c>
@@ -20580,7 +20624,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="44" t="s">
         <v>255</v>
       </c>
@@ -20595,7 +20639,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D4">
         <f>D3/About!A110</f>
         <v>87319700.566003278</v>
@@ -20604,12 +20648,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
     </row>
   </sheetData>

--- a/InputData/trans/BNVP/BAU New Vehicle Price.xlsx
+++ b/InputData/trans/BNVP/BAU New Vehicle Price.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Chrome Downloads\Internship\eps-india-3.1.3.4\InputData - Low GDP\trans\BNVP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-india\InputData\trans\BNVP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645E29B3-AEF6-4552-8C71-51CACC6B9536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816FEB16-D2D1-4DB9-8944-5F039502A9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -988,12 +988,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0_);\(#,##0.0\);&quot;-&quot;;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0_);\(#,##0.0\);&quot;-&quot;;@"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1230,10 +1230,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1248,7 +1248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1264,7 +1264,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1275,7 +1275,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="9" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1326,7 +1326,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="12">
@@ -1783,22 +1783,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E129"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="56.21875" customWidth="1"/>
-    <col min="5" max="5" width="64.109375" customWidth="1"/>
+    <col min="2" max="2" width="56.28515625" customWidth="1"/>
+    <col min="5" max="5" width="64.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>77</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>2018</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>104</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="25" t="s">
         <v>105</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>106</v>
       </c>
@@ -1849,10 +1849,10 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>78</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="20" t="s">
         <v>74</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>212</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <v>2019</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
         <v>204</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="27" t="s">
         <v>213</v>
       </c>
@@ -1900,11 +1900,11 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="31" t="s">
         <v>109</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>303</v>
       </c>
@@ -1920,88 +1920,88 @@
         <v>287</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="19">
         <v>2019</v>
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>305</v>
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="27" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="27"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="31" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="19">
         <v>2018</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="27" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="27"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="19">
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="12"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="13" t="s">
         <v>237</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>27</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="14">
         <v>2012</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>28</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="30" t="s">
         <v>29</v>
       </c>
@@ -2041,46 +2041,46 @@
         <v>243</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="12"/>
       <c r="E41" s="12" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="13" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="14">
         <v>2015</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="12"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>232</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
         <v>70</v>
       </c>
@@ -2096,12 +2096,12 @@
         <v>235</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E51" s="14">
         <v>2016</v>
       </c>
     </row>
-    <row r="52" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" s="13" t="s">
         <v>119</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
         <v>120</v>
       </c>
@@ -2117,245 +2117,245 @@
         <v>234</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="14">
         <v>2018</v>
       </c>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="30" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="5"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>138</v>
       </c>
       <c r="E59" s="20"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
         <v>139</v>
       </c>
       <c r="E60" s="32"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="7">
         <v>2018</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="25" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="5"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66" s="7">
         <v>2017</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B69" s="5"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>163</v>
       </c>
       <c r="B105" s="15"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>54.77</v>
       </c>
@@ -2363,33 +2363,33 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>10000000</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>100000</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C118" s="11"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="21" t="s">
         <v>169</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2010</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>0.84470208721577789</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2011</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>0.8995232526760818</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2012</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2013</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>1.0912999999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2014</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>1.1552501799999999</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2015</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>1.2282619913759998</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2016</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>1.2556522337836846</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2017</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>1.3058783231350322</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2018</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>1.3743063472673078</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2019</v>
       </c>
@@ -2540,16 +2540,16 @@
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="52.21875" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
-    <col min="5" max="5" width="47.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="47.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -2581,42 +2581,42 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -2632,17 +2632,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E16" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -2650,12 +2650,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -2671,22 +2671,22 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
         <v>48</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>49</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>51</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>54</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>61</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>58</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>59</v>
       </c>
@@ -2784,37 +2784,37 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>10000000</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>230</v>
       </c>
       <c r="B42" s="15"/>
       <c r="E42" s="20"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
         <v>231</v>
       </c>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" s="29">
         <v>60</v>
       </c>
@@ -2838,7 +2838,7 @@
       </c>
       <c r="E45" s="20"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>228</v>
       </c>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" s="26">
         <f>B46/About!$C$126*About!A$116/About!A$110</f>
         <v>189030.21913307568</v>
@@ -2861,23 +2861,23 @@
       </c>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E53" s="5"/>
     </row>
   </sheetData>
@@ -2894,20 +2894,20 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B1" s="15"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="47">
         <v>7.1</v>
       </c>
@@ -2917,7 +2917,7 @@
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>246</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
         <v>250</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="38"/>
       <c r="C5" s="39" t="s">
@@ -2961,7 +2961,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="39" t="s">
         <v>251</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="39" t="s">
         <v>252</v>
       </c>
@@ -2985,13 +2985,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>267</v>
       </c>
       <c r="B9" s="15"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="47">
         <v>5.0999999999999996</v>
       </c>
@@ -3001,7 +3001,7 @@
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
         <v>246</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>250</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="41"/>
       <c r="C13" s="41" t="s">
@@ -3043,7 +3043,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" s="41" t="s">
         <v>251</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="41" t="s">
         <v>252</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>256</v>
       </c>
@@ -3085,14 +3085,14 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="35" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="35" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>2017</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>276</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>44402.082836625734</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>277</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>54145.76341539924</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>278</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>619974.02208665863</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>279</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>112409.17682429397</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>280</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>79268161.644685864</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>281</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>79268161.644685864</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>282</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>3056612.9168902002</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>283</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>3056612.9168902002</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>284</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>36679.355002682401</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>285</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>12226451.667560801</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>290</v>
       </c>
@@ -4285,9 +4285,9 @@
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>172</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4489,7 +4489,7 @@
         <v>143258.50407011685</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>126042.93986476603</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>130581.18622854573</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>130581.18622854573</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>101472.37683032606</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>173</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>147816.39034830141</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>174</v>
       </c>
@@ -5108,9 +5108,9 @@
       <selection sqref="A1:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>172</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>70403.380999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>63270.377162437377</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>60188.816657999996</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>65548.462388</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>173</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>74200.100205227456</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>174</v>
       </c>
@@ -5931,15 +5931,15 @@
   <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>12097.810982293322</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>7677.1720917226739</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -6469,7 +6469,7 @@
         <v>8414.1509852358431</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -6610,7 +6610,7 @@
         <v>11170.723630486968</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>85108.100260433552</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>173</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>4888.5032132532206</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>174</v>
       </c>
@@ -7049,12 +7049,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>9649.4444739720566</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>8851.1535452084827</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -7584,7 +7584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -7725,7 +7725,7 @@
         <v>6889.8885249923069</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -7866,7 +7866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>173</v>
       </c>
@@ -7973,7 +7973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>174</v>
       </c>
@@ -8130,12 +8130,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -8242,7 +8242,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>216032.33896952364</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>47163.069220368845</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -8664,7 +8664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>35793.47239097907</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>173</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>174</v>
       </c>
@@ -9209,12 +9209,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -9321,7 +9321,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -9462,7 +9462,7 @@
         <v>82298.033893151864</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -9603,7 +9603,7 @@
         <v>17398.987737414427</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -9744,7 +9744,7 @@
         <v>18344.231754783552</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -9885,7 +9885,7 @@
         <v>18344.231754783552</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -10026,7 +10026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>173</v>
       </c>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>174</v>
       </c>
@@ -10290,15 +10290,15 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="35" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -10405,7 +10405,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -10546,7 +10546,7 @@
         <v>391303098.23532796</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -10653,7 +10653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -10760,7 +10760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -10901,7 +10901,7 @@
         <v>64833333.333333336</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -11008,7 +11008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>173</v>
       </c>
@@ -11148,7 +11148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>174</v>
       </c>
@@ -11305,13 +11305,13 @@
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
@@ -11322,7 +11322,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -11336,7 +11336,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -11350,7 +11350,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -11378,7 +11378,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -11392,11 +11392,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -11421,7 +11421,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -11435,7 +11435,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>90</v>
       </c>
@@ -11463,7 +11463,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -11477,18 +11477,18 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -11502,7 +11502,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>93</v>
       </c>
@@ -11516,7 +11516,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>91</v>
       </c>
@@ -11530,7 +11530,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>90</v>
       </c>
@@ -11544,7 +11544,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>175</v>
       </c>
@@ -11558,11 +11558,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>83</v>
       </c>
@@ -11573,7 +11573,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -11587,7 +11587,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>85</v>
       </c>
@@ -11601,11 +11601,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>94</v>
       </c>
@@ -11616,7 +11616,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>95</v>
       </c>
@@ -11630,7 +11630,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>96</v>
       </c>
@@ -11644,7 +11644,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -11658,7 +11658,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>98</v>
       </c>
@@ -11672,7 +11672,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>99</v>
       </c>
@@ -11686,7 +11686,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>177</v>
       </c>
@@ -11700,7 +11700,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>178</v>
       </c>
@@ -11717,7 +11717,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>192</v>
       </c>
@@ -11734,7 +11734,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" s="21">
         <v>4.1500000000000004</v>
       </c>
@@ -11748,13 +11748,13 @@
         <v>189</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B38" s="15"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -11766,7 +11766,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -11778,7 +11778,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -11790,7 +11790,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -11814,7 +11814,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>173</v>
       </c>
@@ -11826,7 +11826,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -11838,7 +11838,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -11850,7 +11850,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -11862,7 +11862,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -11874,7 +11874,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -11886,7 +11886,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>173</v>
       </c>
@@ -11917,15 +11917,15 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="35" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -12032,7 +12032,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -12173,7 +12173,7 @@
         <v>527020093.08675891</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -12280,7 +12280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -12387,7 +12387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -12528,7 +12528,7 @@
         <v>87319700.566003278</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -12635,7 +12635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>173</v>
       </c>
@@ -12775,7 +12775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>174</v>
       </c>
@@ -12932,13 +12932,13 @@
       <selection activeCell="B8" sqref="B8:AI8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -13045,7 +13045,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -13186,7 +13186,7 @@
         <v>9830199.0140587911</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -13293,7 +13293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -13400,7 +13400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -13541,7 +13541,7 @@
         <v>9282453.8981194086</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -13648,7 +13648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>173</v>
       </c>
@@ -13788,7 +13788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>174</v>
       </c>
@@ -13945,13 +13945,13 @@
       <selection activeCell="B1" sqref="B1:AI1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -14058,7 +14058,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -14199,7 +14199,7 @@
         <v>5696549.2057695817</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -14306,7 +14306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -14413,7 +14413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -14554,7 +14554,7 @@
         <v>5203578.6014241371</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -14661,7 +14661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>173</v>
       </c>
@@ -14801,7 +14801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>174</v>
       </c>
@@ -14954,17 +14954,17 @@
   </sheetPr>
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AI8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -15071,854 +15071,991 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B2" s="4">
+        <f>'BNVP-LDVs-psgr'!B2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="C2" s="4">
+        <f>'BNVP-LDVs-psgr'!C2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="D2" s="4">
+        <f>'BNVP-LDVs-psgr'!D2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="E2" s="4">
+        <f>'BNVP-LDVs-psgr'!E2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="F2" s="4">
+        <f>'BNVP-LDVs-psgr'!F2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="G2" s="4">
+        <f>'BNVP-LDVs-psgr'!G2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="H2" s="4">
+        <f>'BNVP-LDVs-psgr'!H2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="I2" s="4">
+        <f>'BNVP-LDVs-psgr'!I2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="J2" s="4">
+        <f>'BNVP-LDVs-psgr'!J2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="K2" s="4">
+        <f>'BNVP-LDVs-psgr'!K2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="L2" s="4">
+        <f>'BNVP-LDVs-psgr'!L2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="M2" s="4">
+        <f>'BNVP-LDVs-psgr'!M2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="N2" s="4">
+        <f>'BNVP-LDVs-psgr'!N2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="O2" s="4">
+        <f>'BNVP-LDVs-psgr'!O2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="P2" s="4">
+        <f>'BNVP-LDVs-psgr'!P2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>'BNVP-LDVs-psgr'!Q2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="R2" s="4">
+        <f>'BNVP-LDVs-psgr'!R2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="S2" s="4">
+        <f>'BNVP-LDVs-psgr'!S2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="T2" s="4">
+        <f>'BNVP-LDVs-psgr'!T2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="U2" s="4">
+        <f>'BNVP-LDVs-psgr'!U2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="V2" s="4">
+        <f>'BNVP-LDVs-psgr'!V2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="W2" s="4">
+        <f>'BNVP-LDVs-psgr'!W2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="X2" s="4">
+        <f>'BNVP-LDVs-psgr'!X2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="Y2" s="4">
+        <f>'BNVP-LDVs-psgr'!Y2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="Z2" s="4">
+        <f>'BNVP-LDVs-psgr'!Z2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="AA2" s="4">
+        <f>'BNVP-LDVs-psgr'!AA2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="AB2" s="4">
+        <f>'BNVP-LDVs-psgr'!AB2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="AC2" s="4">
+        <f>'BNVP-LDVs-psgr'!AC2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="AD2" s="4">
+        <f>'BNVP-LDVs-psgr'!AD2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="AE2" s="4">
+        <f>'BNVP-LDVs-psgr'!AE2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="AF2" s="4">
+        <f>'BNVP-LDVs-psgr'!AF2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="AG2" s="4">
+        <f>'BNVP-LDVs-psgr'!AG2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="AH2" s="4">
+        <f>'BNVP-LDVs-psgr'!AH2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="AI2" s="4">
+        <f>'BNVP-LDVs-psgr'!AI2</f>
+        <v>12097.810982293322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B3" s="4">
+        <f>'BNVP-LDVs-psgr'!B3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="C3" s="4">
+        <f>'BNVP-LDVs-psgr'!C3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="D3" s="4">
+        <f>'BNVP-LDVs-psgr'!D3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="E3" s="4">
+        <f>'BNVP-LDVs-psgr'!E3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="F3" s="4">
+        <f>'BNVP-LDVs-psgr'!F3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="G3" s="4">
+        <f>'BNVP-LDVs-psgr'!G3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="H3" s="4">
+        <f>'BNVP-LDVs-psgr'!H3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="I3" s="4">
+        <f>'BNVP-LDVs-psgr'!I3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="J3" s="4">
+        <f>'BNVP-LDVs-psgr'!J3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="K3" s="4">
+        <f>'BNVP-LDVs-psgr'!K3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="L3" s="4">
+        <f>'BNVP-LDVs-psgr'!L3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="M3" s="4">
+        <f>'BNVP-LDVs-psgr'!M3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="N3" s="4">
+        <f>'BNVP-LDVs-psgr'!N3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="O3" s="4">
+        <f>'BNVP-LDVs-psgr'!O3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="P3" s="4">
+        <f>'BNVP-LDVs-psgr'!P3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>'BNVP-LDVs-psgr'!Q3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="R3" s="4">
+        <f>'BNVP-LDVs-psgr'!R3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="S3" s="4">
+        <f>'BNVP-LDVs-psgr'!S3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="T3" s="4">
+        <f>'BNVP-LDVs-psgr'!T3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="U3" s="4">
+        <f>'BNVP-LDVs-psgr'!U3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="V3" s="4">
+        <f>'BNVP-LDVs-psgr'!V3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="W3" s="4">
+        <f>'BNVP-LDVs-psgr'!W3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="X3" s="4">
+        <f>'BNVP-LDVs-psgr'!X3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="Y3" s="4">
+        <f>'BNVP-LDVs-psgr'!Y3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="Z3" s="4">
+        <f>'BNVP-LDVs-psgr'!Z3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="AA3" s="4">
+        <f>'BNVP-LDVs-psgr'!AA3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="AB3" s="4">
+        <f>'BNVP-LDVs-psgr'!AB3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="AC3" s="4">
+        <f>'BNVP-LDVs-psgr'!AC3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="AD3" s="4">
+        <f>'BNVP-LDVs-psgr'!AD3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="AE3" s="4">
+        <f>'BNVP-LDVs-psgr'!AE3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="AF3" s="4">
+        <f>'BNVP-LDVs-psgr'!AF3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="AG3" s="4">
+        <f>'BNVP-LDVs-psgr'!AG3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="AH3" s="4">
+        <f>'BNVP-LDVs-psgr'!AH3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="AI3" s="4">
+        <f>'BNVP-LDVs-psgr'!AI3</f>
+        <v>7677.1720917226739</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
+        <f>'BNVP-LDVs-psgr'!B4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="C4" s="4">
+        <f>'BNVP-LDVs-psgr'!C4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="D4" s="4">
+        <f>'BNVP-LDVs-psgr'!D4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="E4" s="4">
+        <f>'BNVP-LDVs-psgr'!E4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="F4" s="4">
+        <f>'BNVP-LDVs-psgr'!F4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="G4" s="4">
+        <f>'BNVP-LDVs-psgr'!G4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="H4" s="4">
+        <f>'BNVP-LDVs-psgr'!H4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="I4" s="4">
+        <f>'BNVP-LDVs-psgr'!I4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="J4" s="4">
+        <f>'BNVP-LDVs-psgr'!J4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="K4" s="4">
+        <f>'BNVP-LDVs-psgr'!K4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="L4" s="4">
+        <f>'BNVP-LDVs-psgr'!L4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="M4" s="4">
+        <f>'BNVP-LDVs-psgr'!M4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="N4" s="4">
+        <f>'BNVP-LDVs-psgr'!N4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="O4" s="4">
+        <f>'BNVP-LDVs-psgr'!O4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="P4" s="4">
+        <f>'BNVP-LDVs-psgr'!P4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>'BNVP-LDVs-psgr'!Q4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="R4" s="4">
+        <f>'BNVP-LDVs-psgr'!R4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="S4" s="4">
+        <f>'BNVP-LDVs-psgr'!S4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="T4" s="4">
+        <f>'BNVP-LDVs-psgr'!T4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="U4" s="4">
+        <f>'BNVP-LDVs-psgr'!U4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="V4" s="4">
+        <f>'BNVP-LDVs-psgr'!V4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="W4" s="4">
+        <f>'BNVP-LDVs-psgr'!W4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="X4" s="4">
+        <f>'BNVP-LDVs-psgr'!X4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="Y4" s="4">
+        <f>'BNVP-LDVs-psgr'!Y4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="Z4" s="4">
+        <f>'BNVP-LDVs-psgr'!Z4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="AA4" s="4">
+        <f>'BNVP-LDVs-psgr'!AA4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="AB4" s="4">
+        <f>'BNVP-LDVs-psgr'!AB4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="AC4" s="4">
+        <f>'BNVP-LDVs-psgr'!AC4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="AD4" s="4">
+        <f>'BNVP-LDVs-psgr'!AD4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="AE4" s="4">
+        <f>'BNVP-LDVs-psgr'!AE4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="AF4" s="4">
+        <f>'BNVP-LDVs-psgr'!AF4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="AG4" s="4">
+        <f>'BNVP-LDVs-psgr'!AG4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="AH4" s="4">
+        <f>'BNVP-LDVs-psgr'!AH4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="AI4" s="4">
+        <f>'BNVP-LDVs-psgr'!AI4</f>
+        <v>8414.1509852358431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <f>Ships!B47</f>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!B5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="C5" s="4">
-        <f>B5</f>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!C5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" ref="D5:AI5" si="0">C5</f>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!D5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!E5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!F5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!G5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!H5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!I5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!J5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="K5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!K5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="L5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!L5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="M5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!M5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="N5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!N5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="O5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!O5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!P5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="Q5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!Q5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="R5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!R5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="S5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!S5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="T5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!T5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="U5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!U5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="V5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!V5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="W5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!W5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="X5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!X5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="Y5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!Y5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="Z5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!Z5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="AA5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!AA5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="AB5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!AB5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="AC5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!AC5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="AD5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!AD5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="AE5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!AE5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="AF5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!AF5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="AG5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!AG5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="AH5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!AH5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="AI5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+        <f>'BNVP-LDVs-psgr'!AI5</f>
+        <v>11170.723630486968</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <f>'BNVP-LDVs-psgr'!B6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="C6" s="4">
+        <f>'BNVP-LDVs-psgr'!C6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="D6" s="4">
+        <f>'BNVP-LDVs-psgr'!D6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="E6" s="4">
+        <f>'BNVP-LDVs-psgr'!E6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="F6" s="4">
+        <f>'BNVP-LDVs-psgr'!F6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="G6" s="4">
+        <f>'BNVP-LDVs-psgr'!G6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="H6" s="4">
+        <f>'BNVP-LDVs-psgr'!H6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="I6" s="4">
+        <f>'BNVP-LDVs-psgr'!I6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="J6" s="4">
+        <f>'BNVP-LDVs-psgr'!J6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="K6" s="4">
+        <f>'BNVP-LDVs-psgr'!K6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="L6" s="4">
+        <f>'BNVP-LDVs-psgr'!L6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="M6" s="4">
+        <f>'BNVP-LDVs-psgr'!M6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="N6" s="4">
+        <f>'BNVP-LDVs-psgr'!N6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="O6" s="4">
+        <f>'BNVP-LDVs-psgr'!O6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="P6" s="4">
+        <f>'BNVP-LDVs-psgr'!P6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>'BNVP-LDVs-psgr'!Q6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="R6" s="4">
+        <f>'BNVP-LDVs-psgr'!R6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="S6" s="4">
+        <f>'BNVP-LDVs-psgr'!S6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="T6" s="4">
+        <f>'BNVP-LDVs-psgr'!T6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="U6" s="4">
+        <f>'BNVP-LDVs-psgr'!U6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="V6" s="4">
+        <f>'BNVP-LDVs-psgr'!V6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="W6" s="4">
+        <f>'BNVP-LDVs-psgr'!W6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="X6" s="4">
+        <f>'BNVP-LDVs-psgr'!X6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="Y6" s="4">
+        <f>'BNVP-LDVs-psgr'!Y6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="Z6" s="4">
+        <f>'BNVP-LDVs-psgr'!Z6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="AA6" s="4">
+        <f>'BNVP-LDVs-psgr'!AA6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="AB6" s="4">
+        <f>'BNVP-LDVs-psgr'!AB6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="AC6" s="4">
+        <f>'BNVP-LDVs-psgr'!AC6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="AD6" s="4">
+        <f>'BNVP-LDVs-psgr'!AD6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="AE6" s="4">
+        <f>'BNVP-LDVs-psgr'!AE6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="AF6" s="4">
+        <f>'BNVP-LDVs-psgr'!AF6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="AG6" s="4">
+        <f>'BNVP-LDVs-psgr'!AG6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="AH6" s="4">
+        <f>'BNVP-LDVs-psgr'!AH6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="AI6" s="4">
+        <f>'BNVP-LDVs-psgr'!AI6</f>
+        <v>85108.100260433552</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <f>$B7</f>
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ref="D7:AI7" si="1">$B7</f>
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <f>'BNVP-LDVs-psgr'!B7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="C7" s="4">
+        <f>'BNVP-LDVs-psgr'!C7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="D7" s="4">
+        <f>'BNVP-LDVs-psgr'!D7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="E7" s="4">
+        <f>'BNVP-LDVs-psgr'!E7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="F7" s="4">
+        <f>'BNVP-LDVs-psgr'!F7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="G7" s="4">
+        <f>'BNVP-LDVs-psgr'!G7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="H7" s="4">
+        <f>'BNVP-LDVs-psgr'!H7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="I7" s="4">
+        <f>'BNVP-LDVs-psgr'!I7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="J7" s="4">
+        <f>'BNVP-LDVs-psgr'!J7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="K7" s="4">
+        <f>'BNVP-LDVs-psgr'!K7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="L7" s="4">
+        <f>'BNVP-LDVs-psgr'!L7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="M7" s="4">
+        <f>'BNVP-LDVs-psgr'!M7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="N7" s="4">
+        <f>'BNVP-LDVs-psgr'!N7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="O7" s="4">
+        <f>'BNVP-LDVs-psgr'!O7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="P7" s="4">
+        <f>'BNVP-LDVs-psgr'!P7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="Q7" s="4">
+        <f>'BNVP-LDVs-psgr'!Q7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="R7" s="4">
+        <f>'BNVP-LDVs-psgr'!R7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="S7" s="4">
+        <f>'BNVP-LDVs-psgr'!S7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="T7" s="4">
+        <f>'BNVP-LDVs-psgr'!T7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="U7" s="4">
+        <f>'BNVP-LDVs-psgr'!U7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="V7" s="4">
+        <f>'BNVP-LDVs-psgr'!V7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="W7" s="4">
+        <f>'BNVP-LDVs-psgr'!W7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="X7" s="4">
+        <f>'BNVP-LDVs-psgr'!X7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="Y7" s="4">
+        <f>'BNVP-LDVs-psgr'!Y7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="Z7" s="4">
+        <f>'BNVP-LDVs-psgr'!Z7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="AA7" s="4">
+        <f>'BNVP-LDVs-psgr'!AA7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="AB7" s="4">
+        <f>'BNVP-LDVs-psgr'!AB7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="AC7" s="4">
+        <f>'BNVP-LDVs-psgr'!AC7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="AD7" s="4">
+        <f>'BNVP-LDVs-psgr'!AD7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="AE7" s="4">
+        <f>'BNVP-LDVs-psgr'!AE7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="AF7" s="4">
+        <f>'BNVP-LDVs-psgr'!AF7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="AG7" s="4">
+        <f>'BNVP-LDVs-psgr'!AG7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="AH7" s="4">
+        <f>'BNVP-LDVs-psgr'!AH7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="AI7" s="4">
+        <f>'BNVP-LDVs-psgr'!AI7</f>
+        <v>4888.5032132532206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>174</v>
       </c>
       <c r="B8" s="4">
-        <f>'Hydrogen - US data'!B10</f>
-        <v>69622.716024780879</v>
+        <f>'BNVP-LDVs-psgr'!B8</f>
+        <v>71671.802858802301</v>
       </c>
       <c r="C8" s="4">
-        <f>'Hydrogen - US data'!C10</f>
-        <v>62573.381083225635</v>
+        <f>'BNVP-LDVs-psgr'!C8</f>
+        <v>70169.990001958169</v>
       </c>
       <c r="D8" s="4">
-        <f>'Hydrogen - US data'!D10</f>
-        <v>60135.116145988432</v>
+        <f>'BNVP-LDVs-psgr'!D8</f>
+        <v>68817.744603284256</v>
       </c>
       <c r="E8" s="4">
-        <f>'Hydrogen - US data'!E10</f>
-        <v>58038.42380790555</v>
+        <f>'BNVP-LDVs-psgr'!E8</f>
+        <v>67295.992266464134</v>
       </c>
       <c r="F8" s="4">
-        <f>'Hydrogen - US data'!F10</f>
-        <v>55556.142763366515</v>
+        <f>'BNVP-LDVs-psgr'!F8</f>
+        <v>65381.764383467074</v>
       </c>
       <c r="G8" s="4">
-        <f>'Hydrogen - US data'!G10</f>
-        <v>53478.556825949643</v>
+        <f>'BNVP-LDVs-psgr'!G8</f>
+        <v>63442.774489302341</v>
       </c>
       <c r="H8" s="4">
-        <f>'Hydrogen - US data'!H10</f>
-        <v>51674.270907425263</v>
+        <f>'BNVP-LDVs-psgr'!H8</f>
+        <v>61714.269486428275</v>
       </c>
       <c r="I8" s="4">
-        <f>'Hydrogen - US data'!I10</f>
-        <v>50269.845760960488</v>
+        <f>'BNVP-LDVs-psgr'!I8</f>
+        <v>60340.29799051286</v>
       </c>
       <c r="J8" s="4">
-        <f>'Hydrogen - US data'!J10</f>
-        <v>48585.755602155776</v>
+        <f>'BNVP-LDVs-psgr'!J8</f>
+        <v>58916.381225068319</v>
       </c>
       <c r="K8" s="4">
-        <f>'Hydrogen - US data'!K10</f>
-        <v>47820.306238754973</v>
+        <f>'BNVP-LDVs-psgr'!K8</f>
+        <v>57992.751901552423</v>
       </c>
       <c r="L8" s="4">
-        <f>'Hydrogen - US data'!L10</f>
-        <v>47210.471951340718</v>
+        <f>'BNVP-LDVs-psgr'!L8</f>
+        <v>57104.944159617815</v>
       </c>
       <c r="M8" s="4">
-        <f>'Hydrogen - US data'!M10</f>
-        <v>46516.871395806629</v>
+        <f>'BNVP-LDVs-psgr'!M8</f>
+        <v>56272.362781819553</v>
       </c>
       <c r="N8" s="4">
-        <f>'Hydrogen - US data'!N10</f>
-        <v>45983.710822468522</v>
+        <f>'BNVP-LDVs-psgr'!N8</f>
+        <v>55464.900871012476</v>
       </c>
       <c r="O8" s="4">
-        <f>'Hydrogen - US data'!O10</f>
-        <v>45319.540982331629</v>
+        <f>'BNVP-LDVs-psgr'!O8</f>
+        <v>54715.180915420715</v>
       </c>
       <c r="P8" s="4">
-        <f>'Hydrogen - US data'!P10</f>
-        <v>44751.667608498603</v>
+        <f>'BNVP-LDVs-psgr'!P8</f>
+        <v>53991.118405632784</v>
       </c>
       <c r="Q8" s="4">
-        <f>'Hydrogen - US data'!Q10</f>
-        <v>44157.434839299392</v>
+        <f>'BNVP-LDVs-psgr'!Q8</f>
+        <v>53306.877225406512</v>
       </c>
       <c r="R8" s="4">
-        <f>'Hydrogen - US data'!R10</f>
-        <v>43527.855890483275</v>
+        <f>'BNVP-LDVs-psgr'!R8</f>
+        <v>52657.188647763163</v>
       </c>
       <c r="S8" s="4">
-        <f>'Hydrogen - US data'!S10</f>
-        <v>43038.89046287605</v>
+        <f>'BNVP-LDVs-psgr'!S8</f>
+        <v>51979.819581427451</v>
       </c>
       <c r="T8" s="4">
-        <f>'Hydrogen - US data'!T10</f>
-        <v>42532.588870249783</v>
+        <f>'BNVP-LDVs-psgr'!T8</f>
+        <v>51321.567434779063</v>
       </c>
       <c r="U8" s="4">
-        <f>'Hydrogen - US data'!U10</f>
-        <v>42055.871506570365</v>
+        <f>'BNVP-LDVs-psgr'!U8</f>
+        <v>50691.924962569858</v>
       </c>
       <c r="V8" s="4">
-        <f>'Hydrogen - US data'!V10</f>
-        <v>41555.774999076144</v>
+        <f>'BNVP-LDVs-psgr'!V8</f>
+        <v>50094.373475486296</v>
       </c>
       <c r="W8" s="4">
-        <f>'Hydrogen - US data'!W10</f>
-        <v>41098.616127877198</v>
+        <f>'BNVP-LDVs-psgr'!W8</f>
+        <v>49520.37156788868</v>
       </c>
       <c r="X8" s="4">
-        <f>'Hydrogen - US data'!X10</f>
-        <v>40661.400729050503</v>
+        <f>'BNVP-LDVs-psgr'!X8</f>
+        <v>48974.061974078919</v>
       </c>
       <c r="Y8" s="4">
-        <f>'Hydrogen - US data'!Y10</f>
-        <v>40232.178123692443</v>
+        <f>'BNVP-LDVs-psgr'!Y8</f>
+        <v>48453.179754450975</v>
       </c>
       <c r="Z8" s="4">
-        <f>'Hydrogen - US data'!Z10</f>
-        <v>39773.162042840559</v>
+        <f>'BNVP-LDVs-psgr'!Z8</f>
+        <v>47959.246951117115</v>
       </c>
       <c r="AA8" s="4">
-        <f>'Hydrogen - US data'!AA10</f>
-        <v>39403.755516202385</v>
+        <f>'BNVP-LDVs-psgr'!AA8</f>
+        <v>47486.024681113064</v>
       </c>
       <c r="AB8" s="4">
-        <f>'Hydrogen - US data'!AB10</f>
-        <v>39006.693573200246</v>
+        <f>'BNVP-LDVs-psgr'!AB8</f>
+        <v>47036.677594138353</v>
       </c>
       <c r="AC8" s="4">
-        <f>'Hydrogen - US data'!AC10</f>
-        <v>38634.025869095451</v>
+        <f>'BNVP-LDVs-psgr'!AC8</f>
+        <v>46606.761404087512</v>
       </c>
       <c r="AD8" s="4">
-        <f>'Hydrogen - US data'!AD10</f>
-        <v>38284.191828142648</v>
+        <f>'BNVP-LDVs-psgr'!AD8</f>
+        <v>46195.705761431702</v>
       </c>
       <c r="AE8" s="4">
-        <f>'Hydrogen - US data'!AE10</f>
-        <v>37927.869797491228</v>
+        <f>'BNVP-LDVs-psgr'!AE8</f>
+        <v>45803.616161162994</v>
       </c>
       <c r="AF8" s="4">
-        <f>'Hydrogen - US data'!AF10</f>
-        <v>37590.631074930439</v>
+        <f>'BNVP-LDVs-psgr'!AF8</f>
+        <v>45429.867256254096</v>
       </c>
       <c r="AG8" s="4">
-        <f>'Hydrogen - US data'!AG10</f>
-        <v>37287.593347994982</v>
+        <f>'BNVP-LDVs-psgr'!AG8</f>
+        <v>45072.360096293305</v>
       </c>
       <c r="AH8" s="4">
-        <f>'Hydrogen - US data'!AH10</f>
-        <v>36972.311229917294</v>
+        <f>'BNVP-LDVs-psgr'!AH8</f>
+        <v>44732.50176539275</v>
       </c>
       <c r="AI8" s="4">
-        <f>'Hydrogen - US data'!AI10</f>
-        <v>36679.355002682401</v>
+        <f>'BNVP-LDVs-psgr'!AI8</f>
+        <v>44402.082836625734</v>
       </c>
     </row>
   </sheetData>
@@ -15937,12 +16074,12 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -16049,7 +16186,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -16156,7 +16293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -16263,7 +16400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -16370,7 +16507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -16511,7 +16648,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -16618,7 +16755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>173</v>
       </c>
@@ -16758,7 +16895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>174</v>
       </c>
@@ -16915,12 +17052,12 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -17027,7 +17164,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -17168,7 +17305,7 @@
         <v>581.29981769919425</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -17275,7 +17412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -17416,7 +17553,7 @@
         <v>1175.292461165729</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -17523,7 +17660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -17630,7 +17767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>173</v>
       </c>
@@ -17737,7 +17874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>174</v>
       </c>
@@ -17860,12 +17997,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -17972,7 +18109,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -18113,7 +18250,7 @@
         <v>2468.9410167945562</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -18254,7 +18391,7 @@
         <v>2592.3880676342837</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -18395,7 +18532,7 @@
         <v>2376.3557286647601</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -18536,7 +18673,7 @@
         <v>2043.0486913974946</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -18677,7 +18814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>173</v>
       </c>
@@ -18818,7 +18955,7 @@
         <v>2623.2498303442158</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>174</v>
       </c>
@@ -18937,17 +19074,17 @@
   </sheetPr>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>149</v>
       </c>
@@ -18958,7 +19095,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -18975,7 +19112,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -18992,7 +19129,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>147</v>
       </c>
@@ -19009,7 +19146,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>148</v>
       </c>
@@ -19026,7 +19163,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>200</v>
       </c>
@@ -19043,7 +19180,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>158</v>
       </c>
@@ -19060,7 +19197,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>201</v>
       </c>
@@ -19077,7 +19214,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>159</v>
       </c>
@@ -19094,7 +19231,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>292</v>
       </c>
@@ -19117,7 +19254,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>293</v>
       </c>
@@ -19134,7 +19271,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>301</v>
       </c>
@@ -19157,14 +19294,14 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -19176,7 +19313,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -19188,7 +19325,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -19199,7 +19336,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -19211,7 +19348,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -19222,7 +19359,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -19234,7 +19371,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -19246,7 +19383,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -19258,7 +19395,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -19270,7 +19407,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -19298,17 +19435,17 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>214</v>
       </c>
@@ -19323,7 +19460,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>269</v>
       </c>
@@ -19338,7 +19475,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>205</v>
       </c>
@@ -19352,7 +19489,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>207</v>
       </c>
@@ -19366,7 +19503,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>206</v>
       </c>
@@ -19381,11 +19518,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>208</v>
       </c>
@@ -19401,7 +19538,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>209</v>
       </c>
@@ -19415,15 +19552,15 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>215</v>
       </c>
@@ -19437,7 +19574,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>216</v>
       </c>
@@ -19451,25 +19588,25 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -19481,7 +19618,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>109</v>
       </c>
@@ -19493,7 +19630,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>128</v>
       </c>
@@ -19505,10 +19642,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" s="16"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -19520,7 +19657,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>109</v>
       </c>
@@ -19532,7 +19669,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>128</v>
       </c>
@@ -19560,19 +19697,19 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>222</v>
       </c>
@@ -19589,7 +19726,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>223</v>
       </c>
@@ -19606,7 +19743,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>151</v>
       </c>
@@ -19623,7 +19760,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>152</v>
       </c>
@@ -19641,7 +19778,7 @@
       </c>
       <c r="H5" s="48"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>153</v>
       </c>
@@ -19658,7 +19795,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>291</v>
       </c>
@@ -19677,14 +19814,14 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -19696,7 +19833,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -19707,7 +19844,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -19718,7 +19855,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -19730,7 +19867,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -19741,7 +19878,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -19753,7 +19890,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -19765,7 +19902,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -19777,7 +19914,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -19789,7 +19926,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -19817,14 +19954,14 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
@@ -19835,7 +19972,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -19850,7 +19987,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -19865,7 +20002,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -19880,7 +20017,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -19895,7 +20032,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>114</v>
       </c>
@@ -19909,7 +20046,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -19920,7 +20057,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>117</v>
       </c>
@@ -19934,7 +20071,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>118</v>
       </c>
@@ -19948,7 +20085,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>115</v>
       </c>
@@ -19963,7 +20100,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -19977,7 +20114,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>226</v>
       </c>
@@ -19991,7 +20128,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -20003,7 +20140,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -20014,7 +20151,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -20026,7 +20163,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -20037,7 +20174,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -20048,7 +20185,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -20060,7 +20197,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -20072,7 +20209,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -20084,7 +20221,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -20096,7 +20233,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -20124,14 +20261,14 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.77734375" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -20145,7 +20282,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>124</v>
       </c>
@@ -20159,7 +20296,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -20173,7 +20310,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -20187,7 +20324,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -20201,7 +20338,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>227</v>
       </c>
@@ -20215,7 +20352,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>132</v>
       </c>
@@ -20229,7 +20366,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>133</v>
       </c>
@@ -20243,7 +20380,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -20257,7 +20394,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -20271,7 +20408,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>137</v>
       </c>
@@ -20285,7 +20422,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>142</v>
       </c>
@@ -20299,7 +20436,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>143</v>
       </c>
@@ -20313,7 +20450,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -20325,7 +20462,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -20337,7 +20474,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -20349,7 +20486,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -20361,7 +20498,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -20372,7 +20509,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>173</v>
       </c>
@@ -20384,7 +20521,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -20396,7 +20533,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -20408,7 +20545,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -20420,7 +20557,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -20432,7 +20569,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -20444,7 +20581,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>173</v>
       </c>
@@ -20470,24 +20607,24 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -20498,7 +20635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -20509,7 +20646,7 @@
         <v>41000000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -20520,7 +20657,7 @@
         <v>45000000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -20531,7 +20668,7 @@
         <v>149000000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -20542,7 +20679,7 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -20553,7 +20690,7 @@
         <v>40000000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -20564,17 +20701,17 @@
         <v>84000000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -20588,19 +20725,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>5.0999999999999996</v>
       </c>
@@ -20610,7 +20747,7 @@
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>246</v>
       </c>
@@ -20624,7 +20761,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
         <v>255</v>
       </c>
@@ -20639,7 +20776,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D4">
         <f>D3/About!A110</f>
         <v>87319700.566003278</v>
@@ -20648,12 +20785,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
     </row>
   </sheetData>

--- a/InputData/trans/BNVP/BAU New Vehicle Price.xlsx
+++ b/InputData/trans/BNVP/BAU New Vehicle Price.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-india\InputData\trans\BNVP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-india\InputData\trans\BNVP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816FEB16-D2D1-4DB9-8944-5F039502A9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -45,12 +46,15 @@
     <definedName name="cpi_2014to2012">About!#REF!</definedName>
     <definedName name="cpi_2016to2012">About!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -982,7 +986,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1326,18 +1330,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="Body: normal cell" xfId="4"/>
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Comma" xfId="11" builtinId="3"/>
     <cellStyle name="Currency" xfId="8" builtinId="4"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
-    <cellStyle name="Footnotes: top row" xfId="2"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="ofwhich" xfId="10"/>
-    <cellStyle name="Parent row" xfId="3"/>
-    <cellStyle name="Table title" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="ofwhich" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1369,7 +1373,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1526,6 +1536,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1561,6 +1588,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1736,25 +1780,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E129"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="56.265625" customWidth="1"/>
-    <col min="5" max="5" width="64.1328125" customWidth="1"/>
+    <col min="2" max="2" width="56.28515625" customWidth="1"/>
+    <col min="5" max="5" width="64.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1765,7 +1809,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>77</v>
       </c>
@@ -1773,7 +1817,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>2018</v>
       </c>
@@ -1781,7 +1825,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>104</v>
       </c>
@@ -1789,7 +1833,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="25" t="s">
         <v>105</v>
       </c>
@@ -1797,7 +1841,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>106</v>
       </c>
@@ -1805,10 +1849,10 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>78</v>
       </c>
@@ -1816,7 +1860,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="20" t="s">
         <v>74</v>
       </c>
@@ -1824,7 +1868,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>212</v>
       </c>
@@ -1832,7 +1876,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <v>2019</v>
       </c>
@@ -1840,7 +1884,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
         <v>204</v>
       </c>
@@ -1848,7 +1892,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="27" t="s">
         <v>213</v>
       </c>
@@ -1856,11 +1900,11 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="31" t="s">
         <v>109</v>
       </c>
@@ -1868,7 +1912,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>303</v>
       </c>
@@ -1876,88 +1920,88 @@
         <v>287</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="19">
         <v>2019</v>
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>305</v>
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="27" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="27"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="31" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="19">
         <v>2018</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="27" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="27"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="19">
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="12"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="13" t="s">
         <v>237</v>
       </c>
@@ -1965,7 +2009,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>27</v>
       </c>
@@ -1973,7 +2017,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="14">
         <v>2012</v>
       </c>
@@ -1981,7 +2025,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>28</v>
       </c>
@@ -1989,7 +2033,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="30" t="s">
         <v>29</v>
       </c>
@@ -1997,46 +2041,46 @@
         <v>243</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="12"/>
       <c r="E41" s="12" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="13" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="14">
         <v>2015</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="12"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>232</v>
       </c>
@@ -2044,7 +2088,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
         <v>70</v>
       </c>
@@ -2052,12 +2096,12 @@
         <v>235</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E51" s="14">
         <v>2016</v>
       </c>
     </row>
-    <row r="52" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" s="13" t="s">
         <v>119</v>
       </c>
@@ -2065,7 +2109,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
         <v>120</v>
       </c>
@@ -2073,245 +2117,245 @@
         <v>234</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="14">
         <v>2018</v>
       </c>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B56" s="30" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="5"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>138</v>
       </c>
       <c r="E59" s="20"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
         <v>139</v>
       </c>
       <c r="E60" s="32"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B61" s="7">
         <v>2018</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="25" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="5"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B66" s="7">
         <v>2017</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B69" s="5"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>163</v>
       </c>
       <c r="B105" s="15"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>54.77</v>
       </c>
@@ -2319,33 +2363,33 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>10000000</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>100000</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C118" s="11"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="21" t="s">
         <v>169</v>
       </c>
@@ -2356,7 +2400,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2010</v>
       </c>
@@ -2368,7 +2412,7 @@
         <v>0.84470208721577789</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2011</v>
       </c>
@@ -2380,7 +2424,7 @@
         <v>0.8995232526760818</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2012</v>
       </c>
@@ -2391,7 +2435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2013</v>
       </c>
@@ -2403,7 +2447,7 @@
         <v>1.0912999999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2014</v>
       </c>
@@ -2415,7 +2459,7 @@
         <v>1.1552501799999999</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2015</v>
       </c>
@@ -2427,7 +2471,7 @@
         <v>1.2282619913759998</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2016</v>
       </c>
@@ -2439,7 +2483,7 @@
         <v>1.2556522337836846</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2017</v>
       </c>
@@ -2451,7 +2495,7 @@
         <v>1.3058783231350322</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2018</v>
       </c>
@@ -2463,7 +2507,7 @@
         <v>1.3743063472673078</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2019</v>
       </c>
@@ -2477,11 +2521,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B33" r:id="rId2"/>
-    <hyperlink ref="B56" r:id="rId3"/>
-    <hyperlink ref="B40" r:id="rId4"/>
-    <hyperlink ref="B63" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B33" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B56" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B40" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B63" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -2489,23 +2533,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.3984375" customWidth="1"/>
-    <col min="2" max="2" width="52.265625" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" customWidth="1"/>
-    <col min="4" max="4" width="22.73046875" customWidth="1"/>
-    <col min="5" max="5" width="47.73046875" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="47.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -2513,7 +2557,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -2521,7 +2565,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -2529,7 +2573,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -2537,42 +2581,42 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2580,7 +2624,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -2588,17 +2632,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E16" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -2606,12 +2650,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -2619,7 +2663,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -2627,22 +2671,22 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
         <v>48</v>
       </c>
@@ -2656,7 +2700,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>49</v>
       </c>
@@ -2670,7 +2714,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>51</v>
       </c>
@@ -2684,7 +2728,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>54</v>
       </c>
@@ -2698,7 +2742,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>61</v>
       </c>
@@ -2712,7 +2756,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>58</v>
       </c>
@@ -2726,7 +2770,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>59</v>
       </c>
@@ -2740,37 +2784,37 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>10000000</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>230</v>
       </c>
       <c r="B42" s="15"/>
       <c r="E42" s="20"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="31" t="s">
         <v>231</v>
       </c>
@@ -2782,7 +2826,7 @@
       </c>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" s="29">
         <v>60</v>
       </c>
@@ -2794,7 +2838,7 @@
       </c>
       <c r="E45" s="20"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>228</v>
       </c>
@@ -2807,7 +2851,7 @@
       </c>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" s="26">
         <f>B46/About!$C$126*About!A$116/About!A$110</f>
         <v>189030.21913307568</v>
@@ -2817,23 +2861,23 @@
       </c>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E53" s="5"/>
     </row>
   </sheetData>
@@ -2843,27 +2887,27 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.3984375" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>245</v>
       </c>
       <c r="B1" s="15"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="47">
         <v>7.1</v>
       </c>
@@ -2873,7 +2917,7 @@
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>246</v>
       </c>
@@ -2887,7 +2931,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
         <v>250</v>
       </c>
@@ -2904,7 +2948,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="37"/>
       <c r="B5" s="38"/>
       <c r="C5" s="39" t="s">
@@ -2917,7 +2961,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="39" t="s">
         <v>251</v>
       </c>
@@ -2929,7 +2973,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="39" t="s">
         <v>252</v>
       </c>
@@ -2941,13 +2985,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>267</v>
       </c>
       <c r="B9" s="15"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="47">
         <v>5.0999999999999996</v>
       </c>
@@ -2957,7 +3001,7 @@
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
         <v>246</v>
       </c>
@@ -2971,7 +3015,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>250</v>
       </c>
@@ -2986,7 +3030,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="41"/>
       <c r="C13" s="41" t="s">
@@ -2999,7 +3043,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" s="41" t="s">
         <v>251</v>
       </c>
@@ -3011,7 +3055,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="41" t="s">
         <v>252</v>
       </c>
@@ -3023,7 +3067,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>256</v>
       </c>
@@ -3034,21 +3078,21 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AI14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="35" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="35" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>2017</v>
       </c>
@@ -3152,7 +3196,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>276</v>
       </c>
@@ -3259,7 +3303,7 @@
         <v>44402.082836625734</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>277</v>
       </c>
@@ -3366,7 +3410,7 @@
         <v>54145.76341539924</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>278</v>
       </c>
@@ -3473,7 +3517,7 @@
         <v>619974.02208665863</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>279</v>
       </c>
@@ -3580,7 +3624,7 @@
         <v>112409.17682429397</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>280</v>
       </c>
@@ -3687,7 +3731,7 @@
         <v>79268161.644685864</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>281</v>
       </c>
@@ -3794,7 +3838,7 @@
         <v>79268161.644685864</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>282</v>
       </c>
@@ -3901,7 +3945,7 @@
         <v>3056612.9168902002</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>283</v>
       </c>
@@ -4008,7 +4052,7 @@
         <v>3056612.9168902002</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>284</v>
       </c>
@@ -4115,7 +4159,7 @@
         <v>36679.355002682401</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>285</v>
       </c>
@@ -4222,7 +4266,7 @@
         <v>12226451.667560801</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>290</v>
       </c>
@@ -4234,16 +4278,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AG8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>172</v>
       </c>
@@ -4344,7 +4388,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4445,7 +4489,7 @@
         <v>143258.50407011685</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4546,7 +4590,7 @@
         <v>126042.93986476603</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4647,7 +4691,7 @@
         <v>130581.18622854573</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4748,7 +4792,7 @@
         <v>130581.18622854573</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4849,7 +4893,7 @@
         <v>101472.37683032606</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>173</v>
       </c>
@@ -4950,7 +4994,7 @@
         <v>147816.39034830141</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>174</v>
       </c>
@@ -5057,16 +5101,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:AG8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>172</v>
       </c>
@@ -5167,7 +5211,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5268,7 +5312,7 @@
         <v>70403.380999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5369,7 +5413,7 @@
         <v>63270.377162437377</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5470,7 +5514,7 @@
         <v>60188.816657999996</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5571,7 +5615,7 @@
         <v>65548.462388</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5672,7 +5716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>173</v>
       </c>
@@ -5773,7 +5817,7 @@
         <v>74200.100205227456</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>174</v>
       </c>
@@ -5880,22 +5924,22 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -6002,7 +6046,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6143,7 +6187,7 @@
         <v>12097.810982293322</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6284,7 +6328,7 @@
         <v>7677.1720917226739</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -6425,7 +6469,7 @@
         <v>8414.1509852358431</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -6566,7 +6610,7 @@
         <v>11170.723630486968</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -6707,7 +6751,7 @@
         <v>85108.100260433552</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>173</v>
       </c>
@@ -6848,7 +6892,7 @@
         <v>4888.5032132532206</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>174</v>
       </c>
@@ -6995,7 +7039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -7005,12 +7049,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -7117,7 +7161,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -7258,7 +7302,7 @@
         <v>9649.4444739720566</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7399,7 +7443,7 @@
         <v>8851.1535452084827</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -7540,7 +7584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -7681,7 +7725,7 @@
         <v>6889.8885249923069</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -7822,7 +7866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>173</v>
       </c>
@@ -7929,7 +7973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>174</v>
       </c>
@@ -8076,7 +8120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -8086,12 +8130,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -8198,7 +8242,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8339,7 +8383,7 @@
         <v>216032.33896952364</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -8480,7 +8524,7 @@
         <v>47163.069220368845</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -8620,7 +8664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -8761,7 +8805,7 @@
         <v>35793.47239097907</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -8901,7 +8945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>173</v>
       </c>
@@ -9008,7 +9052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>174</v>
       </c>
@@ -9155,7 +9199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -9165,12 +9209,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -9277,7 +9321,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -9418,7 +9462,7 @@
         <v>82298.033893151864</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -9559,7 +9603,7 @@
         <v>17398.987737414427</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -9700,7 +9744,7 @@
         <v>18344.231754783552</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -9841,7 +9885,7 @@
         <v>18344.231754783552</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -9982,7 +10026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>173</v>
       </c>
@@ -10089,7 +10133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>174</v>
       </c>
@@ -10236,7 +10280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -10246,15 +10290,15 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="35" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -10361,7 +10405,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -10502,7 +10546,7 @@
         <v>391303098.23532796</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -10609,7 +10653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -10716,7 +10760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -10857,7 +10901,7 @@
         <v>64833333.333333336</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -10964,7 +11008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>173</v>
       </c>
@@ -11104,7 +11148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>174</v>
       </c>
@@ -11251,23 +11295,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="3" max="3" width="11.1328125" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
@@ -11278,7 +11322,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -11292,7 +11336,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -11306,7 +11350,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -11320,7 +11364,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -11334,7 +11378,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -11348,11 +11392,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -11363,7 +11407,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>88</v>
       </c>
@@ -11377,7 +11421,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -11391,7 +11435,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -11405,7 +11449,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>90</v>
       </c>
@@ -11419,7 +11463,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -11433,18 +11477,18 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>88</v>
       </c>
@@ -11458,7 +11502,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>93</v>
       </c>
@@ -11472,7 +11516,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>91</v>
       </c>
@@ -11486,7 +11530,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>90</v>
       </c>
@@ -11500,7 +11544,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>175</v>
       </c>
@@ -11514,11 +11558,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>83</v>
       </c>
@@ -11529,7 +11573,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -11543,7 +11587,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>85</v>
       </c>
@@ -11557,11 +11601,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>94</v>
       </c>
@@ -11572,7 +11616,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>95</v>
       </c>
@@ -11586,7 +11630,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>96</v>
       </c>
@@ -11600,7 +11644,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>97</v>
       </c>
@@ -11614,7 +11658,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>98</v>
       </c>
@@ -11628,7 +11672,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>99</v>
       </c>
@@ -11642,7 +11686,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>177</v>
       </c>
@@ -11656,7 +11700,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>178</v>
       </c>
@@ -11673,7 +11717,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>192</v>
       </c>
@@ -11690,7 +11734,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" s="21">
         <v>4.1500000000000004</v>
       </c>
@@ -11704,13 +11748,13 @@
         <v>189</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B38" s="15"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -11722,7 +11766,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -11734,7 +11778,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -11746,7 +11790,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -11758,7 +11802,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -11770,7 +11814,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>173</v>
       </c>
@@ -11782,7 +11826,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -11794,7 +11838,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -11806,7 +11850,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -11818,7 +11862,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -11830,7 +11874,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -11842,7 +11886,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>173</v>
       </c>
@@ -11856,14 +11900,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E34" r:id="rId1"/>
+    <hyperlink ref="E34" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -11873,15 +11917,15 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="35" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -11988,7 +12032,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -12129,7 +12173,7 @@
         <v>527020093.08675891</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -12236,7 +12280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -12343,7 +12387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -12484,7 +12528,7 @@
         <v>87319700.566003278</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -12591,7 +12635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>173</v>
       </c>
@@ -12731,7 +12775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>174</v>
       </c>
@@ -12878,7 +12922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -12888,13 +12932,13 @@
       <selection activeCell="B8" sqref="B8:AI8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -13001,7 +13045,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -13142,7 +13186,7 @@
         <v>9830199.0140587911</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -13249,7 +13293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -13356,7 +13400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -13497,7 +13541,7 @@
         <v>9282453.8981194086</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -13604,7 +13648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>173</v>
       </c>
@@ -13744,7 +13788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>174</v>
       </c>
@@ -13891,7 +13935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -13901,13 +13945,13 @@
       <selection activeCell="B1" sqref="B1:AI1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
-    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -14014,7 +14058,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -14155,7 +14199,7 @@
         <v>5696549.2057695817</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -14262,7 +14306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -14369,7 +14413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -14510,7 +14554,7 @@
         <v>5203578.6014241371</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -14617,7 +14661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>173</v>
       </c>
@@ -14757,7 +14801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>174</v>
       </c>
@@ -14904,23 +14948,23 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AI8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
-    <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -15027,854 +15071,991 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="B2" s="4">
+        <f>'BNVP-LDVs-psgr'!B2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="C2" s="4">
+        <f>'BNVP-LDVs-psgr'!C2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="D2" s="4">
+        <f>'BNVP-LDVs-psgr'!D2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="E2" s="4">
+        <f>'BNVP-LDVs-psgr'!E2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="F2" s="4">
+        <f>'BNVP-LDVs-psgr'!F2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="G2" s="4">
+        <f>'BNVP-LDVs-psgr'!G2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="H2" s="4">
+        <f>'BNVP-LDVs-psgr'!H2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="I2" s="4">
+        <f>'BNVP-LDVs-psgr'!I2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="J2" s="4">
+        <f>'BNVP-LDVs-psgr'!J2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="K2" s="4">
+        <f>'BNVP-LDVs-psgr'!K2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="L2" s="4">
+        <f>'BNVP-LDVs-psgr'!L2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="M2" s="4">
+        <f>'BNVP-LDVs-psgr'!M2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="N2" s="4">
+        <f>'BNVP-LDVs-psgr'!N2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="O2" s="4">
+        <f>'BNVP-LDVs-psgr'!O2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="P2" s="4">
+        <f>'BNVP-LDVs-psgr'!P2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>'BNVP-LDVs-psgr'!Q2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="R2" s="4">
+        <f>'BNVP-LDVs-psgr'!R2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="S2" s="4">
+        <f>'BNVP-LDVs-psgr'!S2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="T2" s="4">
+        <f>'BNVP-LDVs-psgr'!T2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="U2" s="4">
+        <f>'BNVP-LDVs-psgr'!U2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="V2" s="4">
+        <f>'BNVP-LDVs-psgr'!V2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="W2" s="4">
+        <f>'BNVP-LDVs-psgr'!W2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="X2" s="4">
+        <f>'BNVP-LDVs-psgr'!X2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="Y2" s="4">
+        <f>'BNVP-LDVs-psgr'!Y2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="Z2" s="4">
+        <f>'BNVP-LDVs-psgr'!Z2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="AA2" s="4">
+        <f>'BNVP-LDVs-psgr'!AA2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="AB2" s="4">
+        <f>'BNVP-LDVs-psgr'!AB2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="AC2" s="4">
+        <f>'BNVP-LDVs-psgr'!AC2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="AD2" s="4">
+        <f>'BNVP-LDVs-psgr'!AD2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="AE2" s="4">
+        <f>'BNVP-LDVs-psgr'!AE2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="AF2" s="4">
+        <f>'BNVP-LDVs-psgr'!AF2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="AG2" s="4">
+        <f>'BNVP-LDVs-psgr'!AG2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="AH2" s="4">
+        <f>'BNVP-LDVs-psgr'!AH2</f>
+        <v>12097.810982293322</v>
+      </c>
+      <c r="AI2" s="4">
+        <f>'BNVP-LDVs-psgr'!AI2</f>
+        <v>12097.810982293322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="B3" s="4">
+        <f>'BNVP-LDVs-psgr'!B3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="C3" s="4">
+        <f>'BNVP-LDVs-psgr'!C3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="D3" s="4">
+        <f>'BNVP-LDVs-psgr'!D3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="E3" s="4">
+        <f>'BNVP-LDVs-psgr'!E3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="F3" s="4">
+        <f>'BNVP-LDVs-psgr'!F3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="G3" s="4">
+        <f>'BNVP-LDVs-psgr'!G3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="H3" s="4">
+        <f>'BNVP-LDVs-psgr'!H3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="I3" s="4">
+        <f>'BNVP-LDVs-psgr'!I3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="J3" s="4">
+        <f>'BNVP-LDVs-psgr'!J3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="K3" s="4">
+        <f>'BNVP-LDVs-psgr'!K3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="L3" s="4">
+        <f>'BNVP-LDVs-psgr'!L3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="M3" s="4">
+        <f>'BNVP-LDVs-psgr'!M3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="N3" s="4">
+        <f>'BNVP-LDVs-psgr'!N3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="O3" s="4">
+        <f>'BNVP-LDVs-psgr'!O3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="P3" s="4">
+        <f>'BNVP-LDVs-psgr'!P3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="Q3" s="4">
+        <f>'BNVP-LDVs-psgr'!Q3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="R3" s="4">
+        <f>'BNVP-LDVs-psgr'!R3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="S3" s="4">
+        <f>'BNVP-LDVs-psgr'!S3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="T3" s="4">
+        <f>'BNVP-LDVs-psgr'!T3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="U3" s="4">
+        <f>'BNVP-LDVs-psgr'!U3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="V3" s="4">
+        <f>'BNVP-LDVs-psgr'!V3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="W3" s="4">
+        <f>'BNVP-LDVs-psgr'!W3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="X3" s="4">
+        <f>'BNVP-LDVs-psgr'!X3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="Y3" s="4">
+        <f>'BNVP-LDVs-psgr'!Y3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="Z3" s="4">
+        <f>'BNVP-LDVs-psgr'!Z3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="AA3" s="4">
+        <f>'BNVP-LDVs-psgr'!AA3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="AB3" s="4">
+        <f>'BNVP-LDVs-psgr'!AB3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="AC3" s="4">
+        <f>'BNVP-LDVs-psgr'!AC3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="AD3" s="4">
+        <f>'BNVP-LDVs-psgr'!AD3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="AE3" s="4">
+        <f>'BNVP-LDVs-psgr'!AE3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="AF3" s="4">
+        <f>'BNVP-LDVs-psgr'!AF3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="AG3" s="4">
+        <f>'BNVP-LDVs-psgr'!AG3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="AH3" s="4">
+        <f>'BNVP-LDVs-psgr'!AH3</f>
+        <v>7677.1720917226739</v>
+      </c>
+      <c r="AI3" s="4">
+        <f>'BNVP-LDVs-psgr'!AI3</f>
+        <v>7677.1720917226739</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="B4" s="4">
+        <f>'BNVP-LDVs-psgr'!B4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="C4" s="4">
+        <f>'BNVP-LDVs-psgr'!C4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="D4" s="4">
+        <f>'BNVP-LDVs-psgr'!D4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="E4" s="4">
+        <f>'BNVP-LDVs-psgr'!E4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="F4" s="4">
+        <f>'BNVP-LDVs-psgr'!F4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="G4" s="4">
+        <f>'BNVP-LDVs-psgr'!G4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="H4" s="4">
+        <f>'BNVP-LDVs-psgr'!H4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="I4" s="4">
+        <f>'BNVP-LDVs-psgr'!I4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="J4" s="4">
+        <f>'BNVP-LDVs-psgr'!J4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="K4" s="4">
+        <f>'BNVP-LDVs-psgr'!K4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="L4" s="4">
+        <f>'BNVP-LDVs-psgr'!L4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="M4" s="4">
+        <f>'BNVP-LDVs-psgr'!M4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="N4" s="4">
+        <f>'BNVP-LDVs-psgr'!N4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="O4" s="4">
+        <f>'BNVP-LDVs-psgr'!O4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="P4" s="4">
+        <f>'BNVP-LDVs-psgr'!P4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="Q4" s="4">
+        <f>'BNVP-LDVs-psgr'!Q4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="R4" s="4">
+        <f>'BNVP-LDVs-psgr'!R4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="S4" s="4">
+        <f>'BNVP-LDVs-psgr'!S4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="T4" s="4">
+        <f>'BNVP-LDVs-psgr'!T4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="U4" s="4">
+        <f>'BNVP-LDVs-psgr'!U4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="V4" s="4">
+        <f>'BNVP-LDVs-psgr'!V4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="W4" s="4">
+        <f>'BNVP-LDVs-psgr'!W4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="X4" s="4">
+        <f>'BNVP-LDVs-psgr'!X4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="Y4" s="4">
+        <f>'BNVP-LDVs-psgr'!Y4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="Z4" s="4">
+        <f>'BNVP-LDVs-psgr'!Z4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="AA4" s="4">
+        <f>'BNVP-LDVs-psgr'!AA4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="AB4" s="4">
+        <f>'BNVP-LDVs-psgr'!AB4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="AC4" s="4">
+        <f>'BNVP-LDVs-psgr'!AC4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="AD4" s="4">
+        <f>'BNVP-LDVs-psgr'!AD4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="AE4" s="4">
+        <f>'BNVP-LDVs-psgr'!AE4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="AF4" s="4">
+        <f>'BNVP-LDVs-psgr'!AF4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="AG4" s="4">
+        <f>'BNVP-LDVs-psgr'!AG4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="AH4" s="4">
+        <f>'BNVP-LDVs-psgr'!AH4</f>
+        <v>8414.1509852358431</v>
+      </c>
+      <c r="AI4" s="4">
+        <f>'BNVP-LDVs-psgr'!AI4</f>
+        <v>8414.1509852358431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <f>Ships!B47</f>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!B5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="C5" s="4">
-        <f>B5</f>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!C5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" ref="D5:AI5" si="0">C5</f>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!D5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!E5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!F5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!G5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!H5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!I5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!J5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="K5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!K5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="L5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!L5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="M5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!M5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="N5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!N5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="O5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!O5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!P5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="Q5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!Q5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="R5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!R5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="S5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!S5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="T5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!T5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="U5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!U5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="V5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!V5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="W5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!W5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="X5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!X5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="Y5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!Y5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="Z5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!Z5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="AA5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!AA5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="AB5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!AB5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="AC5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!AC5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="AD5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!AD5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="AE5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!AE5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="AF5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!AF5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="AG5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!AG5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="AH5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
+        <f>'BNVP-LDVs-psgr'!AH5</f>
+        <v>11170.723630486968</v>
       </c>
       <c r="AI5" s="4">
-        <f t="shared" si="0"/>
-        <v>189030.21913307568</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+        <f>'BNVP-LDVs-psgr'!AI5</f>
+        <v>11170.723630486968</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="B6" s="4">
+        <f>'BNVP-LDVs-psgr'!B6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="C6" s="4">
+        <f>'BNVP-LDVs-psgr'!C6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="D6" s="4">
+        <f>'BNVP-LDVs-psgr'!D6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="E6" s="4">
+        <f>'BNVP-LDVs-psgr'!E6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="F6" s="4">
+        <f>'BNVP-LDVs-psgr'!F6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="G6" s="4">
+        <f>'BNVP-LDVs-psgr'!G6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="H6" s="4">
+        <f>'BNVP-LDVs-psgr'!H6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="I6" s="4">
+        <f>'BNVP-LDVs-psgr'!I6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="J6" s="4">
+        <f>'BNVP-LDVs-psgr'!J6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="K6" s="4">
+        <f>'BNVP-LDVs-psgr'!K6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="L6" s="4">
+        <f>'BNVP-LDVs-psgr'!L6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="M6" s="4">
+        <f>'BNVP-LDVs-psgr'!M6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="N6" s="4">
+        <f>'BNVP-LDVs-psgr'!N6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="O6" s="4">
+        <f>'BNVP-LDVs-psgr'!O6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="P6" s="4">
+        <f>'BNVP-LDVs-psgr'!P6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>'BNVP-LDVs-psgr'!Q6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="R6" s="4">
+        <f>'BNVP-LDVs-psgr'!R6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="S6" s="4">
+        <f>'BNVP-LDVs-psgr'!S6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="T6" s="4">
+        <f>'BNVP-LDVs-psgr'!T6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="U6" s="4">
+        <f>'BNVP-LDVs-psgr'!U6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="V6" s="4">
+        <f>'BNVP-LDVs-psgr'!V6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="W6" s="4">
+        <f>'BNVP-LDVs-psgr'!W6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="X6" s="4">
+        <f>'BNVP-LDVs-psgr'!X6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="Y6" s="4">
+        <f>'BNVP-LDVs-psgr'!Y6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="Z6" s="4">
+        <f>'BNVP-LDVs-psgr'!Z6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="AA6" s="4">
+        <f>'BNVP-LDVs-psgr'!AA6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="AB6" s="4">
+        <f>'BNVP-LDVs-psgr'!AB6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="AC6" s="4">
+        <f>'BNVP-LDVs-psgr'!AC6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="AD6" s="4">
+        <f>'BNVP-LDVs-psgr'!AD6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="AE6" s="4">
+        <f>'BNVP-LDVs-psgr'!AE6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="AF6" s="4">
+        <f>'BNVP-LDVs-psgr'!AF6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="AG6" s="4">
+        <f>'BNVP-LDVs-psgr'!AG6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="AH6" s="4">
+        <f>'BNVP-LDVs-psgr'!AH6</f>
+        <v>85108.100260433552</v>
+      </c>
+      <c r="AI6" s="4">
+        <f>'BNVP-LDVs-psgr'!AI6</f>
+        <v>85108.100260433552</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <f>$B7</f>
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ref="D7:AI7" si="1">$B7</f>
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="B7" s="4">
+        <f>'BNVP-LDVs-psgr'!B7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="C7" s="4">
+        <f>'BNVP-LDVs-psgr'!C7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="D7" s="4">
+        <f>'BNVP-LDVs-psgr'!D7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="E7" s="4">
+        <f>'BNVP-LDVs-psgr'!E7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="F7" s="4">
+        <f>'BNVP-LDVs-psgr'!F7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="G7" s="4">
+        <f>'BNVP-LDVs-psgr'!G7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="H7" s="4">
+        <f>'BNVP-LDVs-psgr'!H7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="I7" s="4">
+        <f>'BNVP-LDVs-psgr'!I7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="J7" s="4">
+        <f>'BNVP-LDVs-psgr'!J7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="K7" s="4">
+        <f>'BNVP-LDVs-psgr'!K7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="L7" s="4">
+        <f>'BNVP-LDVs-psgr'!L7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="M7" s="4">
+        <f>'BNVP-LDVs-psgr'!M7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="N7" s="4">
+        <f>'BNVP-LDVs-psgr'!N7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="O7" s="4">
+        <f>'BNVP-LDVs-psgr'!O7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="P7" s="4">
+        <f>'BNVP-LDVs-psgr'!P7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="Q7" s="4">
+        <f>'BNVP-LDVs-psgr'!Q7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="R7" s="4">
+        <f>'BNVP-LDVs-psgr'!R7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="S7" s="4">
+        <f>'BNVP-LDVs-psgr'!S7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="T7" s="4">
+        <f>'BNVP-LDVs-psgr'!T7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="U7" s="4">
+        <f>'BNVP-LDVs-psgr'!U7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="V7" s="4">
+        <f>'BNVP-LDVs-psgr'!V7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="W7" s="4">
+        <f>'BNVP-LDVs-psgr'!W7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="X7" s="4">
+        <f>'BNVP-LDVs-psgr'!X7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="Y7" s="4">
+        <f>'BNVP-LDVs-psgr'!Y7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="Z7" s="4">
+        <f>'BNVP-LDVs-psgr'!Z7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="AA7" s="4">
+        <f>'BNVP-LDVs-psgr'!AA7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="AB7" s="4">
+        <f>'BNVP-LDVs-psgr'!AB7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="AC7" s="4">
+        <f>'BNVP-LDVs-psgr'!AC7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="AD7" s="4">
+        <f>'BNVP-LDVs-psgr'!AD7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="AE7" s="4">
+        <f>'BNVP-LDVs-psgr'!AE7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="AF7" s="4">
+        <f>'BNVP-LDVs-psgr'!AF7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="AG7" s="4">
+        <f>'BNVP-LDVs-psgr'!AG7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="AH7" s="4">
+        <f>'BNVP-LDVs-psgr'!AH7</f>
+        <v>4888.5032132532206</v>
+      </c>
+      <c r="AI7" s="4">
+        <f>'BNVP-LDVs-psgr'!AI7</f>
+        <v>4888.5032132532206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>174</v>
       </c>
       <c r="B8" s="4">
-        <f>'Hydrogen - US data'!B10</f>
-        <v>69622.716024780879</v>
+        <f>'BNVP-LDVs-psgr'!B8</f>
+        <v>71671.802858802301</v>
       </c>
       <c r="C8" s="4">
-        <f>'Hydrogen - US data'!C10</f>
-        <v>62573.381083225635</v>
+        <f>'BNVP-LDVs-psgr'!C8</f>
+        <v>70169.990001958169</v>
       </c>
       <c r="D8" s="4">
-        <f>'Hydrogen - US data'!D10</f>
-        <v>60135.116145988432</v>
+        <f>'BNVP-LDVs-psgr'!D8</f>
+        <v>68817.744603284256</v>
       </c>
       <c r="E8" s="4">
-        <f>'Hydrogen - US data'!E10</f>
-        <v>58038.42380790555</v>
+        <f>'BNVP-LDVs-psgr'!E8</f>
+        <v>67295.992266464134</v>
       </c>
       <c r="F8" s="4">
-        <f>'Hydrogen - US data'!F10</f>
-        <v>55556.142763366515</v>
+        <f>'BNVP-LDVs-psgr'!F8</f>
+        <v>65381.764383467074</v>
       </c>
       <c r="G8" s="4">
-        <f>'Hydrogen - US data'!G10</f>
-        <v>53478.556825949643</v>
+        <f>'BNVP-LDVs-psgr'!G8</f>
+        <v>63442.774489302341</v>
       </c>
       <c r="H8" s="4">
-        <f>'Hydrogen - US data'!H10</f>
-        <v>51674.270907425263</v>
+        <f>'BNVP-LDVs-psgr'!H8</f>
+        <v>61714.269486428275</v>
       </c>
       <c r="I8" s="4">
-        <f>'Hydrogen - US data'!I10</f>
-        <v>50269.845760960488</v>
+        <f>'BNVP-LDVs-psgr'!I8</f>
+        <v>60340.29799051286</v>
       </c>
       <c r="J8" s="4">
-        <f>'Hydrogen - US data'!J10</f>
-        <v>48585.755602155776</v>
+        <f>'BNVP-LDVs-psgr'!J8</f>
+        <v>58916.381225068319</v>
       </c>
       <c r="K8" s="4">
-        <f>'Hydrogen - US data'!K10</f>
-        <v>47820.306238754973</v>
+        <f>'BNVP-LDVs-psgr'!K8</f>
+        <v>57992.751901552423</v>
       </c>
       <c r="L8" s="4">
-        <f>'Hydrogen - US data'!L10</f>
-        <v>47210.471951340718</v>
+        <f>'BNVP-LDVs-psgr'!L8</f>
+        <v>57104.944159617815</v>
       </c>
       <c r="M8" s="4">
-        <f>'Hydrogen - US data'!M10</f>
-        <v>46516.871395806629</v>
+        <f>'BNVP-LDVs-psgr'!M8</f>
+        <v>56272.362781819553</v>
       </c>
       <c r="N8" s="4">
-        <f>'Hydrogen - US data'!N10</f>
-        <v>45983.710822468522</v>
+        <f>'BNVP-LDVs-psgr'!N8</f>
+        <v>55464.900871012476</v>
       </c>
       <c r="O8" s="4">
-        <f>'Hydrogen - US data'!O10</f>
-        <v>45319.540982331629</v>
+        <f>'BNVP-LDVs-psgr'!O8</f>
+        <v>54715.180915420715</v>
       </c>
       <c r="P8" s="4">
-        <f>'Hydrogen - US data'!P10</f>
-        <v>44751.667608498603</v>
+        <f>'BNVP-LDVs-psgr'!P8</f>
+        <v>53991.118405632784</v>
       </c>
       <c r="Q8" s="4">
-        <f>'Hydrogen - US data'!Q10</f>
-        <v>44157.434839299392</v>
+        <f>'BNVP-LDVs-psgr'!Q8</f>
+        <v>53306.877225406512</v>
       </c>
       <c r="R8" s="4">
-        <f>'Hydrogen - US data'!R10</f>
-        <v>43527.855890483275</v>
+        <f>'BNVP-LDVs-psgr'!R8</f>
+        <v>52657.188647763163</v>
       </c>
       <c r="S8" s="4">
-        <f>'Hydrogen - US data'!S10</f>
-        <v>43038.89046287605</v>
+        <f>'BNVP-LDVs-psgr'!S8</f>
+        <v>51979.819581427451</v>
       </c>
       <c r="T8" s="4">
-        <f>'Hydrogen - US data'!T10</f>
-        <v>42532.588870249783</v>
+        <f>'BNVP-LDVs-psgr'!T8</f>
+        <v>51321.567434779063</v>
       </c>
       <c r="U8" s="4">
-        <f>'Hydrogen - US data'!U10</f>
-        <v>42055.871506570365</v>
+        <f>'BNVP-LDVs-psgr'!U8</f>
+        <v>50691.924962569858</v>
       </c>
       <c r="V8" s="4">
-        <f>'Hydrogen - US data'!V10</f>
-        <v>41555.774999076144</v>
+        <f>'BNVP-LDVs-psgr'!V8</f>
+        <v>50094.373475486296</v>
       </c>
       <c r="W8" s="4">
-        <f>'Hydrogen - US data'!W10</f>
-        <v>41098.616127877198</v>
+        <f>'BNVP-LDVs-psgr'!W8</f>
+        <v>49520.37156788868</v>
       </c>
       <c r="X8" s="4">
-        <f>'Hydrogen - US data'!X10</f>
-        <v>40661.400729050503</v>
+        <f>'BNVP-LDVs-psgr'!X8</f>
+        <v>48974.061974078919</v>
       </c>
       <c r="Y8" s="4">
-        <f>'Hydrogen - US data'!Y10</f>
-        <v>40232.178123692443</v>
+        <f>'BNVP-LDVs-psgr'!Y8</f>
+        <v>48453.179754450975</v>
       </c>
       <c r="Z8" s="4">
-        <f>'Hydrogen - US data'!Z10</f>
-        <v>39773.162042840559</v>
+        <f>'BNVP-LDVs-psgr'!Z8</f>
+        <v>47959.246951117115</v>
       </c>
       <c r="AA8" s="4">
-        <f>'Hydrogen - US data'!AA10</f>
-        <v>39403.755516202385</v>
+        <f>'BNVP-LDVs-psgr'!AA8</f>
+        <v>47486.024681113064</v>
       </c>
       <c r="AB8" s="4">
-        <f>'Hydrogen - US data'!AB10</f>
-        <v>39006.693573200246</v>
+        <f>'BNVP-LDVs-psgr'!AB8</f>
+        <v>47036.677594138353</v>
       </c>
       <c r="AC8" s="4">
-        <f>'Hydrogen - US data'!AC10</f>
-        <v>38634.025869095451</v>
+        <f>'BNVP-LDVs-psgr'!AC8</f>
+        <v>46606.761404087512</v>
       </c>
       <c r="AD8" s="4">
-        <f>'Hydrogen - US data'!AD10</f>
-        <v>38284.191828142648</v>
+        <f>'BNVP-LDVs-psgr'!AD8</f>
+        <v>46195.705761431702</v>
       </c>
       <c r="AE8" s="4">
-        <f>'Hydrogen - US data'!AE10</f>
-        <v>37927.869797491228</v>
+        <f>'BNVP-LDVs-psgr'!AE8</f>
+        <v>45803.616161162994</v>
       </c>
       <c r="AF8" s="4">
-        <f>'Hydrogen - US data'!AF10</f>
-        <v>37590.631074930439</v>
+        <f>'BNVP-LDVs-psgr'!AF8</f>
+        <v>45429.867256254096</v>
       </c>
       <c r="AG8" s="4">
-        <f>'Hydrogen - US data'!AG10</f>
-        <v>37287.593347994982</v>
+        <f>'BNVP-LDVs-psgr'!AG8</f>
+        <v>45072.360096293305</v>
       </c>
       <c r="AH8" s="4">
-        <f>'Hydrogen - US data'!AH10</f>
-        <v>36972.311229917294</v>
+        <f>'BNVP-LDVs-psgr'!AH8</f>
+        <v>44732.50176539275</v>
       </c>
       <c r="AI8" s="4">
-        <f>'Hydrogen - US data'!AI10</f>
-        <v>36679.355002682401</v>
+        <f>'BNVP-LDVs-psgr'!AI8</f>
+        <v>44402.082836625734</v>
       </c>
     </row>
   </sheetData>
@@ -15883,7 +16064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -15893,12 +16074,12 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -16005,7 +16186,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -16112,7 +16293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -16219,7 +16400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -16326,7 +16507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -16467,7 +16648,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -16574,7 +16755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>173</v>
       </c>
@@ -16714,7 +16895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>174</v>
       </c>
@@ -16861,7 +17042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -16871,12 +17052,12 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -16983,7 +17164,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -17124,7 +17305,7 @@
         <v>581.29981769919425</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -17231,7 +17412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -17372,7 +17553,7 @@
         <v>1175.292461165729</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -17479,7 +17660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -17586,7 +17767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>173</v>
       </c>
@@ -17693,7 +17874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>174</v>
       </c>
@@ -17806,7 +17987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -17816,12 +17997,12 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>172</v>
       </c>
@@ -17928,7 +18109,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -18069,7 +18250,7 @@
         <v>2468.9410167945562</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -18210,7 +18391,7 @@
         <v>2592.3880676342837</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -18351,7 +18532,7 @@
         <v>2376.3557286647601</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -18492,7 +18673,7 @@
         <v>2043.0486913974946</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -18633,7 +18814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>173</v>
       </c>
@@ -18774,7 +18955,7 @@
         <v>2623.2498303442158</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>174</v>
       </c>
@@ -18887,23 +19068,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.59765625" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>149</v>
       </c>
@@ -18914,7 +19095,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -18931,7 +19112,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -18948,7 +19129,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>147</v>
       </c>
@@ -18965,7 +19146,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>148</v>
       </c>
@@ -18982,7 +19163,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>200</v>
       </c>
@@ -18999,7 +19180,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>158</v>
       </c>
@@ -19016,7 +19197,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>201</v>
       </c>
@@ -19033,7 +19214,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>159</v>
       </c>
@@ -19050,7 +19231,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>292</v>
       </c>
@@ -19073,7 +19254,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>293</v>
       </c>
@@ -19090,7 +19271,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>301</v>
       </c>
@@ -19113,14 +19294,14 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -19132,7 +19313,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -19144,7 +19325,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -19155,7 +19336,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -19167,7 +19348,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -19178,7 +19359,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -19190,7 +19371,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -19202,7 +19383,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -19214,7 +19395,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -19226,7 +19407,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -19244,7 +19425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
@@ -19254,17 +19435,17 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.73046875" customWidth="1"/>
-    <col min="2" max="2" width="11.73046875" customWidth="1"/>
-    <col min="3" max="3" width="10.73046875" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="12.265625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>214</v>
       </c>
@@ -19279,7 +19460,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>269</v>
       </c>
@@ -19294,7 +19475,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>205</v>
       </c>
@@ -19308,7 +19489,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>207</v>
       </c>
@@ -19322,7 +19503,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>206</v>
       </c>
@@ -19337,11 +19518,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>208</v>
       </c>
@@ -19357,7 +19538,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>209</v>
       </c>
@@ -19371,15 +19552,15 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>215</v>
       </c>
@@ -19393,7 +19574,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>216</v>
       </c>
@@ -19407,25 +19588,25 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -19437,7 +19618,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>109</v>
       </c>
@@ -19449,7 +19630,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>128</v>
       </c>
@@ -19461,10 +19642,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" s="16"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -19476,7 +19657,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>109</v>
       </c>
@@ -19488,7 +19669,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>128</v>
       </c>
@@ -19506,7 +19687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
@@ -19516,19 +19697,19 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
-    <col min="3" max="3" width="10.73046875" customWidth="1"/>
-    <col min="8" max="8" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>222</v>
       </c>
@@ -19545,7 +19726,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>223</v>
       </c>
@@ -19562,7 +19743,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>151</v>
       </c>
@@ -19579,7 +19760,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>152</v>
       </c>
@@ -19597,7 +19778,7 @@
       </c>
       <c r="H5" s="48"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>153</v>
       </c>
@@ -19614,7 +19795,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>291</v>
       </c>
@@ -19633,14 +19814,14 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -19652,7 +19833,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -19663,7 +19844,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -19674,7 +19855,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -19686,7 +19867,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -19697,7 +19878,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -19709,7 +19890,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -19721,7 +19902,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -19733,7 +19914,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -19745,7 +19926,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -19763,7 +19944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
@@ -19773,14 +19954,14 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.3984375" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="13.86328125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
@@ -19791,7 +19972,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>110</v>
       </c>
@@ -19806,7 +19987,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>111</v>
       </c>
@@ -19821,7 +20002,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -19836,7 +20017,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -19851,7 +20032,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>114</v>
       </c>
@@ -19865,7 +20046,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -19876,7 +20057,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>117</v>
       </c>
@@ -19890,7 +20071,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>118</v>
       </c>
@@ -19904,7 +20085,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>115</v>
       </c>
@@ -19919,7 +20100,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -19933,7 +20114,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>226</v>
       </c>
@@ -19947,7 +20128,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -19959,7 +20140,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -19970,7 +20151,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -19982,7 +20163,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -19993,7 +20174,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -20004,7 +20185,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -20016,7 +20197,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -20028,7 +20209,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -20040,7 +20221,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -20052,7 +20233,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -20070,7 +20251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
@@ -20080,14 +20261,14 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.73046875" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -20101,7 +20282,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>124</v>
       </c>
@@ -20115,7 +20296,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -20129,7 +20310,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -20143,7 +20324,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -20157,7 +20338,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>227</v>
       </c>
@@ -20171,7 +20352,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>132</v>
       </c>
@@ -20185,7 +20366,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>133</v>
       </c>
@@ -20199,7 +20380,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>135</v>
       </c>
@@ -20213,7 +20394,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -20227,7 +20408,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>137</v>
       </c>
@@ -20241,7 +20422,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>142</v>
       </c>
@@ -20255,7 +20436,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>143</v>
       </c>
@@ -20269,7 +20450,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -20281,7 +20462,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -20293,7 +20474,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -20305,7 +20486,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -20317,7 +20498,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -20328,7 +20509,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>173</v>
       </c>
@@ -20340,7 +20521,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -20352,7 +20533,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -20364,7 +20545,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -20376,7 +20557,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -20388,7 +20569,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -20400,7 +20581,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>173</v>
       </c>
@@ -20419,31 +20600,31 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
-    <col min="2" max="2" width="20.59765625" customWidth="1"/>
-    <col min="3" max="3" width="21.59765625" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -20454,7 +20635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -20465,7 +20646,7 @@
         <v>41000000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -20476,7 +20657,7 @@
         <v>45000000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -20487,7 +20668,7 @@
         <v>149000000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -20498,7 +20679,7 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -20509,7 +20690,7 @@
         <v>40000000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -20520,17 +20701,17 @@
         <v>84000000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -20541,22 +20722,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="17.86328125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>5.0999999999999996</v>
       </c>
@@ -20566,7 +20747,7 @@
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>246</v>
       </c>
@@ -20580,7 +20761,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
         <v>255</v>
       </c>
@@ -20595,7 +20776,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D4">
         <f>D3/About!A110</f>
         <v>87319700.566003278</v>
@@ -20604,12 +20785,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
     </row>
   </sheetData>
